--- a/Database/Add In Economatica.xlsx
+++ b/Database/Add In Economatica.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77D1CDD-6666-4C86-A252-8B3FFCDBED7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0507C3-1B70-4EF5-B9E3-7984305FB254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B09459F0-08DB-4757-9381-54BC257394C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B09459F0-08DB-4757-9381-54BC257394C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Acoes Bovespa" sheetId="3" r:id="rId1"/>
     <sheet name="DRE" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID158dd88c9e5b420da9b02432dbe42af9" localSheetId="0" hidden="1">'Acoes Bovespa'!$K$5:$K$543</definedName>
-    <definedName name="_ECO_RANGE_ID35e47a09f5694cab810d30bd4d4fc2e9" localSheetId="0" hidden="1">'Acoes Bovespa'!$F$5:$F$543</definedName>
-    <definedName name="_ECO_RANGE_ID3f807d8a8e91413f8dbd80d29aa5bd85" localSheetId="0" hidden="1">'Acoes Bovespa'!$C$5:$C$543</definedName>
-    <definedName name="_ECO_RANGE_ID53d46bda61c24736a922ae237d59ffcb" localSheetId="0" hidden="1">'Acoes Bovespa'!$J$5:$J$543</definedName>
-    <definedName name="_ECO_RANGE_ID982f75dc9dfa466dba95f49cc5591f66" localSheetId="0" hidden="1">'Acoes Bovespa'!$H$5:$H$543</definedName>
-    <definedName name="_ECO_RANGE_IDd1fb02748ff8423ba4ec441f4ab63feb" localSheetId="0" hidden="1">'Acoes Bovespa'!$D$5:$D$543</definedName>
-    <definedName name="_ECO_RANGE_IDd42aa106304c42cbbdffdfde6ba6a385" localSheetId="0" hidden="1">'Acoes Bovespa'!$I$5:$I$543</definedName>
-    <definedName name="_ECO_RANGE_IDd575daae57b34340a0b947cdbcc8877b" localSheetId="0" hidden="1">'Acoes Bovespa'!$E$5:$E$543</definedName>
-    <definedName name="_ECO_RANGE_IDf0cc834e619a4bfb9e8da6d1d5b178c1" localSheetId="0" hidden="1">'Acoes Bovespa'!$G$5:$G$543</definedName>
+    <definedName name="_ECO_RANGE_ID08177606b05b4f35bd81d7963153ca05" localSheetId="0" hidden="1">'Acoes Bovespa'!$I$5:$I$543</definedName>
+    <definedName name="_ECO_RANGE_ID281d5c97ed3047629e06ce2ada442442" localSheetId="0" hidden="1">'Acoes Bovespa'!$E$5:$E$543</definedName>
+    <definedName name="_ECO_RANGE_ID38bdb0aaebe74022801fd97b6ce8be87" localSheetId="0" hidden="1">'Acoes Bovespa'!$C$5:$C$543</definedName>
+    <definedName name="_ECO_RANGE_ID40987735d1b84a10a04a8fa13a98c26e" localSheetId="0" hidden="1">'Acoes Bovespa'!$D$5:$D$543</definedName>
+    <definedName name="_ECO_RANGE_ID427f1479b2944e48b18f82f27d4b1d7c" localSheetId="0" hidden="1">'Acoes Bovespa'!$G$5:$G$543</definedName>
+    <definedName name="_ECO_RANGE_ID4780d40d6eb64f38a07b7692fa06c98f" localSheetId="0" hidden="1">'Acoes Bovespa'!$H$5:$H$543</definedName>
+    <definedName name="_ECO_RANGE_IDb2b01a98af2a4d59bf3f839c265442d0" localSheetId="0" hidden="1">'Acoes Bovespa'!$K$5:$K$543</definedName>
+    <definedName name="_ECO_RANGE_IDc48810d053e3485896ed8c179d87be87" localSheetId="0" hidden="1">'Acoes Bovespa'!$F$5:$F$543</definedName>
+    <definedName name="_ECO_RANGE_IDff7a08aad8c24362ad0f7b4f0508f4a1" localSheetId="0" hidden="1">'Acoes Bovespa'!$J$5:$J$543</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Acoes Bovespa'!$A$4:$K$565</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="1526">
   <si>
     <t>RRRP3&lt;XBSP&gt;</t>
   </si>
@@ -4646,6 +4646,9 @@
   </si>
   <si>
     <t>INNC3</t>
+  </si>
+  <si>
+    <t>Ajuste para ultimo dia do mês</t>
   </si>
 </sst>
 </file>
@@ -4772,66 +4775,68 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_e31ee700ab55464585c96f147d723610">
+    <main first="rtdsrv_eco_93b12bda5c1a40c3b3972d7ca91daa99">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>90e3d0c1-7935-44a5-a058-f47668ad2adc</stp>
+        <tr r="D4" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_93b12bda5c1a40c3b3972d7ca91daa99">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>0f72cae5-0272-449b-bcc6-7c6e3f23e1fe</stp>
+        <stp>64f78821-dee1-4f30-a5d6-f8f66829be51</stp>
+        <tr r="K4" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_93b12bda5c1a40c3b3972d7ca91daa99">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>25eab615-536f-4fcd-bfe5-385d57866dd1</stp>
+        <tr r="J4" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_93b12bda5c1a40c3b3972d7ca91daa99">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c0df51ba-57ee-4e65-af15-fdafa0373de1</stp>
+        <tr r="F4" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fb1ca43b-8cd5-4339-aa01-9f49c00f008c</stp>
+        <tr r="G4" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7ffacec2-eec2-42b7-97d6-cf3ef7124a7c</stp>
+        <tr r="C4" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0aa10078-f7b7-42f0-b690-82f56be9fdc8</stp>
         <tr r="I4" s="3"/>
       </tp>
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>c605ef0f-22a5-441f-b6ab-bda7b18d81d8</stp>
-        <tr r="K4" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>95b7d1cb-5c66-4197-897b-4c5b8f25f3b8</stp>
-        <tr r="J4" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>7aa44560-bbd9-4e55-aef9-50f045e6fd97</stp>
-        <tr r="F4" s="3"/>
+        <stp>252c7914-d2e7-44e2-9133-c0f61f007666</stp>
+        <tr r="E4" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_e31ee700ab55464585c96f147d723610">
+    <main first="rtdsrv_eco_93b12bda5c1a40c3b3972d7ca91daa99">
       <tp>
-        <v>2</v>
+        <v>3</v>
         <stp/>
-        <stp>272fc52a-b786-4718-be36-df77e7bd1279</stp>
-        <tr r="C4" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e31ee700ab55464585c96f147d723610">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>0705817b-515c-4037-8192-22c3190208f3</stp>
-        <tr r="E4" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>bc1997b2-b61e-44fb-901b-058579a8ddcc</stp>
+        <stp>2a4f4812-d7a9-4a34-a9c2-1b0b3e737a8b</stp>
         <tr r="H4" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_e31ee700ab55464585c96f147d723610">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>493184ca-7999-44ab-89a6-38cfc81eda44</stp>
-        <tr r="G4" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>c4f767f8-893b-48ce-9ecf-8287e5e2ae48</stp>
-        <tr r="D4" s="3"/>
       </tp>
     </main>
   </volType>
@@ -4839,9 +4844,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4879,7 +4884,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4985,7 +4990,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5127,7 +5132,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5137,7 +5142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B1C275-474F-4760-AE72-49240951837A}">
   <dimension ref="A1:L565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H508" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
       <selection activeCell="I5" sqref="I5:I543"/>
     </sheetView>
   </sheetViews>
@@ -5161,7 +5166,7 @@
         <v>545</v>
       </c>
       <c r="B1" s="6">
-        <v>45304</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -5170,7 +5175,7 @@
       </c>
       <c r="B2">
         <f>MONTH(B1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>524</v>
@@ -5189,6 +5194,9 @@
       </c>
       <c r="K2" t="s">
         <v>529</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5201,7 +5209,7 @@
       </c>
       <c r="F3" s="1">
         <f>EOMONTH(B1,0)</f>
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="G3" t="str">
         <f>B3</f>
@@ -5213,15 +5221,15 @@
       </c>
       <c r="I3" s="1">
         <f>F3</f>
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
         <f>F3-L3</f>
-        <v>45319</v>
+        <v>45351</v>
       </c>
       <c r="L3" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5245,7 +5253,7 @@
       </c>
       <c r="F4" s="3" t="str" cm="1">
         <f t="array" ref="F4">_xll.ECONOMATICA(_xll.EcoRange(1,-COLUMN()+COLUMN($B$4),MAX(A:A),-COLUMN()+COLUMN($B$4)),"Divid per Share","1Y",F3,,,"USD",,"false","true")</f>
-        <v>Divid per Share 31Jan24 1 years In US Dollars</v>
+        <v>Divid per Share 29Feb24 1 years In US Dollars</v>
       </c>
       <c r="G4" s="3" t="str" cm="1">
         <f t="array" ref="G4">_xll.ECONOMATICA(_xll.EcoRange(1,-COLUMN()+COLUMN($B$4),MAX(A:A),-COLUMN()+COLUMN($B$4)),"EPS","12M",G3,,,"USD",,"false","true")</f>
@@ -5257,7 +5265,7 @@
       </c>
       <c r="I4" s="3" t="str" cm="1">
         <f t="array" ref="I4">_xll.ECONOMATICA(_xll.EcoRange(1,-COLUMN()+COLUMN($B$4),MAX(A:A),-COLUMN()+COLUMN($B$4)),"Volume$","1M",I3,,,"USD","THOUSANDS","false","true",,{"std.tec.caddip=true"})</f>
-        <v>Volume$ 31Jan24 1 months In US Dollars in thousands</v>
+        <v>Volume$ 29Feb24 1 months In US Dollars in thousands</v>
       </c>
       <c r="J4" s="3" t="str" cm="1">
         <f t="array" ref="J4">_xll.ECONOMATICA(_xll.EcoRange(1,-COLUMN()+COLUMN($B$4),MAX(A:A),-COLUMN()+COLUMN($B$4)),"Sector Economatica",,,,,,,"false","true")</f>
@@ -5265,7 +5273,7 @@
       </c>
       <c r="K4" s="3" t="str" cm="1">
         <f t="array" ref="K4">_xll.ECONOMATICA(_xll.EcoRange(1,-COLUMN()+COLUMN($B$4),MAX(A:A),-COLUMN()+COLUMN($B$4)),"Close",,K3,,,"USD",,"false","true")</f>
-        <v>Close 28Jan24 adj by CA's In US Dollars</v>
+        <v>Close 29Feb24 adj by CA's In US Dollars</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5295,13 +5303,13 @@
         <v>4.3148861111999999</v>
       </c>
       <c r="I5">
-        <v>810631.97889000003</v>
+        <v>531043.44424999994</v>
       </c>
       <c r="J5" t="s">
         <v>1100</v>
       </c>
       <c r="K5">
-        <v>5.8524173028000002</v>
+        <v>5.6087331687999997</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -5322,7 +5330,7 @@
         <v>564</v>
       </c>
       <c r="F6">
-        <v>2.2358852971000001E-2</v>
+        <v>2.3601531764999999E-2</v>
       </c>
       <c r="G6">
         <v>0.25141337336000003</v>
@@ -5331,13 +5339,13 @@
         <v>1.2717959779000001</v>
       </c>
       <c r="I6">
-        <v>70392.214382000006</v>
+        <v>64319.497342000002</v>
       </c>
       <c r="J6" t="s">
         <v>1101</v>
       </c>
       <c r="K6">
-        <v>2.2575063612999999</v>
+        <v>2.1331246362999998</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -5397,13 +5405,13 @@
         <v>5.1567003383000003</v>
       </c>
       <c r="I8">
-        <v>65037.898103</v>
+        <v>67454.400863999996</v>
       </c>
       <c r="J8" t="s">
         <v>1103</v>
       </c>
       <c r="K8">
-        <v>4.7267175572999998</v>
+        <v>4.7378243332999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5433,13 +5441,13 @@
         <v>2.0526222364</v>
       </c>
       <c r="I9">
-        <v>16.893044253999999</v>
+        <v>18.994610621</v>
       </c>
       <c r="J9" t="s">
         <v>1104</v>
       </c>
       <c r="K9">
-        <v>1.9155216285000001</v>
+        <v>2.0849637790000002</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -5469,13 +5477,13 @@
         <v>2.0526222364</v>
       </c>
       <c r="I10">
-        <v>423.55129001</v>
+        <v>182.75367309999999</v>
       </c>
       <c r="J10" t="s">
         <v>1104</v>
       </c>
       <c r="K10">
-        <v>2.0865139948999998</v>
+        <v>2.2575401841999998</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5505,13 +5513,13 @@
         <v>0.21759596163</v>
       </c>
       <c r="I11">
-        <v>21990.15958</v>
+        <v>12936.441392000001</v>
       </c>
       <c r="J11" t="s">
         <v>1105</v>
       </c>
       <c r="K11">
-        <v>0.16081424935999999</v>
+        <v>0.13444905986</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5541,13 +5549,13 @@
         <v>1.4828028627000001</v>
       </c>
       <c r="I12">
-        <v>134920.56651999999</v>
+        <v>115962.14647000001</v>
       </c>
       <c r="J12" t="s">
         <v>1102</v>
       </c>
       <c r="K12">
-        <v>2.3083969465999998</v>
+        <v>2.0949972909999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5607,13 +5615,13 @@
         <v>0.82811116878000002</v>
       </c>
       <c r="I14">
-        <v>20.330336146</v>
+        <v>8.2293882722999996</v>
       </c>
       <c r="J14" t="s">
         <v>1102</v>
       </c>
       <c r="K14">
-        <v>1.6284987277</v>
+        <v>1.6234222302000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5673,13 +5681,13 @@
         <v>1.2216886597000001</v>
       </c>
       <c r="I16">
-        <v>1940.8598449000001</v>
+        <v>2062.6179778999999</v>
       </c>
       <c r="J16" t="s">
         <v>1101</v>
       </c>
       <c r="K16">
-        <v>0.58218829517000004</v>
+        <v>0.34515281039000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -5709,13 +5717,10 @@
         <v>3.6255375922000002</v>
       </c>
       <c r="I17">
-        <v>66.726654174999993</v>
+        <v>27.324003926</v>
       </c>
       <c r="J17" t="s">
         <v>1106</v>
-      </c>
-      <c r="K17">
-        <v>2.3328244274999999</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -5745,7 +5750,7 @@
         <v>3.6255375922000002</v>
       </c>
       <c r="I18">
-        <v>4.2244794311999998</v>
+        <v>1.1724040347</v>
       </c>
       <c r="J18" t="s">
         <v>1106</v>
@@ -5778,10 +5783,13 @@
         <v>3.6255375922000002</v>
       </c>
       <c r="I19">
-        <v>21.376244810999999</v>
+        <v>58.000971902000003</v>
       </c>
       <c r="J19" t="s">
         <v>1106</v>
+      </c>
+      <c r="K19">
+        <v>2.4702506370999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -5811,7 +5819,7 @@
         <v>3.6255375922000002</v>
       </c>
       <c r="I20">
-        <v>3.7367191468000001</v>
+        <v>1.3587453416999999</v>
       </c>
       <c r="J20" t="s">
         <v>1106</v>
@@ -5844,7 +5852,7 @@
         <v>3.6255375922000002</v>
       </c>
       <c r="I21">
-        <v>10.016178576</v>
+        <v>35.332099473</v>
       </c>
       <c r="J21" t="s">
         <v>1106</v>
@@ -5877,10 +5885,13 @@
         <v>3.6255375922000002</v>
       </c>
       <c r="I22">
-        <v>22.764343156999999</v>
+        <v>23.336514693000002</v>
       </c>
       <c r="J22" t="s">
         <v>1106</v>
+      </c>
+      <c r="K22">
+        <v>2.5083779824999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5910,10 +5921,13 @@
         <v>3.6255375922000002</v>
       </c>
       <c r="I23">
-        <v>11.228232968</v>
+        <v>11.912655854</v>
       </c>
       <c r="J23" t="s">
         <v>1106</v>
+      </c>
+      <c r="K23">
+        <v>2.4080428631999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5940,13 +5954,13 @@
         <v>2.0732178545000002</v>
       </c>
       <c r="I24">
-        <v>175.74904358000001</v>
+        <v>203.94501829999999</v>
       </c>
       <c r="J24" t="s">
         <v>1103</v>
       </c>
       <c r="K24">
-        <v>1.217302799</v>
+        <v>1.3444905986</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -5973,13 +5987,13 @@
         <v>2.0732178545000002</v>
       </c>
       <c r="I25">
-        <v>1970.5767140999999</v>
+        <v>736.55178277000005</v>
       </c>
       <c r="J25" t="s">
         <v>1103</v>
       </c>
       <c r="K25">
-        <v>1.1358778625999999</v>
+        <v>1.3304436819000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6009,10 +6023,13 @@
         <v>2.5955340252000001</v>
       </c>
       <c r="I26">
-        <v>69.325534915999995</v>
+        <v>61.246999850000002</v>
       </c>
       <c r="J26" t="s">
         <v>1106</v>
+      </c>
+      <c r="K26">
+        <v>1.5271005156999999</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -6042,13 +6059,13 @@
         <v>2.5955340252000001</v>
       </c>
       <c r="I27">
-        <v>77.845189000999994</v>
+        <v>37.818586598000003</v>
       </c>
       <c r="J27" t="s">
         <v>1106</v>
       </c>
       <c r="K27">
-        <v>1.5633587786000001</v>
+        <v>1.6214155279</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -6078,10 +6095,13 @@
         <v>2.5955340252000001</v>
       </c>
       <c r="I28">
-        <v>15.264915029999999</v>
+        <v>71.839772797999998</v>
       </c>
       <c r="J28" t="s">
         <v>1106</v>
+      </c>
+      <c r="K28">
+        <v>1.5250938133</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -6111,13 +6131,10 @@
         <v>3.8649527769000001</v>
       </c>
       <c r="I29">
-        <v>145.01481473000001</v>
+        <v>137.95157318</v>
       </c>
       <c r="J29" t="s">
         <v>1103</v>
-      </c>
-      <c r="K29">
-        <v>2.2188295165</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -6147,13 +6164,13 @@
         <v>3.8649527769000001</v>
       </c>
       <c r="I30">
-        <v>1311.6336424000001</v>
+        <v>626.44494565000002</v>
       </c>
       <c r="J30" t="s">
         <v>1103</v>
       </c>
       <c r="K30">
-        <v>2.1027989821999999</v>
+        <v>2.3919892440999999</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6336,13 +6353,13 @@
         <v>1.7167553402</v>
       </c>
       <c r="I36">
-        <v>4609.7523750999999</v>
+        <v>2098.8923693000002</v>
       </c>
       <c r="J36" t="s">
         <v>1106</v>
       </c>
       <c r="K36">
-        <v>1.7180661578</v>
+        <v>1.7056970280999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -6372,13 +6389,13 @@
         <v>3.3262171463999999</v>
       </c>
       <c r="I37">
-        <v>1027.5498854</v>
+        <v>598.89416065</v>
       </c>
       <c r="J37" t="s">
         <v>1108</v>
       </c>
       <c r="K37">
-        <v>1.4330788804000001</v>
+        <v>1.513053599</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -6408,13 +6425,13 @@
         <v>5.2001831515000001</v>
       </c>
       <c r="I38">
-        <v>502305.10128</v>
+        <v>350684.57766000001</v>
       </c>
       <c r="J38" t="s">
         <v>1106</v>
       </c>
       <c r="K38">
-        <v>5.0117048345999997</v>
+        <v>4.9545481909999998</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -6444,13 +6461,13 @@
         <v>1.5944054218000001</v>
       </c>
       <c r="I39">
-        <v>146.29755157</v>
+        <v>211.82159134</v>
       </c>
       <c r="J39" t="s">
         <v>1109</v>
       </c>
       <c r="K39">
-        <v>1.9338422392000001</v>
+        <v>2.1652318744999999</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -6480,13 +6497,13 @@
         <v>1.5944054218000001</v>
       </c>
       <c r="I40">
-        <v>163430.78638000001</v>
+        <v>196993.48454</v>
       </c>
       <c r="J40" t="s">
         <v>1109</v>
       </c>
       <c r="K40">
-        <v>1.7648854962</v>
+        <v>2.0408163264999999</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -6516,13 +6533,13 @@
         <v>4.8835486196</v>
       </c>
       <c r="I41">
-        <v>7186.0545388</v>
+        <v>993.63803728000005</v>
       </c>
       <c r="J41" t="s">
         <v>1103</v>
       </c>
       <c r="K41">
-        <v>8.9241730280000002</v>
+        <v>8.8716312483999999</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -6552,13 +6569,13 @@
         <v>-4.4414043947000001</v>
       </c>
       <c r="I42">
-        <v>22.762656265</v>
+        <v>43.877689922000002</v>
       </c>
       <c r="J42" t="s">
         <v>1110</v>
       </c>
       <c r="K42">
-        <v>1.0564885496</v>
+        <v>0.92308309754999995</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -6588,13 +6605,13 @@
         <v>1.6472084617</v>
       </c>
       <c r="I43">
-        <v>458.34926209999998</v>
+        <v>438.46163687000001</v>
       </c>
       <c r="J43" t="s">
         <v>1102</v>
       </c>
       <c r="K43">
-        <v>1.9949109414999999</v>
+        <v>2.0046956836000001</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -6624,13 +6641,13 @@
         <v>1.6472084617</v>
       </c>
       <c r="I44">
-        <v>921.57279927000002</v>
+        <v>609.86689406000005</v>
       </c>
       <c r="J44" t="s">
         <v>1102</v>
       </c>
       <c r="K44">
-        <v>1.9826972009999999</v>
+        <v>1.996668874</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -6660,13 +6677,13 @@
         <v>1.6472084617</v>
       </c>
       <c r="I45">
-        <v>87276.609626999998</v>
+        <v>65892.986275999996</v>
       </c>
       <c r="J45" t="s">
         <v>1102</v>
       </c>
       <c r="K45">
-        <v>5.9684478372000003</v>
+        <v>5.9759597054000002</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -6696,13 +6713,13 @@
         <v>20.702573059999999</v>
       </c>
       <c r="I46">
-        <v>894.39288769999996</v>
+        <v>791.85969412999998</v>
       </c>
       <c r="J46" t="s">
         <v>1103</v>
       </c>
       <c r="K46">
-        <v>18.589312976999999</v>
+        <v>18.307145866999999</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -6732,13 +6749,13 @@
         <v>1.1448651956</v>
       </c>
       <c r="I47">
-        <v>1009935.7351</v>
+        <v>1279989.7002000001</v>
       </c>
       <c r="J47" t="s">
         <v>1111</v>
       </c>
       <c r="K47">
-        <v>2.6870229008000002</v>
+        <v>2.5244316014999999</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -6768,13 +6785,13 @@
         <v>1.7499055085999999</v>
       </c>
       <c r="I48">
-        <v>58602.173691999997</v>
+        <v>42050.592703000002</v>
       </c>
       <c r="J48" t="s">
         <v>1106</v>
       </c>
       <c r="K48">
-        <v>2.9292620865000001</v>
+        <v>2.9659061265000002</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -6797,14 +6814,20 @@
       <c r="F49">
         <v>0</v>
       </c>
+      <c r="G49">
+        <v>-3.7788847137000001</v>
+      </c>
+      <c r="H49">
+        <v>-6.9001459774000002</v>
+      </c>
       <c r="I49">
-        <v>57082.244653000002</v>
+        <v>53426.320587000002</v>
       </c>
       <c r="J49" t="s">
         <v>1108</v>
       </c>
       <c r="K49">
-        <v>0.16895674299999999</v>
+        <v>0.10234182168</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -6834,7 +6857,7 @@
         <v>4.4633958971999999</v>
       </c>
       <c r="I50">
-        <v>2.4010804527</v>
+        <v>0.48288062846000002</v>
       </c>
       <c r="J50" t="s">
         <v>1102</v>
@@ -6867,13 +6890,13 @@
         <v>1.3500722803</v>
       </c>
       <c r="I51">
-        <v>122873.25953</v>
+        <v>96344.881307000003</v>
       </c>
       <c r="J51" t="s">
         <v>1106</v>
       </c>
       <c r="K51">
-        <v>0.89770992367000002</v>
+        <v>1.0274316215999999</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -6903,13 +6926,13 @@
         <v>5.2079994453999996</v>
       </c>
       <c r="I52">
-        <v>723413.98011</v>
+        <v>615909.89664000005</v>
       </c>
       <c r="J52" t="s">
         <v>1109</v>
       </c>
       <c r="K52">
-        <v>11.788295164999999</v>
+        <v>11.885698231999999</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -6939,13 +6962,13 @@
         <v>0.70115511412999998</v>
       </c>
       <c r="I53">
-        <v>34285.284119999997</v>
+        <v>32655.744906</v>
       </c>
       <c r="J53" t="s">
         <v>1106</v>
       </c>
       <c r="K53">
-        <v>2.9984732824</v>
+        <v>2.5444986254000002</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -6975,13 +6998,13 @@
         <v>0.63907525132999998</v>
       </c>
       <c r="I54">
-        <v>687776.86055999994</v>
+        <v>586559.67128000001</v>
       </c>
       <c r="J54" t="s">
         <v>1108</v>
       </c>
       <c r="K54">
-        <v>2.8091603052999998</v>
+        <v>2.8495173881000002</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -7011,13 +7034,13 @@
         <v>-0.12538904441000001</v>
       </c>
       <c r="I55">
-        <v>710.42631997000001</v>
+        <v>71.828416387000004</v>
       </c>
       <c r="J55" t="s">
         <v>1106</v>
       </c>
       <c r="K55">
-        <v>0.62086513995000003</v>
+        <v>0.60201071578999998</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -7047,13 +7070,13 @@
         <v>0.15349070169000001</v>
       </c>
       <c r="I56">
-        <v>120.88336525</v>
+        <v>119.20605084</v>
       </c>
       <c r="J56" t="s">
         <v>1112</v>
       </c>
       <c r="K56">
-        <v>0.44783715012999997</v>
+        <v>0.38127345333000001</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -7083,13 +7106,13 @@
         <v>4.6971752485999998</v>
       </c>
       <c r="I57">
-        <v>6903.3592183000001</v>
+        <v>7209.7441408000004</v>
       </c>
       <c r="J57" t="s">
         <v>1113</v>
       </c>
       <c r="K57">
-        <v>6.6157760814</v>
+        <v>6.1806433488000003</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -7119,13 +7142,13 @@
         <v>2.7882418724</v>
       </c>
       <c r="I58">
-        <v>234233.57354000001</v>
+        <v>257404.49116999999</v>
       </c>
       <c r="J58" t="s">
         <v>1102</v>
       </c>
       <c r="K58">
-        <v>2.6849872773999999</v>
+        <v>2.4944559966000002</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -7155,13 +7178,13 @@
         <v>0.30018637734999998</v>
       </c>
       <c r="I59">
-        <v>3478.9338478999998</v>
+        <v>2429.7184686000001</v>
       </c>
       <c r="J59" t="s">
         <v>1110</v>
       </c>
       <c r="K59">
-        <v>0.33180661577999998</v>
+        <v>0.30100535789999999</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -7191,13 +7214,13 @@
         <v>0.30018637734999998</v>
       </c>
       <c r="I60">
-        <v>18798.890436000002</v>
+        <v>11532.335622000001</v>
       </c>
       <c r="J60" t="s">
         <v>1110</v>
       </c>
       <c r="K60">
-        <v>0.32569974554999997</v>
+        <v>0.30100535789999999</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -7227,13 +7250,13 @@
         <v>-12.229161753</v>
       </c>
       <c r="I61">
-        <v>933621.87884000002</v>
+        <v>627919.55145000003</v>
       </c>
       <c r="J61" t="s">
         <v>1107</v>
       </c>
       <c r="K61">
-        <v>2.9048346056000001</v>
+        <v>2.4261031846000001</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -7254,7 +7277,7 @@
         <v>620</v>
       </c>
       <c r="F62">
-        <v>8.5102122197000002E-2</v>
+        <v>9.1441689894000006E-2</v>
       </c>
       <c r="G62">
         <v>0.14583432306999999</v>
@@ -7263,13 +7286,13 @@
         <v>0.71462907285999999</v>
       </c>
       <c r="I62">
-        <v>1795840.4682</v>
+        <v>2068671.7176999999</v>
       </c>
       <c r="J62" t="s">
         <v>1103</v>
       </c>
       <c r="K62">
-        <v>2.6910941475999999</v>
+        <v>2.5745991612000001</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -7299,10 +7322,13 @@
         <v>0.32607541257</v>
       </c>
       <c r="I63">
-        <v>140.78766395</v>
+        <v>78.809894576000005</v>
       </c>
       <c r="J63" t="s">
         <v>1106</v>
+      </c>
+      <c r="K63">
+        <v>1.3043565508999999</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -7332,13 +7358,13 @@
         <v>1.334437994</v>
       </c>
       <c r="I64">
-        <v>19359.787261000001</v>
+        <v>20212.970164999999</v>
       </c>
       <c r="J64" t="s">
         <v>1103</v>
       </c>
       <c r="K64">
-        <v>0.66768447837</v>
+        <v>0.80067425199999998</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -7368,13 +7394,13 @@
         <v>1.2592169903999999</v>
       </c>
       <c r="I65">
-        <v>64453.210111</v>
+        <v>94631.446922000003</v>
       </c>
       <c r="J65" t="s">
         <v>1103</v>
       </c>
       <c r="K65">
-        <v>1.6264631043</v>
+        <v>1.7578712901</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -7395,7 +7421,7 @@
         <v>624</v>
       </c>
       <c r="F66">
-        <v>0.67574089018000005</v>
+        <v>0.45014892760000003</v>
       </c>
       <c r="G66">
         <v>0.79575287523000005</v>
@@ -7404,10 +7430,13 @@
         <v>7.2846770787999997</v>
       </c>
       <c r="I66">
-        <v>6.1535689593000003</v>
+        <v>38.903527408000002</v>
       </c>
       <c r="J66" t="s">
         <v>1103</v>
+      </c>
+      <c r="K66">
+        <v>5.6187666807000003</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -7428,7 +7457,7 @@
         <v>625</v>
       </c>
       <c r="F67">
-        <v>0.74331497928000001</v>
+        <v>0.49516382046000001</v>
       </c>
       <c r="G67">
         <v>0.79575287523000005</v>
@@ -7437,13 +7466,13 @@
         <v>7.2846770787999997</v>
       </c>
       <c r="I67">
-        <v>178.30900342000001</v>
+        <v>425.79113049</v>
       </c>
       <c r="J67" t="s">
         <v>1103</v>
       </c>
       <c r="K67">
-        <v>5.1501272265000004</v>
+        <v>5.6187666807000003</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -7464,7 +7493,7 @@
         <v>626</v>
       </c>
       <c r="F68">
-        <v>0.13265359206999999</v>
+        <v>0.13292654434000001</v>
       </c>
       <c r="G68">
         <v>0.22272863574000001</v>
@@ -7473,13 +7502,13 @@
         <v>1.3772141631999999</v>
       </c>
       <c r="I68">
-        <v>516.45498816999998</v>
+        <v>423.45926327000001</v>
       </c>
       <c r="J68" t="s">
         <v>1103</v>
       </c>
       <c r="K68">
-        <v>1.9597988506999999</v>
+        <v>1.8997918840000001</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -7500,7 +7529,7 @@
         <v>627</v>
       </c>
       <c r="F69">
-        <v>0.13265359206999999</v>
+        <v>0.13292654434000001</v>
       </c>
       <c r="G69">
         <v>0.22272863574000001</v>
@@ -7509,13 +7538,13 @@
         <v>1.3772141631999999</v>
       </c>
       <c r="I69">
-        <v>223.80101927000001</v>
+        <v>169.34351996000001</v>
       </c>
       <c r="J69" t="s">
         <v>1103</v>
       </c>
       <c r="K69">
-        <v>2.0289760756000002</v>
+        <v>1.9941340006999999</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -7578,13 +7607,13 @@
         <v>4.6419917997000004</v>
       </c>
       <c r="I71">
-        <v>718.96158666999997</v>
+        <v>554.37105288999999</v>
       </c>
       <c r="J71" t="s">
         <v>1103</v>
       </c>
       <c r="K71">
-        <v>2.9211195928999998</v>
+        <v>3.0521943291000002</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -7614,7 +7643,7 @@
         <v>4.6419917997000004</v>
       </c>
       <c r="I72">
-        <v>10.375763559999999</v>
+        <v>1.4864870629</v>
       </c>
       <c r="J72" t="s">
         <v>1103</v>
@@ -7647,13 +7676,13 @@
         <v>4.6419917997000004</v>
       </c>
       <c r="I73">
-        <v>75925.651144999996</v>
+        <v>76587.100684000005</v>
       </c>
       <c r="J73" t="s">
         <v>1103</v>
       </c>
       <c r="K73">
-        <v>2.9312977098999999</v>
+        <v>3.0963417815000001</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -7683,7 +7712,7 @@
         <v>-19.420855299999999</v>
       </c>
       <c r="I74">
-        <v>1.5846250736</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>1105</v>
@@ -7716,7 +7745,7 @@
         <v>-19.420855299999999</v>
       </c>
       <c r="I75">
-        <v>9.0953582347000008</v>
+        <v>2.0365613576000001</v>
       </c>
       <c r="J75" t="s">
         <v>1105</v>
@@ -7749,7 +7778,7 @@
         <v>3.0001686468000002</v>
       </c>
       <c r="I76">
-        <v>2.4184864773000001</v>
+        <v>0.46983789589000002</v>
       </c>
       <c r="J76" t="s">
         <v>1106</v>
@@ -7782,7 +7811,7 @@
         <v>3.0001686468000002</v>
       </c>
       <c r="I77">
-        <v>14.095636437</v>
+        <v>7.2991269278999997</v>
       </c>
       <c r="J77" t="s">
         <v>1106</v>
@@ -7836,7 +7865,7 @@
         <v>637</v>
       </c>
       <c r="F79">
-        <v>0.68606003475999999</v>
+        <v>0.57625067643000005</v>
       </c>
       <c r="G79">
         <v>0.76569248255</v>
@@ -7845,13 +7874,13 @@
         <v>1.0695546105</v>
       </c>
       <c r="I79">
-        <v>652244.96398</v>
+        <v>729423.50138999999</v>
       </c>
       <c r="J79" t="s">
         <v>1103</v>
       </c>
       <c r="K79">
-        <v>6.6151373008999999</v>
+        <v>6.6903457548</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -7881,13 +7910,13 @@
         <v>2.4991922244999998</v>
       </c>
       <c r="I80">
-        <v>17946.590338000002</v>
+        <v>12675.748576</v>
       </c>
       <c r="J80" t="s">
         <v>1114</v>
       </c>
       <c r="K80">
-        <v>2.5180661577999999</v>
+        <v>2.7050348163</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -7947,13 +7976,13 @@
         <v>89.868896802999998</v>
       </c>
       <c r="I82">
-        <v>36.882315341000002</v>
+        <v>29.250671024999999</v>
       </c>
       <c r="J82" t="s">
         <v>1115</v>
       </c>
       <c r="K82">
-        <v>73.282442747999994</v>
+        <v>72.241285895000004</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -7983,13 +8012,13 @@
         <v>0.22191104527</v>
       </c>
       <c r="I83">
-        <v>351.75833655000002</v>
+        <v>2247.8735505999998</v>
       </c>
       <c r="J83" t="s">
         <v>1106</v>
       </c>
       <c r="K83">
-        <v>1.0951653943999999</v>
+        <v>1.9846286597</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -8019,13 +8048,13 @@
         <v>2.2195133123000002</v>
       </c>
       <c r="I84">
-        <v>24346.439651000001</v>
+        <v>16266.945819</v>
       </c>
       <c r="J84" t="s">
         <v>1116</v>
       </c>
       <c r="K84">
-        <v>2.5954198473000001</v>
+        <v>2.4903176610000002</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -8055,13 +8084,13 @@
         <v>1.575323501</v>
       </c>
       <c r="I85">
-        <v>13136.872310000001</v>
+        <v>17754.923583</v>
       </c>
       <c r="J85" t="s">
         <v>1101</v>
       </c>
       <c r="K85">
-        <v>3.2162849872999999</v>
+        <v>3.0702546504999999</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -8124,13 +8153,13 @@
         <v>-5.5151880766999999E-2</v>
       </c>
       <c r="I87">
-        <v>1453.0493111999999</v>
+        <v>326.95126484999997</v>
       </c>
       <c r="J87" t="s">
         <v>1116</v>
       </c>
       <c r="K87">
-        <v>0.46819338422000001</v>
+        <v>0.48160857263000001</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -8160,13 +8189,13 @@
         <v>0.4919612666</v>
       </c>
       <c r="I88">
-        <v>22868.045415000001</v>
+        <v>16220.759827</v>
       </c>
       <c r="J88" t="s">
         <v>1103</v>
       </c>
       <c r="K88">
-        <v>3.2223918574999999</v>
+        <v>3.1705897697999998</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -8187,7 +8216,7 @@
         <v>647</v>
       </c>
       <c r="F89">
-        <v>0.20754807196</v>
+        <v>0.20764255355</v>
       </c>
       <c r="G89">
         <v>0.27864692996000001</v>
@@ -8196,13 +8225,13 @@
         <v>3.0173663794999999</v>
       </c>
       <c r="I89">
-        <v>305480.24271000002</v>
+        <v>551535.16676000005</v>
       </c>
       <c r="J89" t="s">
         <v>1103</v>
       </c>
       <c r="K89">
-        <v>2.7954682176999999</v>
+        <v>2.4648103236000001</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -8223,7 +8252,7 @@
         <v>648</v>
       </c>
       <c r="F90">
-        <v>0.22830288004999999</v>
+        <v>0.22840680981</v>
       </c>
       <c r="G90">
         <v>0.27864692996000001</v>
@@ -8232,13 +8261,13 @@
         <v>3.0173663794999999</v>
       </c>
       <c r="I90">
-        <v>2385760.1060000001</v>
+        <v>3835419.6601</v>
       </c>
       <c r="J90" t="s">
         <v>1103</v>
       </c>
       <c r="K90">
-        <v>3.1553745501999999</v>
+        <v>2.7554218972000002</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -8268,13 +8297,13 @@
         <v>4.0761142704999997</v>
       </c>
       <c r="I91">
-        <v>5663.3554566000003</v>
+        <v>6078.1149161000003</v>
       </c>
       <c r="J91" t="s">
         <v>1106</v>
       </c>
       <c r="K91">
-        <v>4.4274809160000004</v>
+        <v>4.0354784981999998</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -8304,13 +8333,13 @@
         <v>4.0761142704999997</v>
       </c>
       <c r="I92">
-        <v>279610.50523000001</v>
+        <v>428535.05891999998</v>
       </c>
       <c r="J92" t="s">
         <v>1106</v>
       </c>
       <c r="K92">
-        <v>4.7267175572999998</v>
+        <v>4.2542090582999998</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -8331,7 +8360,7 @@
         <v>651</v>
       </c>
       <c r="F93">
-        <v>0.91305384588000005</v>
+        <v>0.92470962849000005</v>
       </c>
       <c r="G93">
         <v>2.3501374840000002</v>
@@ -8340,13 +8369,13 @@
         <v>11.628949622</v>
       </c>
       <c r="I93">
-        <v>1908394.8234000001</v>
+        <v>2402296.3530999999</v>
       </c>
       <c r="J93" t="s">
         <v>1103</v>
       </c>
       <c r="K93">
-        <v>11.431665959</v>
+        <v>11.610780005000001</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -8376,13 +8405,13 @@
         <v>4.5124036540999999</v>
       </c>
       <c r="I94">
-        <v>28815.776054999998</v>
+        <v>37603.739741999998</v>
       </c>
       <c r="J94" t="s">
         <v>1101</v>
       </c>
       <c r="K94">
-        <v>5.1603053435000001</v>
+        <v>4.7598980595000002</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -8412,13 +8441,13 @@
         <v>1.2588906149000001</v>
       </c>
       <c r="I95">
-        <v>1832.6760532000001</v>
+        <v>1171.2145364999999</v>
       </c>
       <c r="J95" t="s">
         <v>1116</v>
       </c>
       <c r="K95">
-        <v>3.9307888041000001</v>
+        <v>4.1598940460999998</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -8448,13 +8477,13 @@
         <v>1.2588906149000001</v>
       </c>
       <c r="I96">
-        <v>253326.27739999999</v>
+        <v>287341.71836</v>
       </c>
       <c r="J96" t="s">
         <v>1116</v>
       </c>
       <c r="K96">
-        <v>3.7760814249000001</v>
+        <v>4.2221018200999998</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -8484,10 +8513,13 @@
         <v>1.2588906149000001</v>
       </c>
       <c r="I97">
-        <v>1.5279463301</v>
+        <v>2.1266733012999999</v>
       </c>
       <c r="J97" t="s">
         <v>1116</v>
+      </c>
+      <c r="K97">
+        <v>2.9799530432000001</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -8517,13 +8549,13 @@
         <v>1.3573049114</v>
       </c>
       <c r="I98">
-        <v>45.144941250999999</v>
+        <v>29.763047519000001</v>
       </c>
       <c r="J98" t="s">
         <v>1103</v>
       </c>
       <c r="K98">
-        <v>2.6890585242</v>
+        <v>2.3177412558000001</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -8553,13 +8585,13 @@
         <v>1.3573049114</v>
       </c>
       <c r="I99">
-        <v>61.519127583</v>
+        <v>18.353624987</v>
       </c>
       <c r="J99" t="s">
         <v>1103</v>
       </c>
       <c r="K99">
-        <v>2.4223918575000001</v>
+        <v>2.2896474223999999</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -8589,13 +8621,13 @@
         <v>1.6799637113999999</v>
       </c>
       <c r="I100">
-        <v>514472.16162000003</v>
+        <v>478202.80835000001</v>
       </c>
       <c r="J100" t="s">
         <v>1111</v>
       </c>
       <c r="K100">
-        <v>2.9740458015</v>
+        <v>3.0301206027999998</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -8625,13 +8657,13 @@
         <v>0.66341197926999995</v>
       </c>
       <c r="I101">
-        <v>7281.7490414000004</v>
+        <v>7743.4160518999997</v>
       </c>
       <c r="J101" t="s">
         <v>1106</v>
       </c>
       <c r="K101">
-        <v>0.65547073790999999</v>
+        <v>0.70635923986000004</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -8691,13 +8723,13 @@
         <v>0.83436802177000002</v>
       </c>
       <c r="I103">
-        <v>453.87973302</v>
+        <v>402.85203374000002</v>
       </c>
       <c r="J103" t="s">
         <v>1103</v>
       </c>
       <c r="K103">
-        <v>3.6681933841999999</v>
+        <v>3.5538699254999999</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -8727,13 +8759,13 @@
         <v>0.83436802177000002</v>
       </c>
       <c r="I104">
-        <v>482.88096738000002</v>
+        <v>315.14628842000002</v>
       </c>
       <c r="J104" t="s">
         <v>1103</v>
       </c>
       <c r="K104">
-        <v>1.9236641220999999</v>
+        <v>1.8401460879</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -8763,13 +8795,13 @@
         <v>0.83436802177000002</v>
       </c>
       <c r="I105">
-        <v>1291490.9855</v>
+        <v>1056420.2287999999</v>
       </c>
       <c r="J105" t="s">
         <v>1103</v>
       </c>
       <c r="K105">
-        <v>7.5399491094000002</v>
+        <v>7.3023899825000003</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -8829,13 +8861,13 @@
         <v>0.95071418110999995</v>
       </c>
       <c r="I107">
-        <v>246708.40443</v>
+        <v>527559.70947</v>
       </c>
       <c r="J107" t="s">
         <v>1103</v>
       </c>
       <c r="K107">
-        <v>2.8437659033</v>
+        <v>2.8836313285999999</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -8865,13 +8897,13 @@
         <v>1.0440463862</v>
       </c>
       <c r="I108">
-        <v>4297.3630061000003</v>
+        <v>1462.9497312999999</v>
       </c>
       <c r="J108" t="s">
         <v>1109</v>
       </c>
       <c r="K108">
-        <v>2.3307888041</v>
+        <v>2.3057010414999999</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -8892,7 +8924,7 @@
         <v>667</v>
       </c>
       <c r="F109">
-        <v>5.7945562462E-2</v>
+        <v>5.8995656184000003E-2</v>
       </c>
       <c r="G109">
         <v>0.15868168886</v>
@@ -8901,13 +8933,13 @@
         <v>1.7350121060000001</v>
       </c>
       <c r="I109">
-        <v>34547.514127000002</v>
+        <v>18664.096255</v>
       </c>
       <c r="J109" t="s">
         <v>1111</v>
       </c>
       <c r="K109">
-        <v>1.8046174437</v>
+        <v>1.71573054</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -8937,13 +8969,13 @@
         <v>1.873547675</v>
       </c>
       <c r="I110">
-        <v>392786.42573999998</v>
+        <v>366375.25942999998</v>
       </c>
       <c r="J110" t="s">
         <v>1108</v>
       </c>
       <c r="K110">
-        <v>2.1801526718000002</v>
+        <v>2.4261031846000001</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -9039,13 +9071,13 @@
         <v>9.3602254028999994</v>
       </c>
       <c r="I113">
-        <v>159383.78906000001</v>
+        <v>181112.53661000001</v>
       </c>
       <c r="J113" t="s">
         <v>1108</v>
       </c>
       <c r="K113">
-        <v>1.7709923664</v>
+        <v>1.8140589569000001</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -9075,13 +9107,13 @@
         <v>1.6034474042</v>
       </c>
       <c r="I114">
-        <v>73431.258824999997</v>
+        <v>62217.401546000001</v>
       </c>
       <c r="J114" t="s">
         <v>1113</v>
       </c>
       <c r="K114">
-        <v>0.84478371501000005</v>
+        <v>0.80268095438999998</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -9111,13 +9143,13 @@
         <v>1.2551647057999999</v>
       </c>
       <c r="I115">
-        <v>265075.62109999999</v>
+        <v>472626.62874000001</v>
       </c>
       <c r="J115" t="s">
         <v>1107</v>
       </c>
       <c r="K115">
-        <v>2.7012722646</v>
+        <v>2.7652358878999999</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -9147,13 +9179,13 @@
         <v>1.8576100253000001</v>
       </c>
       <c r="I116">
-        <v>90621.22666</v>
+        <v>133396.13782</v>
       </c>
       <c r="J116" t="s">
         <v>1108</v>
       </c>
       <c r="K116">
-        <v>1.5755725191000001</v>
+        <v>1.8802801357000001</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -9183,13 +9215,13 @@
         <v>2.8963390335999999</v>
       </c>
       <c r="I117">
-        <v>490.07765941000002</v>
+        <v>431.00794746000003</v>
       </c>
       <c r="J117" t="s">
         <v>1102</v>
       </c>
       <c r="K117">
-        <v>3.8290076335999998</v>
+        <v>4.0615656292000004</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -9219,13 +9251,13 @@
         <v>2.8963390335999999</v>
       </c>
       <c r="I118">
-        <v>438.83878929000002</v>
+        <v>751.27167855000005</v>
       </c>
       <c r="J118" t="s">
         <v>1102</v>
       </c>
       <c r="K118">
-        <v>3.5684478371999999</v>
+        <v>3.7726004855999999</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -9255,13 +9287,13 @@
         <v>2.8963390335999999</v>
       </c>
       <c r="I119">
-        <v>721.66400365000004</v>
+        <v>698.54521440999997</v>
       </c>
       <c r="J119" t="s">
         <v>1102</v>
       </c>
       <c r="K119">
-        <v>4.3562340966999997</v>
+        <v>4.0134047719000003</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -9291,10 +9323,13 @@
         <v>3.6977793754000001</v>
       </c>
       <c r="I120">
-        <v>40.709290762999998</v>
+        <v>293.87916371</v>
       </c>
       <c r="J120" t="s">
         <v>1109</v>
+      </c>
+      <c r="K120">
+        <v>5.2776272751000004</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -9324,13 +9359,13 @@
         <v>3.6977793754000001</v>
       </c>
       <c r="I121">
-        <v>270.56582097</v>
+        <v>205.16583939</v>
       </c>
       <c r="J121" t="s">
         <v>1109</v>
       </c>
       <c r="K121">
-        <v>5.5368956743000002</v>
+        <v>5.1371581081000004</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -9360,7 +9395,7 @@
         <v>-8.6763995698999992</v>
       </c>
       <c r="I122">
-        <v>0.95886785014999998</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>1102</v>
@@ -9393,7 +9428,7 @@
         <v>-8.6763995698999992</v>
       </c>
       <c r="I123">
-        <v>1.3292893962000001</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>1102</v>
@@ -9486,7 +9521,7 @@
         <v>1.1311898352</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>4.1989127599999998</v>
       </c>
       <c r="J126" t="s">
         <v>1100</v>
@@ -9519,7 +9554,7 @@
         <v>16.502773501</v>
       </c>
       <c r="I127">
-        <v>88.899151282999995</v>
+        <v>15.699851695</v>
       </c>
       <c r="J127" t="s">
         <v>1102</v>
@@ -9552,13 +9587,13 @@
         <v>16.502773501</v>
       </c>
       <c r="I128">
-        <v>1324.8651983</v>
+        <v>671.76667728999996</v>
       </c>
       <c r="J128" t="s">
         <v>1102</v>
       </c>
       <c r="K128">
-        <v>13.656997455000001</v>
+        <v>13.493066842999999</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -9621,10 +9656,13 @@
         <v>-1.3523972587999999</v>
       </c>
       <c r="I130">
-        <v>2.9161451376</v>
+        <v>32.288626712999999</v>
       </c>
       <c r="J130" t="s">
         <v>1106</v>
+      </c>
+      <c r="K130">
+        <v>1.2220817530999999</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -9654,13 +9692,13 @@
         <v>-1.3523972587999999</v>
       </c>
       <c r="I131">
-        <v>103.42653032</v>
+        <v>57.028340004999997</v>
       </c>
       <c r="J131" t="s">
         <v>1106</v>
       </c>
       <c r="K131">
-        <v>2.1374045802000001</v>
+        <v>1.1980013244000001</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -9690,13 +9728,13 @@
         <v>2.2168082725999998</v>
       </c>
       <c r="I132">
-        <v>31524.352606</v>
+        <v>13972.681398999999</v>
       </c>
       <c r="J132" t="s">
         <v>1102</v>
       </c>
       <c r="K132">
-        <v>3.0473282443</v>
+        <v>3.0140669836999998</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -9726,13 +9764,13 @@
         <v>2.2168082725999998</v>
       </c>
       <c r="I133">
-        <v>611855.77263999998</v>
+        <v>474912.65622</v>
       </c>
       <c r="J133" t="s">
         <v>1102</v>
       </c>
       <c r="K133">
-        <v>2.3694656488999999</v>
+        <v>2.402022756</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -9762,13 +9800,13 @@
         <v>0.88629338925000001</v>
       </c>
       <c r="I134">
-        <v>634390.06336999999</v>
+        <v>833001.90388</v>
       </c>
       <c r="J134" t="s">
         <v>1114</v>
       </c>
       <c r="K134">
-        <v>0.99745547073999996</v>
+        <v>1.0735857765000001</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -9858,13 +9896,13 @@
         <v>0.76094097343</v>
       </c>
       <c r="I137">
-        <v>15860.174566</v>
+        <v>18698.232816</v>
       </c>
       <c r="J137" t="s">
         <v>1108</v>
       </c>
       <c r="K137">
-        <v>0.63104325699999997</v>
+        <v>0.73244637087999998</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -9894,13 +9932,13 @@
         <v>4.5143822632999999</v>
       </c>
       <c r="I138">
-        <v>146.43489418999999</v>
+        <v>82.946591150000003</v>
       </c>
       <c r="J138" t="s">
         <v>1102</v>
       </c>
       <c r="K138">
-        <v>8</v>
+        <v>7.9826620913999999</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -9930,13 +9968,10 @@
         <v>4.5143822632999999</v>
       </c>
       <c r="I139">
-        <v>14.711851944999999</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>1102</v>
-      </c>
-      <c r="K139">
-        <v>7.5012722645999999</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -9996,7 +10031,7 @@
         <v>10.881418519</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>4.8730482100000003</v>
       </c>
       <c r="J141" t="s">
         <v>1102</v>
@@ -10029,13 +10064,13 @@
         <v>10.881418519</v>
       </c>
       <c r="I142">
-        <v>3906.6463798999998</v>
+        <v>3475.3634849999999</v>
       </c>
       <c r="J142" t="s">
         <v>1102</v>
       </c>
       <c r="K142">
-        <v>8.3216284987000009</v>
+        <v>8.5686191880999996</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -10098,13 +10133,13 @@
         <v>1.2890541384</v>
       </c>
       <c r="I144">
-        <v>288608.75975000003</v>
+        <v>395762.83241999999</v>
       </c>
       <c r="J144" t="s">
         <v>1106</v>
       </c>
       <c r="K144">
-        <v>0.61679389312999999</v>
+        <v>0.50568900126000005</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -10164,7 +10199,7 @@
         <v>0.66954376631000001</v>
       </c>
       <c r="I146">
-        <v>84.587740663000005</v>
+        <v>68.591020529999994</v>
       </c>
       <c r="J146" t="s">
         <v>1100</v>
@@ -10197,13 +10232,13 @@
         <v>0.66954376631000001</v>
       </c>
       <c r="I147">
-        <v>730.97210777999999</v>
+        <v>624.29905055999996</v>
       </c>
       <c r="J147" t="s">
         <v>1100</v>
       </c>
       <c r="K147">
-        <v>23.816793893</v>
+        <v>22.232255733999999</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -10353,7 +10388,7 @@
         <v>1.7239718957000001</v>
       </c>
       <c r="I152">
-        <v>4.9370992009999997</v>
+        <v>1.7730496454</v>
       </c>
       <c r="J152" t="s">
         <v>1110</v>
@@ -10386,13 +10421,13 @@
         <v>4.1558673683</v>
       </c>
       <c r="I153">
-        <v>114875.89384999999</v>
+        <v>127210.64053</v>
       </c>
       <c r="J153" t="s">
         <v>1106</v>
       </c>
       <c r="K153">
-        <v>4.3928753180999998</v>
+        <v>4.1478538318</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -10422,13 +10457,13 @@
         <v>1.5567709240000001</v>
       </c>
       <c r="I154">
-        <v>256767.07733999999</v>
+        <v>178969.16931</v>
       </c>
       <c r="J154" t="s">
         <v>1102</v>
       </c>
       <c r="K154">
-        <v>1.8381679389000001</v>
+        <v>1.8421527902999999</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -10458,13 +10493,13 @@
         <v>1.5567709240000001</v>
       </c>
       <c r="I155">
-        <v>15.062555814</v>
+        <v>12.723562166000001</v>
       </c>
       <c r="J155" t="s">
         <v>1102</v>
       </c>
       <c r="K155">
-        <v>4.9872773536999997</v>
+        <v>4.3986916300000001</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -10494,13 +10529,13 @@
         <v>1.5567709240000001</v>
       </c>
       <c r="I156">
-        <v>603218.99589000002</v>
+        <v>487043.47722</v>
       </c>
       <c r="J156" t="s">
         <v>1102</v>
       </c>
       <c r="K156">
-        <v>2.0498727735000002</v>
+        <v>2.0508498385</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -10530,13 +10565,13 @@
         <v>1.9762723611999999</v>
       </c>
       <c r="I157">
-        <v>515890.21321999998</v>
+        <v>475482.41833000001</v>
       </c>
       <c r="J157" t="s">
         <v>1100</v>
       </c>
       <c r="K157">
-        <v>3.7801526717999998</v>
+        <v>3.4113940560999998</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -10566,10 +10601,13 @@
         <v>1.6990488699999999</v>
       </c>
       <c r="I158">
-        <v>21.637990932000001</v>
+        <v>8.5650828592000003</v>
       </c>
       <c r="J158" t="s">
         <v>1102</v>
+      </c>
+      <c r="K158">
+        <v>5.3980294183000002</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -10599,7 +10637,7 @@
         <v>1.6990488699999999</v>
       </c>
       <c r="I159">
-        <v>5.4770662227000004</v>
+        <v>0.56704563779999995</v>
       </c>
       <c r="J159" t="s">
         <v>1102</v>
@@ -10632,7 +10670,7 @@
         <v>1.6990488699999999</v>
       </c>
       <c r="I160">
-        <v>2.0856925651</v>
+        <v>1.0259212043999999</v>
       </c>
       <c r="J160" t="s">
         <v>1102</v>
@@ -10659,13 +10697,10 @@
         <v>0</v>
       </c>
       <c r="I161">
-        <v>157.48778390999999</v>
+        <v>13.462479257</v>
       </c>
       <c r="J161" t="s">
         <v>1109</v>
-      </c>
-      <c r="K161">
-        <v>2.0254452926000002</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -10689,13 +10724,13 @@
         <v>0</v>
       </c>
       <c r="I162">
-        <v>730.16533126000002</v>
+        <v>443.01930220000003</v>
       </c>
       <c r="J162" t="s">
         <v>1109</v>
       </c>
       <c r="K162">
-        <v>0.30330788803999997</v>
+        <v>0.26889811972</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -10725,13 +10760,13 @@
         <v>3.1495070386999999</v>
       </c>
       <c r="I163">
-        <v>292155.77220000001</v>
+        <v>275611.43411999999</v>
       </c>
       <c r="J163" t="s">
         <v>1102</v>
       </c>
       <c r="K163">
-        <v>7.5521628499000002</v>
+        <v>7.1017197440000004</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -10761,7 +10796,7 @@
         <v>4.7684165109999999</v>
       </c>
       <c r="I164">
-        <v>2.4929096257999999</v>
+        <v>3.7633883665000001</v>
       </c>
       <c r="J164" t="s">
         <v>1116</v>
@@ -10794,13 +10829,13 @@
         <v>4.7684165109999999</v>
       </c>
       <c r="I165">
-        <v>482.02211392999999</v>
+        <v>389.62959561999998</v>
       </c>
       <c r="J165" t="s">
         <v>1116</v>
       </c>
       <c r="K165">
-        <v>7.4483460560000001</v>
+        <v>7.1258001726</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -10830,13 +10865,10 @@
         <v>4.7684165109999999</v>
       </c>
       <c r="I166">
-        <v>142.15854965</v>
+        <v>105.79949784999999</v>
       </c>
       <c r="J166" t="s">
         <v>1116</v>
-      </c>
-      <c r="K166">
-        <v>7.4503816794000004</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -10866,13 +10898,13 @@
         <v>0.78859336214999998</v>
       </c>
       <c r="I167">
-        <v>10193.275068000001</v>
+        <v>8528.5929453999997</v>
       </c>
       <c r="J167" t="s">
         <v>1106</v>
       </c>
       <c r="K167">
-        <v>0.83053435114999996</v>
+        <v>0.92508979992999996</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -10902,13 +10934,13 @@
         <v>0.41663260986</v>
       </c>
       <c r="I168">
-        <v>231762.55319999999</v>
+        <v>154487.66321</v>
       </c>
       <c r="J168" t="s">
         <v>1113</v>
       </c>
       <c r="K168">
-        <v>1.3882951654</v>
+        <v>1.2180683483000001</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -10938,13 +10970,13 @@
         <v>1.9976906594999999</v>
       </c>
       <c r="I169">
-        <v>6239.5477205999996</v>
+        <v>4741.2688078000001</v>
       </c>
       <c r="J169" t="s">
         <v>1106</v>
       </c>
       <c r="K169">
-        <v>3.8839694655999999</v>
+        <v>3.9190897597999999</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -11004,13 +11036,13 @@
         <v>0.63596264838000005</v>
       </c>
       <c r="I171">
-        <v>127783.55530000001</v>
+        <v>135778.92983000001</v>
       </c>
       <c r="J171" t="s">
         <v>1110</v>
       </c>
       <c r="K171">
-        <v>3.7557251907999998</v>
+        <v>3.8689222001000001</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -11040,13 +11072,13 @@
         <v>0.19633074879000001</v>
       </c>
       <c r="I172">
-        <v>288234.8113</v>
+        <v>195812.95705999999</v>
       </c>
       <c r="J172" t="s">
         <v>1107</v>
       </c>
       <c r="K172">
-        <v>0.62493638676999996</v>
+        <v>0.67224529929999999</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -11076,13 +11108,13 @@
         <v>4.1451637929</v>
       </c>
       <c r="I173">
-        <v>571401.41509000002</v>
+        <v>360288.28005</v>
       </c>
       <c r="J173" t="s">
         <v>1110</v>
       </c>
       <c r="K173">
-        <v>4.6493638677</v>
+        <v>4.8261192382999996</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -11112,13 +11144,13 @@
         <v>3.4002463242999998</v>
       </c>
       <c r="I174">
-        <v>1556.8287350000001</v>
+        <v>1846.5993659999999</v>
       </c>
       <c r="J174" t="s">
         <v>1108</v>
       </c>
       <c r="K174">
-        <v>1.2315521628999999</v>
+        <v>1.1839544076999999</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -11148,13 +11180,13 @@
         <v>2.1239849998999998</v>
       </c>
       <c r="I175">
-        <v>11319.810707000001</v>
+        <v>11734.681267</v>
       </c>
       <c r="J175" t="s">
         <v>1106</v>
       </c>
       <c r="K175">
-        <v>1.7486005089000001</v>
+        <v>1.5893082896999999</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -11184,13 +11216,13 @@
         <v>2.1849159572999999</v>
       </c>
       <c r="I176">
-        <v>8686.3053428999992</v>
+        <v>11110.228590999999</v>
       </c>
       <c r="J176" t="s">
         <v>1112</v>
       </c>
       <c r="K176">
-        <v>2.7175572519000002</v>
+        <v>2.8294503642</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -11220,13 +11252,13 @@
         <v>1.5843362177</v>
       </c>
       <c r="I177">
-        <v>105787.6058</v>
+        <v>97232.545928000007</v>
       </c>
       <c r="J177" t="s">
         <v>1106</v>
       </c>
       <c r="K177">
-        <v>1.5898218829999999</v>
+        <v>1.6334557422</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -11256,13 +11288,13 @@
         <v>1.4724327216999999</v>
       </c>
       <c r="I178">
-        <v>7512.3587645999996</v>
+        <v>3932.7381919999998</v>
       </c>
       <c r="J178" t="s">
         <v>1106</v>
       </c>
       <c r="K178">
-        <v>2.4040712468000001</v>
+        <v>2.6348002328</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -11292,13 +11324,13 @@
         <v>1.4724327216999999</v>
       </c>
       <c r="I179">
-        <v>125.3369788</v>
+        <v>77.071271890999995</v>
       </c>
       <c r="J179" t="s">
         <v>1106</v>
       </c>
       <c r="K179">
-        <v>2.4122137404999999</v>
+        <v>2.6869744947999998</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -11328,13 +11360,13 @@
         <v>1.5281317195999999</v>
       </c>
       <c r="I180">
-        <v>20710.007813</v>
+        <v>17358.660896000001</v>
       </c>
       <c r="J180" t="s">
         <v>1108</v>
       </c>
       <c r="K180">
-        <v>2.4753180661999998</v>
+        <v>2.4562037204</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -11364,13 +11396,13 @@
         <v>2.2369458111</v>
       </c>
       <c r="I181">
-        <v>152410.09049999999</v>
+        <v>153936.89145</v>
       </c>
       <c r="J181" t="s">
         <v>1110</v>
       </c>
       <c r="K181">
-        <v>4.4966921119999999</v>
+        <v>4.7498645475999997</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -11400,7 +11432,7 @@
         <v>3.0925550791999998</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>0.25145845905999997</v>
       </c>
       <c r="J182" t="s">
         <v>1103</v>
@@ -11433,7 +11465,7 @@
         <v>1.8461181261999999</v>
       </c>
       <c r="I183">
-        <v>0.13223106922</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
         <v>1109</v>
@@ -11466,13 +11498,10 @@
         <v>1.8461181261999999</v>
       </c>
       <c r="I184">
-        <v>18.808748843</v>
+        <v>21.921930519</v>
       </c>
       <c r="J184" t="s">
         <v>1109</v>
-      </c>
-      <c r="K184">
-        <v>1.0320610687</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -11502,13 +11531,13 @@
         <v>-3.3509479916</v>
       </c>
       <c r="I185">
-        <v>388.60074730999997</v>
+        <v>296.19163989999998</v>
       </c>
       <c r="J185" t="s">
         <v>1106</v>
       </c>
       <c r="K185">
-        <v>1.4737913486000001</v>
+        <v>1.3545241105000001</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -11538,13 +11567,10 @@
         <v>-2.969129312E-2</v>
       </c>
       <c r="I186">
-        <v>10.158484282</v>
+        <v>1.0277710497000001</v>
       </c>
       <c r="J186" t="s">
         <v>1106</v>
-      </c>
-      <c r="K186">
-        <v>1.0178117047999999</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -11604,13 +11630,13 @@
         <v>0.79106147737999999</v>
       </c>
       <c r="I188">
-        <v>105924.79175</v>
+        <v>89937.702533000003</v>
       </c>
       <c r="J188" t="s">
         <v>1107</v>
       </c>
       <c r="K188">
-        <v>1.8442748092000001</v>
+        <v>1.8421527902999999</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -11640,7 +11666,7 @@
         <v>2.8095342859999999</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>3.0758685576000002</v>
       </c>
       <c r="J189" t="s">
         <v>1102</v>
@@ -11673,7 +11699,7 @@
         <v>2.8095342859999999</v>
       </c>
       <c r="I190">
-        <v>61.888593194000002</v>
+        <v>63.863190738</v>
       </c>
       <c r="J190" t="s">
         <v>1102</v>
@@ -11706,13 +11732,13 @@
         <v>10.022391271</v>
       </c>
       <c r="I191">
-        <v>1027853.9434</v>
+        <v>1212596.7919999999</v>
       </c>
       <c r="J191" t="s">
         <v>1102</v>
       </c>
       <c r="K191">
-        <v>8.3175572519000003</v>
+        <v>8.7291553789999998</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -11742,7 +11768,7 @@
         <v>10.022391271</v>
       </c>
       <c r="I192">
-        <v>3.5609874507999999</v>
+        <v>3.6210018105000001</v>
       </c>
       <c r="J192" t="s">
         <v>1102</v>
@@ -11775,13 +11801,13 @@
         <v>10.022391271</v>
       </c>
       <c r="I193">
-        <v>231200.12065</v>
+        <v>260092.76595</v>
       </c>
       <c r="J193" t="s">
         <v>1102</v>
       </c>
       <c r="K193">
-        <v>9.3720101781</v>
+        <v>9.6141111311999996</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -11811,13 +11837,13 @@
         <v>1.1488635924999999</v>
       </c>
       <c r="I194">
-        <v>5992.4093767000004</v>
+        <v>3001.5336907999999</v>
       </c>
       <c r="J194" t="s">
         <v>1106</v>
       </c>
       <c r="K194">
-        <v>3.5216284987000002</v>
+        <v>3.2508578653</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -11847,7 +11873,7 @@
         <v>3.6625338545999999</v>
       </c>
       <c r="I195">
-        <v>7.0582806716000004</v>
+        <v>4.0813983310999999</v>
       </c>
       <c r="J195" t="s">
         <v>1102</v>
@@ -11913,13 +11939,13 @@
         <v>6.2646326289000003</v>
       </c>
       <c r="I197">
-        <v>509.52306000999999</v>
+        <v>600.73474618</v>
       </c>
       <c r="J197" t="s">
         <v>1102</v>
       </c>
       <c r="K197">
-        <v>11.784223918</v>
+        <v>13.049585616</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -11949,13 +11975,13 @@
         <v>1.6644319185000001</v>
       </c>
       <c r="I198">
-        <v>1306.3173941</v>
+        <v>371.06720180000002</v>
       </c>
       <c r="J198" t="s">
         <v>1108</v>
       </c>
       <c r="K198">
-        <v>2.0050890584999999</v>
+        <v>1.9264342905</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -11985,13 +12011,13 @@
         <v>3.4678573441</v>
       </c>
       <c r="I199">
-        <v>525977.52508000005</v>
+        <v>507036.89597999997</v>
       </c>
       <c r="J199" t="s">
         <v>1115</v>
       </c>
       <c r="K199">
-        <v>4.5597964377000002</v>
+        <v>4.9023739289000003</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -12021,13 +12047,13 @@
         <v>2.9379930384000001</v>
       </c>
       <c r="I200">
-        <v>174884.89160999999</v>
+        <v>184634.26756000001</v>
       </c>
       <c r="J200" t="s">
         <v>1100</v>
       </c>
       <c r="K200">
-        <v>4.0101781170999997</v>
+        <v>5.1130776794999999</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -12090,13 +12116,13 @@
         <v>1.1818009868999999</v>
       </c>
       <c r="I202">
-        <v>391.68510721000001</v>
+        <v>392.90803140999998</v>
       </c>
       <c r="J202" t="s">
         <v>1102</v>
       </c>
       <c r="K202">
-        <v>3.3608142494000002</v>
+        <v>3.2929986154000002</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -12126,13 +12152,13 @@
         <v>1.1818009868999999</v>
       </c>
       <c r="I203">
-        <v>544.73775147000003</v>
+        <v>477.17763013000001</v>
       </c>
       <c r="J203" t="s">
         <v>1102</v>
       </c>
       <c r="K203">
-        <v>1.7078880407000001</v>
+        <v>1.7016836232999999</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -12162,13 +12188,13 @@
         <v>1.1818009868999999</v>
       </c>
       <c r="I204">
-        <v>749856.75358999998</v>
+        <v>520007.25511999999</v>
       </c>
       <c r="J204" t="s">
         <v>1102</v>
       </c>
       <c r="K204">
-        <v>10.157760814</v>
+        <v>10.20207493</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -12198,7 +12224,7 @@
         <v>3.2371764753000001</v>
       </c>
       <c r="I205">
-        <v>31.265684631999999</v>
+        <v>57.907205304999998</v>
       </c>
       <c r="J205" t="s">
         <v>1102</v>
@@ -12231,10 +12257,13 @@
         <v>3.2371764753000001</v>
       </c>
       <c r="I206">
-        <v>2.8240964562999999</v>
+        <v>28.510867432000001</v>
       </c>
       <c r="J206" t="s">
         <v>1102</v>
+      </c>
+      <c r="K206">
+        <v>15.048261192</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -12264,13 +12293,13 @@
         <v>1.6331912746999999</v>
       </c>
       <c r="I207">
-        <v>347395.48931999999</v>
+        <v>429848.59948999999</v>
       </c>
       <c r="J207" t="s">
         <v>1102</v>
       </c>
       <c r="K207">
-        <v>2.6198473282000001</v>
+        <v>2.5745991612000001</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -12300,13 +12329,13 @@
         <v>2.0648952271000001</v>
       </c>
       <c r="I208">
-        <v>251461.45540000001</v>
+        <v>293451.84022999997</v>
       </c>
       <c r="J208" t="s">
         <v>1102</v>
       </c>
       <c r="K208">
-        <v>8.3541984733000003</v>
+        <v>8.4321634259000007</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -12336,13 +12365,13 @@
         <v>0.34886123268000002</v>
       </c>
       <c r="I209">
-        <v>5607.8180107999997</v>
+        <v>3055.1610999999998</v>
       </c>
       <c r="J209" t="s">
         <v>1108</v>
       </c>
       <c r="K209">
-        <v>0.35419847327999998</v>
+        <v>0.34715951277000001</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -12372,10 +12401,13 @@
         <v>4.4487661242999996</v>
       </c>
       <c r="I210">
-        <v>44.702013438999998</v>
+        <v>64.833896349</v>
       </c>
       <c r="J210" t="s">
         <v>1102</v>
+      </c>
+      <c r="K210">
+        <v>6.0080669436000003</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -12471,13 +12503,13 @@
         <v>0.40251889355999998</v>
       </c>
       <c r="I213">
-        <v>190.42431198</v>
+        <v>105.61891746000001</v>
       </c>
       <c r="J213" t="s">
         <v>1102</v>
       </c>
       <c r="K213">
-        <v>1.6284987277</v>
+        <v>1.6053619088</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -12507,10 +12539,13 @@
         <v>0.40251889355999998</v>
       </c>
       <c r="I214">
-        <v>11.558294605</v>
+        <v>0.45387014072999998</v>
       </c>
       <c r="J214" t="s">
         <v>1102</v>
+      </c>
+      <c r="K214">
+        <v>1.5050267895</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -12540,7 +12575,7 @@
         <v>0.40251889355999998</v>
       </c>
       <c r="I215">
-        <v>2.3178993003000001</v>
+        <v>0.91004701536999999</v>
       </c>
       <c r="J215" t="s">
         <v>1102</v>
@@ -12573,7 +12608,7 @@
         <v>0.40251889355999998</v>
       </c>
       <c r="I216">
-        <v>2.466849216</v>
+        <v>0.75592646347000003</v>
       </c>
       <c r="J216" t="s">
         <v>1102</v>
@@ -12606,13 +12641,13 @@
         <v>3.4993492883999999</v>
       </c>
       <c r="I217">
-        <v>1145145.7642000001</v>
+        <v>912465.94169999997</v>
       </c>
       <c r="J217" t="s">
         <v>1102</v>
       </c>
       <c r="K217">
-        <v>7.1898218829999996</v>
+        <v>6.8589087551999999</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -12642,13 +12677,13 @@
         <v>0.48487891869999999</v>
       </c>
       <c r="I218">
-        <v>8325.8239508000006</v>
+        <v>5783.1608243999999</v>
       </c>
       <c r="J218" t="s">
         <v>1106</v>
       </c>
       <c r="K218">
-        <v>0.21984732824</v>
+        <v>0.21873056007</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -12678,13 +12713,13 @@
         <v>0.35531588068999997</v>
       </c>
       <c r="I219">
-        <v>3642.5567170999998</v>
+        <v>1820.6715151999999</v>
       </c>
       <c r="J219" t="s">
         <v>1106</v>
       </c>
       <c r="K219">
-        <v>0.93638676845000002</v>
+        <v>0.91505628800000005</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -12714,7 +12749,7 @@
         <v>-13.583978774</v>
       </c>
       <c r="I220">
-        <v>0.3674688793</v>
+        <v>0.30757401000000001</v>
       </c>
       <c r="J220" t="s">
         <v>1106</v>
@@ -12747,10 +12782,13 @@
         <v>-13.583978774</v>
       </c>
       <c r="I221">
-        <v>32.483923505</v>
+        <v>37.812562419000002</v>
       </c>
       <c r="J221" t="s">
         <v>1106</v>
+      </c>
+      <c r="K221">
+        <v>0.46956835831999999</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -12780,13 +12818,13 @@
         <v>2.2985087941</v>
       </c>
       <c r="I222">
-        <v>7312.1278522000002</v>
+        <v>11177.324304</v>
       </c>
       <c r="J222" t="s">
         <v>1117</v>
       </c>
       <c r="K222">
-        <v>1.5389312977</v>
+        <v>1.3024375738</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -12816,13 +12854,13 @@
         <v>4.7775937407000004</v>
       </c>
       <c r="I223">
-        <v>152.04130258999999</v>
+        <v>53.109675408000001</v>
       </c>
       <c r="J223" t="s">
         <v>1106</v>
       </c>
       <c r="K223">
-        <v>3.5521628499000002</v>
+        <v>3.5297894968999999</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -12852,13 +12890,13 @@
         <v>4.7775937407000004</v>
       </c>
       <c r="I224">
-        <v>6277.6880757999998</v>
+        <v>4228.5543023</v>
       </c>
       <c r="J224" t="s">
         <v>1106</v>
       </c>
       <c r="K224">
-        <v>3.3709923663999999</v>
+        <v>3.4996889610999999</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -12918,13 +12956,13 @@
         <v>1.9487034224999999</v>
       </c>
       <c r="I226">
-        <v>26567.976160999999</v>
+        <v>25657.081607</v>
       </c>
       <c r="J226" t="s">
         <v>1110</v>
       </c>
       <c r="K226">
-        <v>1.5165394402000001</v>
+        <v>1.6214155279</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -12984,7 +13022,7 @@
         <v>3.7795098367</v>
       </c>
       <c r="I228">
-        <v>39.535695885000003</v>
+        <v>17.78094943</v>
       </c>
       <c r="J228" t="s">
         <v>1111</v>
@@ -13017,13 +13055,13 @@
         <v>4.2098808021999998</v>
       </c>
       <c r="I229">
-        <v>137140.24080999999</v>
+        <v>114229.23403000001</v>
       </c>
       <c r="J229" t="s">
         <v>1110</v>
       </c>
       <c r="K229">
-        <v>3.2386768448000001</v>
+        <v>3.3873136275000002</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -13053,13 +13091,13 @@
         <v>0.14455920093999999</v>
       </c>
       <c r="I230">
-        <v>192.84491674</v>
+        <v>286.48062557999998</v>
       </c>
       <c r="J230" t="s">
         <v>1116</v>
       </c>
       <c r="K230">
-        <v>1.4676844784</v>
+        <v>1.169907491</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -13089,13 +13127,13 @@
         <v>1.9058211163000001</v>
       </c>
       <c r="I231">
-        <v>18.32962745</v>
+        <v>39.828943727999999</v>
       </c>
       <c r="J231" t="s">
         <v>1104</v>
       </c>
       <c r="K231">
-        <v>3.1552162849999998</v>
+        <v>2.8294503642</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -13125,13 +13163,13 @@
         <v>1.9058211163000001</v>
       </c>
       <c r="I232">
-        <v>28979.634698999998</v>
+        <v>23300.276537999998</v>
       </c>
       <c r="J232" t="s">
         <v>1104</v>
       </c>
       <c r="K232">
-        <v>2.1964376589999999</v>
+        <v>1.9364678024999999</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -13161,7 +13199,7 @@
         <v>6.8309684034</v>
       </c>
       <c r="I233">
-        <v>0.79524248948999998</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>1110</v>
@@ -13194,13 +13232,13 @@
         <v>1.8907167173999999</v>
       </c>
       <c r="I234">
-        <v>183986.58283</v>
+        <v>168479.35216000001</v>
       </c>
       <c r="J234" t="s">
         <v>1106</v>
       </c>
       <c r="K234">
-        <v>3.3567430025</v>
+        <v>3.1926634961000002</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -13230,13 +13268,13 @@
         <v>1.4408687225000001</v>
       </c>
       <c r="I235">
-        <v>23506.033695999999</v>
+        <v>15306.226837</v>
       </c>
       <c r="J235" t="s">
         <v>1115</v>
       </c>
       <c r="K235">
-        <v>3.0636132316000002</v>
+        <v>3.2809584010999999</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -13266,13 +13304,13 @@
         <v>1.4484748334999999</v>
       </c>
       <c r="I236">
-        <v>325.14325341</v>
+        <v>309.78637149999997</v>
       </c>
       <c r="J236" t="s">
         <v>1103</v>
       </c>
       <c r="K236">
-        <v>0.40305343511000002</v>
+        <v>0.38729356049000002</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -13302,13 +13340,13 @@
         <v>5.3311093919000001</v>
       </c>
       <c r="I237">
-        <v>346862.31969999999</v>
+        <v>221392.12474999999</v>
       </c>
       <c r="J237" t="s">
         <v>1110</v>
       </c>
       <c r="K237">
-        <v>2.2351145038000002</v>
+        <v>1.7478377782000001</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -13368,7 +13406,7 @@
         <v>-89.508693492999996</v>
       </c>
       <c r="I239">
-        <v>5.2437020031000001</v>
+        <v>10.749507095</v>
       </c>
       <c r="J239" t="s">
         <v>1106</v>
@@ -13401,7 +13439,7 @@
         <v>4.4899796045000002</v>
       </c>
       <c r="I240">
-        <v>9.9405337840999994</v>
+        <v>3.2519442936999998</v>
       </c>
       <c r="J240" t="s">
         <v>1102</v>
@@ -13434,10 +13472,13 @@
         <v>4.4899796045000002</v>
       </c>
       <c r="I241">
-        <v>77.902173969000003</v>
+        <v>43.663668328</v>
       </c>
       <c r="J241" t="s">
         <v>1102</v>
+      </c>
+      <c r="K241">
+        <v>5.2515401440999998</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -13467,13 +13508,13 @@
         <v>5.7763970179999999</v>
       </c>
       <c r="I242">
-        <v>5748.1220956999996</v>
+        <v>3472.3389219000001</v>
       </c>
       <c r="J242" t="s">
         <v>1104</v>
       </c>
       <c r="K242">
-        <v>4.1017811704999998</v>
+        <v>4.0356165514000004</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -13503,13 +13544,13 @@
         <v>5.7763970179999999</v>
       </c>
       <c r="I243">
-        <v>931972.52913000004</v>
+        <v>802539.74907999998</v>
       </c>
       <c r="J243" t="s">
         <v>1104</v>
       </c>
       <c r="K243">
-        <v>4.4458015267000004</v>
+        <v>4.2951751314999997</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -13539,13 +13580,13 @@
         <v>3.4706580032000001</v>
       </c>
       <c r="I244">
-        <v>5386.4107614000004</v>
+        <v>2931.6479985999999</v>
       </c>
       <c r="J244" t="s">
         <v>1104</v>
       </c>
       <c r="K244">
-        <v>2.1089058523999999</v>
+        <v>2.0690439400999998</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -13575,13 +13616,13 @@
         <v>3.4706580032000001</v>
       </c>
       <c r="I245">
-        <v>404129.62592000002</v>
+        <v>251796.15393999999</v>
       </c>
       <c r="J245" t="s">
         <v>1104</v>
       </c>
       <c r="K245">
-        <v>2.0519083969</v>
+        <v>2.0189847216999999</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -13608,13 +13649,13 @@
         <v>1.1211767080999999</v>
       </c>
       <c r="I246">
-        <v>1893.8267287000001</v>
+        <v>2376.5898026</v>
       </c>
       <c r="J246" t="s">
         <v>1108</v>
       </c>
       <c r="K246">
-        <v>1.0035623410000001</v>
+        <v>1.0214115145</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -13674,13 +13715,13 @@
         <v>-10.511936511</v>
       </c>
       <c r="I248">
-        <v>418930.22355</v>
+        <v>151394.93799999999</v>
       </c>
       <c r="J248" t="s">
         <v>1107</v>
       </c>
       <c r="K248">
-        <v>1.2050890585</v>
+        <v>0.50970240603999994</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -13710,13 +13751,13 @@
         <v>2.4692626527999999</v>
       </c>
       <c r="I249">
-        <v>1709.0415178000001</v>
+        <v>2285.0406791999999</v>
       </c>
       <c r="J249" t="s">
         <v>1106</v>
       </c>
       <c r="K249">
-        <v>0.60865139949000002</v>
+        <v>0.61204422772</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -13746,13 +13787,13 @@
         <v>0.87602471502000001</v>
       </c>
       <c r="I250">
-        <v>136531.09221</v>
+        <v>119070.41451</v>
       </c>
       <c r="J250" t="s">
         <v>1106</v>
       </c>
       <c r="K250">
-        <v>3.8941475827000001</v>
+        <v>3.5940039733</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -13809,13 +13850,10 @@
         <v>8.7085455078000003</v>
       </c>
       <c r="I252">
-        <v>189.15721438</v>
+        <v>273.62642310000001</v>
       </c>
       <c r="J252" t="s">
         <v>1108</v>
-      </c>
-      <c r="K252">
-        <v>5.2173027989999996</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -13845,13 +13883,13 @@
         <v>8.7085455078000003</v>
       </c>
       <c r="I253">
-        <v>871.79461762000005</v>
+        <v>561.10379533000003</v>
       </c>
       <c r="J253" t="s">
         <v>1108</v>
       </c>
       <c r="K253">
-        <v>5.1908396947000002</v>
+        <v>5.3839825016000002</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -13881,13 +13919,13 @@
         <v>0.77108997744999996</v>
       </c>
       <c r="I254">
-        <v>32140.00763</v>
+        <v>30603.839368000001</v>
       </c>
       <c r="J254" t="s">
         <v>1109</v>
       </c>
       <c r="K254">
-        <v>1.3842239186</v>
+        <v>1.294323039</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -13917,13 +13955,13 @@
         <v>0.74907262177</v>
       </c>
       <c r="I255">
-        <v>122450.87493000001</v>
+        <v>175482.36342000001</v>
       </c>
       <c r="J255" t="s">
         <v>1108</v>
       </c>
       <c r="K255">
-        <v>1.4005089059</v>
+        <v>1.6194088255000001</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -13953,13 +13991,13 @@
         <v>4.0684493124000003</v>
       </c>
       <c r="I256">
-        <v>661099.73861</v>
+        <v>592638.72482</v>
       </c>
       <c r="J256" t="s">
         <v>1108</v>
       </c>
       <c r="K256">
-        <v>3.2508905852000001</v>
+        <v>3.2729315914999999</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -13989,13 +14027,13 @@
         <v>2.0172481419000001</v>
       </c>
       <c r="I257">
-        <v>104278.08306999999</v>
+        <v>116603.77893</v>
       </c>
       <c r="J257" t="s">
         <v>1108</v>
       </c>
       <c r="K257">
-        <v>2.7195928753</v>
+        <v>2.4702506370999999</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -14025,13 +14063,13 @@
         <v>1.9435952269000001</v>
       </c>
       <c r="I258">
-        <v>530824.02237999998</v>
+        <v>434011.84886999999</v>
       </c>
       <c r="J258" t="s">
         <v>1108</v>
       </c>
       <c r="K258">
-        <v>1.4147582697000001</v>
+        <v>1.4046916702000001</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -14061,13 +14099,13 @@
         <v>1.9948854717</v>
       </c>
       <c r="I259">
-        <v>42501.848583999999</v>
+        <v>39610.210522000001</v>
       </c>
       <c r="J259" t="s">
         <v>1109</v>
       </c>
       <c r="K259">
-        <v>1.0849872774</v>
+        <v>1.2040214316</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -14127,13 +14165,13 @@
         <v>12.649676079000001</v>
       </c>
       <c r="I261">
-        <v>131.70265971000001</v>
+        <v>69.006902492999998</v>
       </c>
       <c r="J261" t="s">
         <v>1106</v>
       </c>
       <c r="K261">
-        <v>7.9389312976999999</v>
+        <v>7.4268055305000003</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -14193,13 +14231,13 @@
         <v>-0.93162670052999996</v>
       </c>
       <c r="I263">
-        <v>24.483019558999999</v>
+        <v>14.108967239</v>
       </c>
       <c r="J263" t="s">
         <v>1104</v>
       </c>
       <c r="K263">
-        <v>0.52722646309999999</v>
+        <v>0.51371581080999995</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -14229,13 +14267,13 @@
         <v>-0.93162670052999996</v>
       </c>
       <c r="I264">
-        <v>61.924271779000001</v>
+        <v>59.732896332000003</v>
       </c>
       <c r="J264" t="s">
         <v>1104</v>
       </c>
       <c r="K264">
-        <v>0.22798982188</v>
+        <v>0.21471715529999999</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -14265,13 +14303,13 @@
         <v>1.3085840517</v>
       </c>
       <c r="I265">
-        <v>1236010.1858999999</v>
+        <v>1069491.5991</v>
       </c>
       <c r="J265" t="s">
         <v>1106</v>
       </c>
       <c r="K265">
-        <v>0.8</v>
+        <v>0.73645977564999998</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -14301,13 +14339,13 @@
         <v>3.7112406979000001</v>
       </c>
       <c r="I266">
-        <v>8916.9040566000003</v>
+        <v>9263.4004427</v>
       </c>
       <c r="J266" t="s">
         <v>1110</v>
       </c>
       <c r="K266">
-        <v>0.99134860050999996</v>
+        <v>1.0816125860000001</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -14337,13 +14375,13 @@
         <v>2.0983764767999999</v>
       </c>
       <c r="I267">
-        <v>8617.2637224999999</v>
+        <v>5255.4243194999999</v>
       </c>
       <c r="J267" t="s">
         <v>1110</v>
       </c>
       <c r="K267">
-        <v>0.54147582696999996</v>
+        <v>0.58997050146999996</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -14406,13 +14444,13 @@
         <v>-137.82254509000001</v>
       </c>
       <c r="I269">
-        <v>11.43911538</v>
+        <v>66.242237587000005</v>
       </c>
       <c r="J269" t="s">
         <v>1104</v>
       </c>
       <c r="K269">
-        <v>1.2804071247</v>
+        <v>1.3083699556999999</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -14442,13 +14480,13 @@
         <v>0.41636671358999999</v>
       </c>
       <c r="I270">
-        <v>66355.769709999993</v>
+        <v>53633.802323999997</v>
       </c>
       <c r="J270" t="s">
         <v>1107</v>
       </c>
       <c r="K270">
-        <v>0.75318066157999997</v>
+        <v>0.77057371621000004</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -14538,13 +14576,13 @@
         <v>-2.2707265927</v>
       </c>
       <c r="I273">
-        <v>95.988876378</v>
+        <v>48.749389059999999</v>
       </c>
       <c r="J273" t="s">
         <v>1106</v>
       </c>
       <c r="K273">
-        <v>0.57811704835</v>
+        <v>0.56789677523000004</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -14565,7 +14603,7 @@
         <v>831</v>
       </c>
       <c r="F274">
-        <v>0.24895758557</v>
+        <v>0.28834243200999998</v>
       </c>
       <c r="G274">
         <v>0.55839604328000003</v>
@@ -14574,13 +14612,13 @@
         <v>3.5947418432</v>
       </c>
       <c r="I274">
-        <v>413321.53678999998</v>
+        <v>364347.90331000002</v>
       </c>
       <c r="J274" t="s">
         <v>1106</v>
       </c>
       <c r="K274">
-        <v>6.3074722246999997</v>
+        <v>6.5980374451000001</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -14631,7 +14669,7 @@
         <v>833</v>
       </c>
       <c r="F276">
-        <v>1.0278550344E-2</v>
+        <v>1.5082303342E-2</v>
       </c>
       <c r="G276">
         <v>4.5280039314000001E-2</v>
@@ -14640,13 +14678,13 @@
         <v>0.67854922498000003</v>
       </c>
       <c r="I276">
-        <v>1630.1690948</v>
+        <v>1159.1073761</v>
       </c>
       <c r="J276" t="s">
         <v>1106</v>
       </c>
       <c r="K276">
-        <v>0.59440203562000005</v>
+        <v>0.58796379908999996</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -14667,7 +14705,7 @@
         <v>834</v>
       </c>
       <c r="F277">
-        <v>3.0835651025000001E-2</v>
+        <v>3.5639404024000003E-2</v>
       </c>
       <c r="G277">
         <v>4.5280039314000001E-2</v>
@@ -14676,10 +14714,13 @@
         <v>0.67854922498000003</v>
       </c>
       <c r="I277">
-        <v>18.966542537999999</v>
+        <v>42.573251360999997</v>
       </c>
       <c r="J277" t="s">
         <v>1106</v>
+      </c>
+      <c r="K277">
+        <v>2.0628900527999998</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -14700,7 +14741,7 @@
         <v>835</v>
       </c>
       <c r="F278">
-        <v>1.0278550342E-2</v>
+        <v>1.508230334E-2</v>
       </c>
       <c r="G278">
         <v>4.5280039314000001E-2</v>
@@ -14709,13 +14750,13 @@
         <v>0.67854922498000003</v>
       </c>
       <c r="I278">
-        <v>286039.96750999999</v>
+        <v>275390.77903999999</v>
       </c>
       <c r="J278" t="s">
         <v>1106</v>
       </c>
       <c r="K278">
-        <v>4.7938931297999998</v>
+        <v>4.7197640117999997</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -14745,13 +14786,13 @@
         <v>0.77813631443999998</v>
       </c>
       <c r="I279">
-        <v>8457.7134693000007</v>
+        <v>9242.4443888999995</v>
       </c>
       <c r="J279" t="s">
         <v>1108</v>
       </c>
       <c r="K279">
-        <v>0.37659033078999998</v>
+        <v>0.42943431059999998</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -14871,13 +14912,13 @@
         <v>-8.3055049069999995</v>
       </c>
       <c r="I283">
-        <v>1319.1940551</v>
+        <v>504.37287330999999</v>
       </c>
       <c r="J283" t="s">
         <v>1106</v>
       </c>
       <c r="K283">
-        <v>0.88142493638999997</v>
+        <v>0.71037264463000005</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -14907,13 +14948,13 @@
         <v>-8.3055049069999995</v>
       </c>
       <c r="I284">
-        <v>973.38132073999998</v>
+        <v>362.26338382</v>
       </c>
       <c r="J284" t="s">
         <v>1106</v>
       </c>
       <c r="K284">
-        <v>0.69618320610999995</v>
+        <v>0.61806433488000001</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -14943,13 +14984,13 @@
         <v>0.70446483007000005</v>
       </c>
       <c r="I285">
-        <v>55477.831847000001</v>
+        <v>34105.035488000001</v>
       </c>
       <c r="J285" t="s">
         <v>1108</v>
       </c>
       <c r="K285">
-        <v>0.33180661577999998</v>
+        <v>0.27491822688000001</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -14979,13 +15020,13 @@
         <v>1.5045984149</v>
       </c>
       <c r="I286">
-        <v>122033.06719</v>
+        <v>98659.681599999996</v>
       </c>
       <c r="J286" t="s">
         <v>1118</v>
       </c>
       <c r="K286">
-        <v>4.4396946565000004</v>
+        <v>4.2185760355999999</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -15141,13 +15182,13 @@
         <v>5.0954398652000004</v>
       </c>
       <c r="I291">
-        <v>58422.498999000003</v>
+        <v>36135.011458000001</v>
       </c>
       <c r="J291" t="s">
         <v>1115</v>
       </c>
       <c r="K291">
-        <v>2.4</v>
+        <v>2.5204181968000001</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -15177,13 +15218,13 @@
         <v>1.0749086898</v>
       </c>
       <c r="I292">
-        <v>38145.539502</v>
+        <v>45982.127136000003</v>
       </c>
       <c r="J292" t="s">
         <v>1119</v>
       </c>
       <c r="K292">
-        <v>2.0376590331000002</v>
+        <v>1.8241211671999999</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -15213,13 +15254,13 @@
         <v>10.173604842</v>
       </c>
       <c r="I293">
-        <v>320480.90386000002</v>
+        <v>205356.17465</v>
       </c>
       <c r="J293" t="s">
         <v>1103</v>
       </c>
       <c r="K293">
-        <v>8.2748091603000002</v>
+        <v>7.7900186622999996</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -15240,7 +15281,7 @@
         <v>850</v>
       </c>
       <c r="F294">
-        <v>0.11341357581</v>
+        <v>0.17422014818000001</v>
       </c>
       <c r="G294">
         <v>0.27065376899999999</v>
@@ -15249,13 +15290,13 @@
         <v>1.5631892131</v>
       </c>
       <c r="I294">
-        <v>10115.593085</v>
+        <v>5659.2234842999997</v>
       </c>
       <c r="J294" t="s">
         <v>1106</v>
       </c>
       <c r="K294">
-        <v>2.0213740458</v>
+        <v>2.0561616800000002</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
@@ -15276,7 +15317,7 @@
         <v>851</v>
       </c>
       <c r="F295">
-        <v>0.11341357581</v>
+        <v>0.17422014818000001</v>
       </c>
       <c r="G295">
         <v>0.27065376899999999</v>
@@ -15285,13 +15326,13 @@
         <v>1.5631892131</v>
       </c>
       <c r="I295">
-        <v>818559.17310999997</v>
+        <v>912399.04434000002</v>
       </c>
       <c r="J295" t="s">
         <v>1106</v>
       </c>
       <c r="K295">
-        <v>2.0376590331000002</v>
+        <v>2.0621817872000001</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -15312,7 +15353,7 @@
         <v>852</v>
       </c>
       <c r="F296">
-        <v>0.25392324660999999</v>
+        <v>0.48223131875000003</v>
       </c>
       <c r="G296">
         <v>0.64292021805999999</v>
@@ -15321,13 +15362,13 @@
         <v>3.5454449643000001</v>
       </c>
       <c r="I296">
-        <v>52005.934698999998</v>
+        <v>76597.218827000004</v>
       </c>
       <c r="J296" t="s">
         <v>1103</v>
       </c>
       <c r="K296">
-        <v>5.4918431172000002</v>
+        <v>5.8781028635999997</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -15348,7 +15389,7 @@
         <v>853</v>
       </c>
       <c r="F297">
-        <v>0.25392324660999999</v>
+        <v>0.48223131875000003</v>
       </c>
       <c r="G297">
         <v>0.64292021805999999</v>
@@ -15357,13 +15398,13 @@
         <v>3.5454449643000001</v>
       </c>
       <c r="I297">
-        <v>3146466.4046999998</v>
+        <v>3870458.5992999999</v>
       </c>
       <c r="J297" t="s">
         <v>1103</v>
       </c>
       <c r="K297">
-        <v>6.4636007830000004</v>
+        <v>6.8072060683000002</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -15393,13 +15434,13 @@
         <v>1.3528338889</v>
       </c>
       <c r="I298">
-        <v>23551.314000999999</v>
+        <v>15790.088657</v>
       </c>
       <c r="J298" t="s">
         <v>1106</v>
       </c>
       <c r="K298">
-        <v>1.5348600509000001</v>
+        <v>1.5250938133</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
@@ -15429,13 +15470,13 @@
         <v>3.7787697939</v>
       </c>
       <c r="I299">
-        <v>519382.74485000002</v>
+        <v>512482.43317999999</v>
       </c>
       <c r="J299" t="s">
         <v>1111</v>
       </c>
       <c r="K299">
-        <v>4.9547073791000003</v>
+        <v>4.6274557019999998</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -15456,7 +15497,7 @@
         <v>856</v>
       </c>
       <c r="F300">
-        <v>8.1345415204999993E-2</v>
+        <v>7.8256677955000006E-2</v>
       </c>
       <c r="G300">
         <v>0.10574969163</v>
@@ -15465,13 +15506,13 @@
         <v>1.4847920807999999</v>
       </c>
       <c r="I300">
-        <v>49239.520935</v>
+        <v>60444.117827000002</v>
       </c>
       <c r="J300" t="s">
         <v>1110</v>
       </c>
       <c r="K300">
-        <v>0.98490583801999998</v>
+        <v>0.88880483346000005</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -15501,13 +15542,13 @@
         <v>-6.4909531369</v>
       </c>
       <c r="I301">
-        <v>314.25536277999998</v>
+        <v>81.513138530000006</v>
       </c>
       <c r="J301" t="s">
         <v>1110</v>
       </c>
       <c r="K301">
-        <v>0.41933842239000002</v>
+        <v>0.36521983424999999</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
@@ -15537,7 +15578,7 @@
         <v>10.767530537000001</v>
       </c>
       <c r="I302">
-        <v>5.7432998801000004</v>
+        <v>17.380099999999999</v>
       </c>
       <c r="J302" t="s">
         <v>1111</v>
@@ -15570,7 +15611,7 @@
         <v>10.767530537000001</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1.4120020171000001</v>
       </c>
       <c r="J303" t="s">
         <v>1111</v>
@@ -15603,13 +15644,13 @@
         <v>1.1813878487</v>
       </c>
       <c r="I304">
-        <v>22445.439275000001</v>
+        <v>17734.450388000001</v>
       </c>
       <c r="J304" t="s">
         <v>1107</v>
       </c>
       <c r="K304">
-        <v>2.2513994910999999</v>
+        <v>2.3799490298000001</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -15669,7 +15710,7 @@
         <v>-3.9962142314000002</v>
       </c>
       <c r="I306">
-        <v>1.7895039415</v>
+        <v>2.4642503340999999</v>
       </c>
       <c r="J306" t="s">
         <v>1109</v>
@@ -15702,13 +15743,13 @@
         <v>-3.9962142314000002</v>
       </c>
       <c r="I307">
-        <v>50.690577292</v>
+        <v>22.027812454999999</v>
       </c>
       <c r="J307" t="s">
         <v>1109</v>
       </c>
       <c r="K307">
-        <v>3.5623409668999999</v>
+        <v>3.6903256878000001</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -15738,13 +15779,13 @@
         <v>0.77006507474999997</v>
       </c>
       <c r="I308">
-        <v>48847.633593999999</v>
+        <v>40889.938982</v>
       </c>
       <c r="J308" t="s">
         <v>1104</v>
       </c>
       <c r="K308">
-        <v>2.0050890584999999</v>
+        <v>1.9424879096000001</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
@@ -15765,7 +15806,7 @@
         <v>865</v>
       </c>
       <c r="F309">
-        <v>5.4365725028000002E-2</v>
+        <v>4.9270063283000001E-2</v>
       </c>
       <c r="G309">
         <v>0.10406931061999999</v>
@@ -15774,13 +15815,13 @@
         <v>0.40397344833999999</v>
       </c>
       <c r="I309">
-        <v>7794.9612926</v>
+        <v>7302.3719527000003</v>
       </c>
       <c r="J309" t="s">
         <v>1119</v>
       </c>
       <c r="K309">
-        <v>0.88438642458000005</v>
+        <v>0.90502277607000003</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -15801,7 +15842,7 @@
         <v>866</v>
       </c>
       <c r="F310">
-        <v>5.4365725028000002E-2</v>
+        <v>4.9270063283000001E-2</v>
       </c>
       <c r="G310">
         <v>0.10406931061999999</v>
@@ -15810,13 +15851,13 @@
         <v>0.40397344833999999</v>
       </c>
       <c r="I310">
-        <v>35638.554107999997</v>
+        <v>33141.420902999998</v>
       </c>
       <c r="J310" t="s">
         <v>1119</v>
       </c>
       <c r="K310">
-        <v>0.88844153913000001</v>
+        <v>0.90502277607000003</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
@@ -15837,7 +15878,7 @@
         <v>867</v>
       </c>
       <c r="F311">
-        <v>5.4365725028000002E-2</v>
+        <v>4.9270063283000001E-2</v>
       </c>
       <c r="G311">
         <v>0.10406931061999999</v>
@@ -15846,13 +15887,13 @@
         <v>0.40397344833999999</v>
       </c>
       <c r="I311">
-        <v>295454.48508999997</v>
+        <v>291786.91642999998</v>
       </c>
       <c r="J311" t="s">
         <v>1119</v>
       </c>
       <c r="K311">
-        <v>4.4282399052999999</v>
+        <v>4.5291272851000004</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -15882,13 +15923,13 @@
         <v>0.26349072888000002</v>
       </c>
       <c r="I312">
-        <v>2433.5996205000001</v>
+        <v>915.73348526999996</v>
       </c>
       <c r="J312" t="s">
         <v>1106</v>
       </c>
       <c r="K312">
-        <v>0.20152671756000001</v>
+        <v>0.17859651234999999</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
@@ -15918,13 +15959,13 @@
         <v>1.2887384663999999</v>
       </c>
       <c r="I313">
-        <v>19067.865603999999</v>
+        <v>22451.727484999999</v>
       </c>
       <c r="J313" t="s">
         <v>1110</v>
       </c>
       <c r="K313">
-        <v>1.5389312977</v>
+        <v>1.5953283968</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -16014,13 +16055,13 @@
         <v>1.6340865465000001</v>
       </c>
       <c r="I316">
-        <v>31860.963215</v>
+        <v>25058.80675</v>
       </c>
       <c r="J316" t="s">
         <v>1102</v>
       </c>
       <c r="K316">
-        <v>1.2824427481</v>
+        <v>0.99532438343999996</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
@@ -16104,13 +16145,13 @@
         <v>4.7692052155000004</v>
       </c>
       <c r="I319">
-        <v>1763476.2515</v>
+        <v>1397918.3615999999</v>
       </c>
       <c r="J319" t="s">
         <v>1106</v>
       </c>
       <c r="K319">
-        <v>11.448346056</v>
+        <v>10.635522645</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
@@ -16131,7 +16172,7 @@
         <v>877</v>
       </c>
       <c r="F320">
-        <v>0.17705904707</v>
+        <v>0.14031905677000001</v>
       </c>
       <c r="G320">
         <v>0.32564028655999999</v>
@@ -16140,13 +16181,13 @@
         <v>7.3917486588000001</v>
       </c>
       <c r="I320">
-        <v>24316.430380000002</v>
+        <v>15943.56378</v>
       </c>
       <c r="J320" t="s">
         <v>1110</v>
       </c>
       <c r="K320">
-        <v>4.0622701647000001</v>
+        <v>4.3866514157000003</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
@@ -16176,13 +16217,13 @@
         <v>1.8471461822999999</v>
       </c>
       <c r="I321">
-        <v>7758.9536998000003</v>
+        <v>2993.4071067999998</v>
       </c>
       <c r="J321" t="s">
         <v>1107</v>
       </c>
       <c r="K321">
-        <v>7.9246819337999996</v>
+        <v>7.6234623642999999</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
@@ -16212,13 +16253,13 @@
         <v>0.31416017503999999</v>
       </c>
       <c r="I322">
-        <v>6958.1619659999997</v>
+        <v>5584.5316648999997</v>
       </c>
       <c r="J322" t="s">
         <v>1108</v>
       </c>
       <c r="K322">
-        <v>0.55979643765999998</v>
+        <v>0.45752814400000003</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
@@ -16248,13 +16289,13 @@
         <v>2.0406572594000001</v>
       </c>
       <c r="I323">
-        <v>1148200.8163000001</v>
+        <v>683947.01168</v>
       </c>
       <c r="J323" t="s">
         <v>1108</v>
       </c>
       <c r="K323">
-        <v>3.2122137405000002</v>
+        <v>3.1705897697999998</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
@@ -16284,13 +16325,13 @@
         <v>0.31949717416000001</v>
       </c>
       <c r="I324">
-        <v>1028.2523172000001</v>
+        <v>1089.269401</v>
       </c>
       <c r="J324" t="s">
         <v>1106</v>
       </c>
       <c r="K324">
-        <v>0.45801526718000002</v>
+        <v>0.39331366764999998</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
@@ -16320,13 +16361,13 @@
         <v>0.80949152447999995</v>
       </c>
       <c r="I325">
-        <v>3828.8750417000001</v>
+        <v>1965.9393121999999</v>
       </c>
       <c r="J325" t="s">
         <v>1104</v>
       </c>
       <c r="K325">
-        <v>0.42340966921000001</v>
+        <v>0.40134047718999999</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
@@ -16356,13 +16397,13 @@
         <v>0.98961678479000004</v>
       </c>
       <c r="I326">
-        <v>290656.20094000001</v>
+        <v>151463.17222000001</v>
       </c>
       <c r="J326" t="s">
         <v>1114</v>
       </c>
       <c r="K326">
-        <v>1.1297709923999999</v>
+        <v>1.1177332289999999</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
@@ -16392,13 +16433,13 @@
         <v>4.3318343483000001</v>
       </c>
       <c r="I327">
-        <v>74857.007660999996</v>
+        <v>130011.74049</v>
       </c>
       <c r="J327" t="s">
         <v>1111</v>
       </c>
       <c r="K327">
-        <v>7.8045801526999998</v>
+        <v>8.2716272350000004</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
@@ -16458,13 +16499,13 @@
         <v>0.28449524654000002</v>
       </c>
       <c r="I329">
-        <v>1490718.5952000001</v>
+        <v>1071416.8595</v>
       </c>
       <c r="J329" t="s">
         <v>1108</v>
       </c>
       <c r="K329">
-        <v>0.42076588314000002</v>
+        <v>0.42742760820999998</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
@@ -16527,13 +16568,13 @@
         <v>0.81360462369999997</v>
       </c>
       <c r="I331">
-        <v>109.2937005</v>
+        <v>94.950990920999999</v>
       </c>
       <c r="J331" t="s">
         <v>1104</v>
       </c>
       <c r="K331">
-        <v>2.9455470737999998</v>
+        <v>2.6327935303999999</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
@@ -16563,13 +16604,13 @@
         <v>0.71474434840000001</v>
       </c>
       <c r="I332">
-        <v>8941.5962049000009</v>
+        <v>16545.578031000001</v>
       </c>
       <c r="J332" t="s">
         <v>1115</v>
       </c>
       <c r="K332">
-        <v>1.2213740458</v>
+        <v>1.3384704914000001</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
@@ -16599,13 +16640,13 @@
         <v>0.71474434840000001</v>
       </c>
       <c r="I333">
-        <v>238870.14988000001</v>
+        <v>270895.97616999998</v>
       </c>
       <c r="J333" t="s">
         <v>1115</v>
       </c>
       <c r="K333">
-        <v>1.5816793893000001</v>
+        <v>1.71573054</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
@@ -16635,13 +16676,13 @@
         <v>1.3059568143</v>
       </c>
       <c r="I334">
-        <v>240077.33898</v>
+        <v>219896.2286</v>
       </c>
       <c r="J334" t="s">
         <v>1111</v>
       </c>
       <c r="K334">
-        <v>1.9826972009999999</v>
+        <v>1.9866353620999999</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
@@ -16671,13 +16712,13 @@
         <v>0.86887777466000005</v>
       </c>
       <c r="I335">
-        <v>14393.574439</v>
+        <v>13294.032007</v>
       </c>
       <c r="J335" t="s">
         <v>1106</v>
       </c>
       <c r="K335">
-        <v>1.3821882952</v>
+        <v>1.2662292055</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
@@ -16707,7 +16748,7 @@
         <v>26.033608034</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>8.2748419943999991</v>
       </c>
       <c r="J336" t="s">
         <v>1119</v>
@@ -16740,7 +16781,7 @@
         <v>26.033608034</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>6.4665996522000002</v>
       </c>
       <c r="J337" t="s">
         <v>1119</v>
@@ -16773,13 +16814,13 @@
         <v>1.8011654815</v>
       </c>
       <c r="I338">
-        <v>75140.852557000006</v>
+        <v>65593.560421000002</v>
       </c>
       <c r="J338" t="s">
         <v>1114</v>
       </c>
       <c r="K338">
-        <v>1.6468193384000001</v>
+        <v>1.5953283968</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
@@ -16809,13 +16850,13 @@
         <v>1.1544678081999999</v>
       </c>
       <c r="I339">
-        <v>2873.6638103999999</v>
+        <v>2549.9451912999998</v>
       </c>
       <c r="J339" t="s">
         <v>1110</v>
       </c>
       <c r="K339">
-        <v>0.88346055980000004</v>
+        <v>0.95117693095</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
@@ -16908,13 +16949,10 @@
         <v>2.757319147</v>
       </c>
       <c r="I342">
-        <v>29.020924745999999</v>
+        <v>15.534195362</v>
       </c>
       <c r="J342" t="s">
         <v>1103</v>
-      </c>
-      <c r="K342">
-        <v>2.3232449709999998</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
@@ -16944,13 +16982,10 @@
         <v>5.6703861942999998</v>
       </c>
       <c r="I343">
-        <v>47.354532685999999</v>
+        <v>21.881358390999999</v>
       </c>
       <c r="J343" t="s">
         <v>1103</v>
-      </c>
-      <c r="K343">
-        <v>4.2730523678000001</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
@@ -16980,13 +17015,13 @@
         <v>5.6703861942999998</v>
       </c>
       <c r="I344">
-        <v>592.93666860999997</v>
+        <v>278.48958671999998</v>
       </c>
       <c r="J344" t="s">
         <v>1103</v>
       </c>
       <c r="K344">
-        <v>3.5584125708999998</v>
+        <v>3.3431661749999999</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
@@ -17016,13 +17051,13 @@
         <v>2.7808902429</v>
       </c>
       <c r="I345">
-        <v>26.276015777000001</v>
+        <v>287.40282875999998</v>
       </c>
       <c r="J345" t="s">
         <v>1103</v>
       </c>
       <c r="K345">
-        <v>4.3969465649000004</v>
+        <v>5.8194369193000002</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
@@ -17052,13 +17087,13 @@
         <v>2.7808902429</v>
       </c>
       <c r="I346">
-        <v>2002.3460471000001</v>
+        <v>2052.0845245999999</v>
       </c>
       <c r="J346" t="s">
         <v>1103</v>
       </c>
       <c r="K346">
-        <v>4.0223918574999997</v>
+        <v>6.5599100996999997</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
@@ -17088,13 +17123,13 @@
         <v>2.4412247868999999</v>
       </c>
       <c r="I347">
-        <v>98065.524176999999</v>
+        <v>67602.811677999998</v>
       </c>
       <c r="J347" t="s">
         <v>1115</v>
       </c>
       <c r="K347">
-        <v>6.9781170483999997</v>
+        <v>7.2020548631999999</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
@@ -17124,13 +17159,10 @@
         <v>-21.388689488000001</v>
       </c>
       <c r="I348">
-        <v>1172.1355083000001</v>
+        <v>1460.2950635</v>
       </c>
       <c r="J348" t="s">
         <v>1105</v>
-      </c>
-      <c r="K348">
-        <v>51.704834605999999</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
@@ -17193,13 +17225,13 @@
         <v>9.8035234650999996</v>
       </c>
       <c r="I350">
-        <v>555.49275845</v>
+        <v>1116.2005644999999</v>
       </c>
       <c r="J350" t="s">
         <v>1104</v>
       </c>
       <c r="K350">
-        <v>10.178117048000001</v>
+        <v>9.7726406197000006</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
@@ -17229,13 +17261,13 @@
         <v>1.1499853555999999</v>
       </c>
       <c r="I351">
-        <v>53843.027149000001</v>
+        <v>39303.946096</v>
       </c>
       <c r="J351" t="s">
         <v>1106</v>
       </c>
       <c r="K351">
-        <v>2.6096692111999999</v>
+        <v>2.4983444705000002</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
@@ -17328,13 +17360,13 @@
         <v>0.21369949307</v>
       </c>
       <c r="I354">
-        <v>333021.78503000003</v>
+        <v>243192.95039000001</v>
       </c>
       <c r="J354" t="s">
         <v>1111</v>
       </c>
       <c r="K354">
-        <v>1.4636132315999999</v>
+        <v>1.3665643247999999</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
@@ -17364,10 +17396,13 @@
         <v>-9.0686382050999992</v>
       </c>
       <c r="I355">
-        <v>335.26232275000001</v>
+        <v>212.41057925000001</v>
       </c>
       <c r="J355" t="s">
         <v>1111</v>
+      </c>
+      <c r="K355">
+        <v>4.0435053077000003</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
@@ -17397,13 +17432,13 @@
         <v>1.8442261543</v>
       </c>
       <c r="I356">
-        <v>47105.225434</v>
+        <v>34298.288168999999</v>
       </c>
       <c r="J356" t="s">
         <v>1110</v>
       </c>
       <c r="K356">
-        <v>1.013740458</v>
+        <v>1.1939879197000001</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
@@ -17433,13 +17468,13 @@
         <v>0.92223985192000002</v>
       </c>
       <c r="I357">
-        <v>10749.889243</v>
+        <v>8159.4959735000002</v>
       </c>
       <c r="J357" t="s">
         <v>1108</v>
       </c>
       <c r="K357">
-        <v>0.39287531806999998</v>
+        <v>0.49164208456000003</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
@@ -17469,7 +17504,7 @@
         <v>24.843675960999999</v>
       </c>
       <c r="I358">
-        <v>32.256212167999998</v>
+        <v>69.613060017999999</v>
       </c>
       <c r="J358" t="s">
         <v>1106</v>
@@ -17502,13 +17537,13 @@
         <v>3.1159302037000001</v>
       </c>
       <c r="I359">
-        <v>25485.215056000001</v>
+        <v>26547.966635000001</v>
       </c>
       <c r="J359" t="s">
         <v>1110</v>
       </c>
       <c r="K359">
-        <v>2.4101781170000001</v>
+        <v>2.6368069352000001</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
@@ -17538,13 +17573,13 @@
         <v>1.6812855384000001</v>
       </c>
       <c r="I360">
-        <v>175967.09057999999</v>
+        <v>136233.01796</v>
       </c>
       <c r="J360" t="s">
         <v>1106</v>
       </c>
       <c r="K360">
-        <v>1.9175572518999999</v>
+        <v>1.7117171352</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
@@ -17574,7 +17609,7 @@
         <v>3.7672581078</v>
       </c>
       <c r="I361">
-        <v>11.587887718999999</v>
+        <v>3.9394224139</v>
       </c>
       <c r="J361" t="s">
         <v>1107</v>
@@ -17607,7 +17642,7 @@
         <v>3.7672581078</v>
       </c>
       <c r="I362">
-        <v>3.2801098359999998</v>
+        <v>1.7859455958999999</v>
       </c>
       <c r="J362" t="s">
         <v>1107</v>
@@ -17640,7 +17675,7 @@
         <v>3.7672581078</v>
       </c>
       <c r="I363">
-        <v>2.3438919954999999</v>
+        <v>2.2300032383000001</v>
       </c>
       <c r="J363" t="s">
         <v>1107</v>
@@ -17673,13 +17708,13 @@
         <v>2.4386297065</v>
       </c>
       <c r="I364">
-        <v>913911.86948999995</v>
+        <v>718147.35227999999</v>
       </c>
       <c r="J364" t="s">
         <v>1110</v>
       </c>
       <c r="K364">
-        <v>1.644783715</v>
+        <v>1.5291072181000001</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
@@ -17709,13 +17744,13 @@
         <v>0.87045236176999996</v>
       </c>
       <c r="I365">
-        <v>31569.349460000001</v>
+        <v>19843.70609</v>
       </c>
       <c r="J365" t="s">
         <v>1118</v>
       </c>
       <c r="K365">
-        <v>0.38269720101999999</v>
+        <v>0.44950133446000001</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
@@ -17745,13 +17780,13 @@
         <v>2.3665900411999998</v>
       </c>
       <c r="I366">
-        <v>345682.90914</v>
+        <v>485220.63243</v>
       </c>
       <c r="J366" t="s">
         <v>1106</v>
       </c>
       <c r="K366">
-        <v>5.7384223919000004</v>
+        <v>5.2997010012999999</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
@@ -17781,10 +17816,13 @@
         <v>12.555085048</v>
       </c>
       <c r="I367">
-        <v>99.218167460999993</v>
+        <v>173.74512003999999</v>
       </c>
       <c r="J367" t="s">
         <v>1104</v>
+      </c>
+      <c r="K367">
+        <v>8.7291553789999998</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
@@ -17814,13 +17852,13 @@
         <v>4.8557108045000001</v>
       </c>
       <c r="I368">
-        <v>79035.990447999997</v>
+        <v>94577.821618999995</v>
       </c>
       <c r="J368" t="s">
         <v>1102</v>
       </c>
       <c r="K368">
-        <v>4.2259541985000002</v>
+        <v>4.3344771537</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -17850,13 +17888,13 @@
         <v>0.39887002743</v>
       </c>
       <c r="I369">
-        <v>2108.2379182</v>
+        <v>2101.8885359000001</v>
       </c>
       <c r="J369" t="s">
         <v>1114</v>
       </c>
       <c r="K369">
-        <v>0.23613231552</v>
+        <v>0.23478417915999999</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
@@ -17886,13 +17924,13 @@
         <v>-10.819484791000001</v>
       </c>
       <c r="I370">
-        <v>47.290661342999996</v>
+        <v>23.507587946000001</v>
       </c>
       <c r="J370" t="s">
         <v>1106</v>
       </c>
       <c r="K370">
-        <v>1.0218829517000001</v>
+        <v>0.94917022856</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
@@ -17922,10 +17960,13 @@
         <v>23.738159352</v>
       </c>
       <c r="I371">
-        <v>92.384523811999998</v>
+        <v>50.046058774999999</v>
       </c>
       <c r="J371" t="s">
         <v>1103</v>
+      </c>
+      <c r="K371">
+        <v>23.578753034999998</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
@@ -17955,13 +17996,13 @@
         <v>-4.7180965796000001</v>
       </c>
       <c r="I372">
-        <v>922.62033883000004</v>
+        <v>117.55991361</v>
       </c>
       <c r="J372" t="s">
         <v>1105</v>
       </c>
       <c r="K372">
-        <v>2.7277353689999999</v>
+        <v>2.3478417916000001</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
@@ -18015,13 +18056,13 @@
         <v>0</v>
       </c>
       <c r="I374">
-        <v>161507.23882</v>
+        <v>147305.5551</v>
       </c>
       <c r="J374" t="s">
         <v>1103</v>
       </c>
       <c r="K374">
-        <v>1.5979643766</v>
+        <v>1.8441594927</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
@@ -18051,13 +18092,13 @@
         <v>0.49639662497999998</v>
       </c>
       <c r="I375">
-        <v>598.19619689000001</v>
+        <v>85.939954822999994</v>
       </c>
       <c r="J375" t="s">
         <v>1116</v>
       </c>
       <c r="K375">
-        <v>1.1603053434999999</v>
+        <v>1.1036863123</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
@@ -18087,13 +18128,13 @@
         <v>0.80069970553000003</v>
       </c>
       <c r="I376">
-        <v>17838.852462999999</v>
+        <v>15912.176067</v>
       </c>
       <c r="J376" t="s">
         <v>1113</v>
       </c>
       <c r="K376">
-        <v>1.1867684478</v>
+        <v>1.1779343006</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
@@ -18186,13 +18227,13 @@
         <v>0.53054688001999994</v>
       </c>
       <c r="I379">
-        <v>110599.40612</v>
+        <v>108527.57305000001</v>
       </c>
       <c r="J379" t="s">
         <v>1106</v>
       </c>
       <c r="K379">
-        <v>2.4081424936000002</v>
+        <v>2.4180763751000001</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
@@ -18222,13 +18263,13 @@
         <v>-8.9915541002000001</v>
       </c>
       <c r="I380">
-        <v>13665.614797</v>
+        <v>156841.26433000001</v>
       </c>
       <c r="J380" t="s">
         <v>1112</v>
       </c>
       <c r="K380">
-        <v>0.13027989822</v>
+        <v>0.20869704814000001</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
@@ -18258,13 +18299,13 @@
         <v>-8.9915541002000001</v>
       </c>
       <c r="I381">
-        <v>217.84781042</v>
+        <v>4770.6481323999997</v>
       </c>
       <c r="J381" t="s">
         <v>1112</v>
       </c>
       <c r="K381">
-        <v>0.31959287532000002</v>
+        <v>0.42341420344000003</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
@@ -18294,13 +18335,13 @@
         <v>0.87087660527999999</v>
       </c>
       <c r="I382">
-        <v>83276.874337000001</v>
+        <v>121163.72772</v>
       </c>
       <c r="J382" t="s">
         <v>1106</v>
       </c>
       <c r="K382">
-        <v>2.4366412213999999</v>
+        <v>2.0669034575</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
@@ -18330,13 +18371,13 @@
         <v>1.486616908</v>
       </c>
       <c r="I383">
-        <v>65370.366994000004</v>
+        <v>43912.835011000003</v>
       </c>
       <c r="J383" t="s">
         <v>1106</v>
       </c>
       <c r="K383">
-        <v>7.1898218829999996</v>
+        <v>6.7224529930000001</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
@@ -18366,13 +18407,13 @@
         <v>-395.15335715999998</v>
       </c>
       <c r="I384">
-        <v>1323.4268970000001</v>
+        <v>229.79168182000001</v>
       </c>
       <c r="J384" t="s">
         <v>1115</v>
       </c>
       <c r="K384">
-        <v>1.306870229</v>
+        <v>0.99131097866999995</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
@@ -18402,13 +18443,13 @@
         <v>2.4700750744</v>
       </c>
       <c r="I385">
-        <v>1319.9127699000001</v>
+        <v>670.24646184000005</v>
       </c>
       <c r="J385" t="s">
         <v>1116</v>
       </c>
       <c r="K385">
-        <v>4.7226463104</v>
+        <v>4.4147452491000001</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
@@ -18435,13 +18476,13 @@
         <v>3.7102050539999998</v>
       </c>
       <c r="I386">
-        <v>241736.59669999999</v>
+        <v>156454.63364000001</v>
       </c>
       <c r="J386" t="s">
         <v>1108</v>
       </c>
       <c r="K386">
-        <v>0.84274809159999997</v>
+        <v>0.80870106154999999</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
@@ -18471,13 +18512,13 @@
         <v>0.38632939863999999</v>
       </c>
       <c r="I387">
-        <v>793.33322970999996</v>
+        <v>1448.9013646000001</v>
       </c>
       <c r="J387" t="s">
         <v>1114</v>
       </c>
       <c r="K387">
-        <v>0.67175572519000004</v>
+        <v>0.73043966848999997</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
@@ -18507,13 +18548,13 @@
         <v>0.94499976576</v>
       </c>
       <c r="I388">
-        <v>31441.787695999999</v>
+        <v>16245.707351999999</v>
       </c>
       <c r="J388" t="s">
         <v>1108</v>
       </c>
       <c r="K388">
-        <v>0.64221909356999995</v>
+        <v>0.59398390624999997</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
@@ -18543,13 +18584,10 @@
         <v>7.0566064001999997</v>
       </c>
       <c r="I389">
-        <v>20.375096483</v>
+        <v>6.1236100243999996</v>
       </c>
       <c r="J389" t="s">
         <v>1104</v>
-      </c>
-      <c r="K389">
-        <v>5.644783715</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
@@ -18579,10 +18617,13 @@
         <v>7.0566064001999997</v>
       </c>
       <c r="I390">
-        <v>13.517229214</v>
+        <v>3.0501876267000001</v>
       </c>
       <c r="J390" t="s">
         <v>1104</v>
+      </c>
+      <c r="K390">
+        <v>6.0201071579000001</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
@@ -18612,13 +18653,10 @@
         <v>10.731704311</v>
       </c>
       <c r="I391">
-        <v>45.574399372000002</v>
+        <v>6.7315742356000001</v>
       </c>
       <c r="J391" t="s">
         <v>1106</v>
-      </c>
-      <c r="K391">
-        <v>7.9389312976999999</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
@@ -18648,13 +18686,13 @@
         <v>10.731704311</v>
       </c>
       <c r="I392">
-        <v>51.760173682000001</v>
+        <v>23.993642588</v>
       </c>
       <c r="J392" t="s">
         <v>1106</v>
       </c>
       <c r="K392">
-        <v>9.7709923663999998</v>
+        <v>9.7505668934000003</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
@@ -18684,13 +18722,13 @@
         <v>-18.440678172999998</v>
       </c>
       <c r="I393">
-        <v>391.93682501000001</v>
+        <v>430.25524294000002</v>
       </c>
       <c r="J393" t="s">
         <v>1104</v>
       </c>
       <c r="K393">
-        <v>0.87531806615999996</v>
+        <v>0.74649328758</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
@@ -18720,13 +18758,13 @@
         <v>-333.79483750000003</v>
       </c>
       <c r="I394">
-        <v>6997.1474519000003</v>
+        <v>2686.6625786999998</v>
       </c>
       <c r="J394" t="s">
         <v>1110</v>
       </c>
       <c r="K394">
-        <v>8.1424936387000005E-2</v>
+        <v>6.2207773964999998E-2</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
@@ -18756,13 +18794,13 @@
         <v>-14.924172021</v>
       </c>
       <c r="I395">
-        <v>51.257556487000002</v>
+        <v>256.54654176000003</v>
       </c>
       <c r="J395" t="s">
         <v>1100</v>
       </c>
       <c r="K395">
-        <v>0.42544529262000003</v>
+        <v>0.40134047718999999</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
@@ -18792,13 +18830,13 @@
         <v>5.9225105400000002</v>
       </c>
       <c r="I396">
-        <v>1672680.6853</v>
+        <v>1874613.6338</v>
       </c>
       <c r="J396" t="s">
         <v>1100</v>
       </c>
       <c r="K396">
-        <v>8.5414758269999993</v>
+        <v>8.2716272350000004</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
@@ -18828,13 +18866,13 @@
         <v>5.9225105400000002</v>
       </c>
       <c r="I397">
-        <v>5659199.2333000004</v>
+        <v>6017354.2622999996</v>
       </c>
       <c r="J397" t="s">
         <v>1100</v>
       </c>
       <c r="K397">
-        <v>8.1343511450000001</v>
+        <v>8.0549033773000005</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
@@ -18864,13 +18902,13 @@
         <v>3.0181937586999998</v>
       </c>
       <c r="I398">
-        <v>305892.53876999998</v>
+        <v>184767.56426000001</v>
       </c>
       <c r="J398" t="s">
         <v>1100</v>
       </c>
       <c r="K398">
-        <v>4.8508905852000002</v>
+        <v>4.6154154877</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
@@ -18900,13 +18938,13 @@
         <v>3.0804751502999999</v>
       </c>
       <c r="I399">
-        <v>1834673.7109000001</v>
+        <v>1565724.0825</v>
       </c>
       <c r="J399" t="s">
         <v>1100</v>
       </c>
       <c r="K399">
-        <v>9.3007633587999994</v>
+        <v>8.7712961290999996</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
@@ -18936,13 +18974,13 @@
         <v>1.5581517954999999</v>
       </c>
       <c r="I400">
-        <v>60.400612295000002</v>
+        <v>30.913843312000001</v>
       </c>
       <c r="J400" t="s">
         <v>1109</v>
       </c>
       <c r="K400">
-        <v>2.5323155216000002</v>
+        <v>2.5023578753</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
@@ -18972,13 +19010,13 @@
         <v>1.5581517954999999</v>
       </c>
       <c r="I401">
-        <v>231.22024531</v>
+        <v>341.24824799999999</v>
       </c>
       <c r="J401" t="s">
         <v>1109</v>
       </c>
       <c r="K401">
-        <v>1.6977099237</v>
+        <v>1.5792747778</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
@@ -19008,13 +19046,13 @@
         <v>0.79783061720000004</v>
       </c>
       <c r="I402">
-        <v>229553.75568999999</v>
+        <v>205666.04999</v>
       </c>
       <c r="J402" t="s">
         <v>1108</v>
       </c>
       <c r="K402">
-        <v>0.69211195929000002</v>
+        <v>0.83679489495000003</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
@@ -19041,13 +19079,13 @@
         <v>1.0532008066</v>
       </c>
       <c r="I403">
-        <v>4.3884550303000003</v>
+        <v>152.79517767999999</v>
       </c>
       <c r="J403" t="s">
         <v>1103</v>
       </c>
       <c r="K403">
-        <v>1.0157760814000001</v>
+        <v>1.8060321474000001</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
@@ -19077,13 +19115,13 @@
         <v>1.0532008066</v>
       </c>
       <c r="I404">
-        <v>18444.455560999999</v>
+        <v>9455.6695478000001</v>
       </c>
       <c r="J404" t="s">
         <v>1103</v>
       </c>
       <c r="K404">
-        <v>0.82849872774</v>
+        <v>0.91505628800000005</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
@@ -19113,13 +19151,13 @@
         <v>0.60166093338000004</v>
       </c>
       <c r="I405">
-        <v>47067.618785999999</v>
+        <v>36892.517747999998</v>
       </c>
       <c r="J405" t="s">
         <v>1110</v>
       </c>
       <c r="K405">
-        <v>2.4671755725</v>
+        <v>2.8374771738</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
@@ -19149,13 +19187,13 @@
         <v>-5.7448292278000004</v>
       </c>
       <c r="I406">
-        <v>17.204588292</v>
+        <v>11.444292661</v>
       </c>
       <c r="J406" t="s">
         <v>1115</v>
       </c>
       <c r="K406">
-        <v>1.4452926209000001</v>
+        <v>1.6053619088</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
@@ -19218,13 +19256,13 @@
         <v>-7.2174851243999996</v>
       </c>
       <c r="I408">
-        <v>257.03151057000002</v>
+        <v>64.522638181000005</v>
       </c>
       <c r="J408" t="s">
         <v>1101</v>
       </c>
       <c r="K408">
-        <v>0.35012722646</v>
+        <v>0.29097184596999998</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
@@ -19248,19 +19286,19 @@
         <v>0.28886938689000002</v>
       </c>
       <c r="G409">
-        <v>0.67881588309999996</v>
+        <v>0.66621089452000004</v>
       </c>
       <c r="H409">
-        <v>3.6936875660999999</v>
+        <v>3.6574230392999998</v>
       </c>
       <c r="I409">
-        <v>172098.54446999999</v>
+        <v>231551.52035000001</v>
       </c>
       <c r="J409" t="s">
         <v>1103</v>
       </c>
       <c r="K409">
-        <v>5.4595419847000004</v>
+        <v>5.7311420142999996</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
@@ -19290,13 +19328,13 @@
         <v>0.54138453307000001</v>
       </c>
       <c r="I410">
-        <v>17856.416535</v>
+        <v>12794.881665999999</v>
       </c>
       <c r="J410" t="s">
         <v>1117</v>
       </c>
       <c r="K410">
-        <v>1.3129770992000001</v>
+        <v>1.2020147292000001</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
@@ -19326,13 +19364,13 @@
         <v>2.0623078224000002</v>
       </c>
       <c r="I411">
-        <v>35645.795016999997</v>
+        <v>25568.021940999999</v>
       </c>
       <c r="J411" t="s">
         <v>1118</v>
       </c>
       <c r="K411">
-        <v>1.4615776081</v>
+        <v>1.6033552064000001</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
@@ -19362,13 +19400,13 @@
         <v>5.6758816976999998E-4</v>
       </c>
       <c r="I412">
-        <v>5.9530595319000001</v>
+        <v>5.6550027973999999</v>
       </c>
       <c r="J412" t="s">
         <v>1103</v>
       </c>
       <c r="K412">
-        <v>0.81017811704999998</v>
+        <v>0.76656031144000003</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
@@ -19458,13 +19496,13 @@
         <v>1.2225807555999999</v>
       </c>
       <c r="I415">
-        <v>9366.7602551</v>
+        <v>14207.869375</v>
       </c>
       <c r="J415" t="s">
         <v>1110</v>
       </c>
       <c r="K415">
-        <v>2.4427480915999999</v>
+        <v>2.2756005056999999</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
@@ -19494,13 +19532,13 @@
         <v>2.0547769274999999</v>
       </c>
       <c r="I416">
-        <v>7610.7981640999997</v>
+        <v>4886.1826825999997</v>
       </c>
       <c r="J416" t="s">
         <v>1108</v>
       </c>
       <c r="K416">
-        <v>0.96895674300000001</v>
+        <v>1.1719141933999999</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
@@ -19560,13 +19598,13 @@
         <v>0.94996933039999998</v>
       </c>
       <c r="I418">
-        <v>77404.841260999994</v>
+        <v>55405.613026999999</v>
       </c>
       <c r="J418" t="s">
         <v>1106</v>
       </c>
       <c r="K418">
-        <v>0.49872773536999998</v>
+        <v>0.47358176309</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
@@ -19626,13 +19664,13 @@
         <v>0.53720043435999998</v>
       </c>
       <c r="I420">
-        <v>69877.211607999998</v>
+        <v>49460.676391000001</v>
       </c>
       <c r="J420" t="s">
         <v>1108</v>
       </c>
       <c r="K420">
-        <v>1.0422391858</v>
+        <v>1.0474986454999999</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
@@ -19662,13 +19700,13 @@
         <v>0.66649554564000002</v>
       </c>
       <c r="I421">
-        <v>801350.75713000004</v>
+        <v>843780.58180000004</v>
       </c>
       <c r="J421" t="s">
         <v>1108</v>
       </c>
       <c r="K421">
-        <v>5.3251908397000003</v>
+        <v>5.3458551561999998</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
@@ -19698,13 +19736,13 @@
         <v>0.42689287200999998</v>
       </c>
       <c r="I422">
-        <v>191644.00096</v>
+        <v>192215.20877</v>
       </c>
       <c r="J422" t="s">
         <v>1101</v>
       </c>
       <c r="K422">
-        <v>0.76132315522000005</v>
+        <v>0.71037264463000005</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
@@ -19734,13 +19772,13 @@
         <v>1.7912096293999999</v>
       </c>
       <c r="I423">
-        <v>1271.9499951</v>
+        <v>582.13708477</v>
       </c>
       <c r="J423" t="s">
         <v>1115</v>
       </c>
       <c r="K423">
-        <v>2.3511450381999999</v>
+        <v>2.1391447434000002</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
@@ -19770,13 +19808,13 @@
         <v>1.7912096293999999</v>
       </c>
       <c r="I424">
-        <v>99426.505560000005</v>
+        <v>82623.990936000002</v>
       </c>
       <c r="J424" t="s">
         <v>1115</v>
       </c>
       <c r="K424">
-        <v>2.3267175572999999</v>
+        <v>2.2093793270000002</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
@@ -19806,13 +19844,13 @@
         <v>1.8198579232999999E-4</v>
       </c>
       <c r="I425">
-        <v>83813.878492999997</v>
+        <v>32831.231854999998</v>
       </c>
       <c r="J425" t="s">
         <v>1115</v>
       </c>
       <c r="K425">
-        <v>0.48854961831999999</v>
+        <v>0.35518632232000003</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
@@ -19842,13 +19880,13 @@
         <v>1.8198579232999999E-4</v>
       </c>
       <c r="I426">
-        <v>9142.3021405</v>
+        <v>15234.869908000001</v>
       </c>
       <c r="J426" t="s">
         <v>1115</v>
       </c>
       <c r="K426">
-        <v>0.14045801526999999</v>
+        <v>0.14448257178999999</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
@@ -19878,13 +19916,13 @@
         <v>2.0171016824999999</v>
       </c>
       <c r="I427">
-        <v>431437.59411000001</v>
+        <v>447315.05404999998</v>
       </c>
       <c r="J427" t="s">
         <v>1106</v>
       </c>
       <c r="K427">
-        <v>5.6101781171000003</v>
+        <v>5.0809704412999999</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
@@ -19914,13 +19952,13 @@
         <v>0.55276291844000003</v>
       </c>
       <c r="I428">
-        <v>262.67566807999998</v>
+        <v>113.57185351</v>
       </c>
       <c r="J428" t="s">
         <v>1102</v>
       </c>
       <c r="K428">
-        <v>1.4106870228999999</v>
+        <v>1.372584432</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
@@ -19950,13 +19988,13 @@
         <v>0.64608481097000003</v>
       </c>
       <c r="I429">
-        <v>947.32465345000003</v>
+        <v>440.50005714999998</v>
       </c>
       <c r="J429" t="s">
         <v>1102</v>
       </c>
       <c r="K429">
-        <v>0.26259541985000001</v>
+        <v>0.26287801255999999</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
@@ -19986,13 +20024,13 @@
         <v>0.64608481097000003</v>
       </c>
       <c r="I430">
-        <v>1478.4143649</v>
+        <v>1035.6599260999999</v>
       </c>
       <c r="J430" t="s">
         <v>1102</v>
       </c>
       <c r="K430">
-        <v>0.25241730280000002</v>
+        <v>0.26087131017999998</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
@@ -20022,13 +20060,13 @@
         <v>0.64608481097000003</v>
       </c>
       <c r="I431">
-        <v>333.55298900999998</v>
+        <v>116.37360445</v>
       </c>
       <c r="J431" t="s">
         <v>1102</v>
       </c>
       <c r="K431">
-        <v>0.77353689566999995</v>
+        <v>0.79264744245999996</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
@@ -20088,13 +20126,13 @@
         <v>5.8528378265000001</v>
       </c>
       <c r="I433">
-        <v>630.90252223000005</v>
+        <v>645.38819550999995</v>
       </c>
       <c r="J433" t="s">
         <v>1115</v>
       </c>
       <c r="K433">
-        <v>16.284987276999999</v>
+        <v>16.850279935</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
@@ -20124,13 +20162,13 @@
         <v>2.7508550720999998</v>
       </c>
       <c r="I434">
-        <v>211.53972021000001</v>
+        <v>140.48950116</v>
       </c>
       <c r="J434" t="s">
         <v>1110</v>
       </c>
       <c r="K434">
-        <v>0.95877862594999996</v>
+        <v>0.83679489495000003</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
@@ -20181,7 +20219,7 @@
         <v>992</v>
       </c>
       <c r="F436">
-        <v>0.18853305194</v>
+        <v>0.16368686208</v>
       </c>
       <c r="G436">
         <v>0.44974102874999999</v>
@@ -20190,13 +20228,13 @@
         <v>2.5527372008999998</v>
       </c>
       <c r="I436">
-        <v>15741.406391</v>
+        <v>14058.731651</v>
       </c>
       <c r="J436" t="s">
         <v>1105</v>
       </c>
       <c r="K436">
-        <v>2.6361323154999998</v>
+        <v>2.5404852205999999</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
@@ -20226,13 +20264,13 @@
         <v>-12.619018216000001</v>
       </c>
       <c r="I437">
-        <v>1085.4891994</v>
+        <v>990.94496468</v>
       </c>
       <c r="J437" t="s">
         <v>1110</v>
       </c>
       <c r="K437">
-        <v>0.75928753180999997</v>
+        <v>0.75652679951000001</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
@@ -20262,13 +20300,13 @@
         <v>1.7166014448</v>
       </c>
       <c r="I438">
-        <v>1190231.7844</v>
+        <v>914717.73071000003</v>
       </c>
       <c r="J438" t="s">
         <v>1107</v>
       </c>
       <c r="K438">
-        <v>4.6086513995000002</v>
+        <v>4.5592278209000003</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
@@ -20295,13 +20333,13 @@
         <v>8.6462370036999996</v>
       </c>
       <c r="I439">
-        <v>842522.29864000005</v>
+        <v>892817.49635000003</v>
       </c>
       <c r="J439" t="s">
         <v>1106</v>
       </c>
       <c r="K439">
-        <v>15.682442748</v>
+        <v>15.885056087000001</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
@@ -20361,13 +20399,13 @@
         <v>1.2550270220999999</v>
       </c>
       <c r="I441">
-        <v>6897.1998670000003</v>
+        <v>5452.8824760999996</v>
       </c>
       <c r="J441" t="s">
         <v>1106</v>
       </c>
       <c r="K441">
-        <v>1.0707379134999999</v>
+        <v>1.0113780025000001</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
@@ -20397,13 +20435,13 @@
         <v>1.2550270220999999</v>
       </c>
       <c r="I442">
-        <v>41542.797757</v>
+        <v>41867.880057000002</v>
       </c>
       <c r="J442" t="s">
         <v>1106</v>
       </c>
       <c r="K442">
-        <v>1.1501272265</v>
+        <v>1.0575321574000001</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
@@ -20433,13 +20471,13 @@
         <v>1.2550270220999999</v>
       </c>
       <c r="I443">
-        <v>107895.17879999999</v>
+        <v>96730.243713000003</v>
       </c>
       <c r="J443" t="s">
         <v>1106</v>
       </c>
       <c r="K443">
-        <v>5.7282442747999998</v>
+        <v>5.1833122630000004</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
@@ -20469,13 +20507,13 @@
         <v>-49.06082747</v>
       </c>
       <c r="I444">
-        <v>1380.3612840000001</v>
+        <v>438.47314549999999</v>
       </c>
       <c r="J444" t="s">
         <v>1106</v>
       </c>
       <c r="K444">
-        <v>2.8926208651</v>
+        <v>2.1632251721000002</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
@@ -20505,13 +20543,13 @@
         <v>-49.06082747</v>
       </c>
       <c r="I445">
-        <v>1004.3210006</v>
+        <v>142.80023671999999</v>
       </c>
       <c r="J445" t="s">
         <v>1106</v>
       </c>
       <c r="K445">
-        <v>0.91195928753</v>
+        <v>1.0374651335</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
@@ -20574,13 +20612,13 @@
         <v>2.2746971908</v>
       </c>
       <c r="I447">
-        <v>7644.7059214000001</v>
+        <v>5529.4754218999997</v>
       </c>
       <c r="J447" t="s">
         <v>1103</v>
       </c>
       <c r="K447">
-        <v>2.8111959288000001</v>
+        <v>2.6929946020000002</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
@@ -20610,13 +20648,13 @@
         <v>2.2746971908</v>
       </c>
       <c r="I448">
-        <v>9553.4098453000006</v>
+        <v>6290.8035984999997</v>
       </c>
       <c r="J448" t="s">
         <v>1103</v>
       </c>
       <c r="K448">
-        <v>3.1816793893000002</v>
+        <v>3.0381474123999999</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
@@ -20646,13 +20684,13 @@
         <v>2.2746971908</v>
       </c>
       <c r="I449">
-        <v>283968.16557999997</v>
+        <v>199650.73254</v>
       </c>
       <c r="J449" t="s">
         <v>1103</v>
       </c>
       <c r="K449">
-        <v>5.9806615776000003</v>
+        <v>5.7391688239</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
@@ -20682,13 +20720,13 @@
         <v>1.6544145595999999</v>
       </c>
       <c r="I450">
-        <v>413.5003054</v>
+        <v>47.774669975000002</v>
       </c>
       <c r="J450" t="s">
         <v>1109</v>
       </c>
       <c r="K450">
-        <v>0.86106870228999999</v>
+        <v>0.60401741817999999</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
@@ -20718,13 +20756,13 @@
         <v>1.6544145595999999</v>
       </c>
       <c r="I451">
-        <v>482.61072522000001</v>
+        <v>253.33763253000001</v>
       </c>
       <c r="J451" t="s">
         <v>1109</v>
       </c>
       <c r="K451">
-        <v>0.40305343511000002</v>
+        <v>0.34515281039000001</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
@@ -20754,13 +20792,13 @@
         <v>0.50645168920000005</v>
       </c>
       <c r="I452">
-        <v>141135.27630999999</v>
+        <v>197670.97506</v>
       </c>
       <c r="J452" t="s">
         <v>1107</v>
       </c>
       <c r="K452">
-        <v>1.9847328244</v>
+        <v>2.1170710171999998</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
@@ -20790,13 +20828,13 @@
         <v>5.3355196241999998</v>
       </c>
       <c r="I453">
-        <v>1430.4266201</v>
+        <v>1875.3952978</v>
       </c>
       <c r="J453" t="s">
         <v>1106</v>
       </c>
       <c r="K453">
-        <v>5.5776081424999999</v>
+        <v>5.3318082394999999</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
@@ -20826,13 +20864,13 @@
         <v>3.5556732977999999</v>
       </c>
       <c r="I454">
-        <v>237185.48123999999</v>
+        <v>264538.55241</v>
       </c>
       <c r="J454" t="s">
         <v>1106</v>
       </c>
       <c r="K454">
-        <v>5.7404580152999998</v>
+        <v>5.6789677523000002</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
@@ -20853,7 +20891,7 @@
         <v>1011</v>
       </c>
       <c r="F455">
-        <v>5.32738252E-2</v>
+        <v>4.2010640394000001E-2</v>
       </c>
       <c r="G455">
         <v>0.17306027497000001</v>
@@ -20886,7 +20924,7 @@
         <v>1012</v>
       </c>
       <c r="F456">
-        <v>5.8601207879999999E-2</v>
+        <v>4.6211704497000003E-2</v>
       </c>
       <c r="G456">
         <v>0.17306027497000001</v>
@@ -20895,13 +20933,13 @@
         <v>0.70169328247999996</v>
       </c>
       <c r="I456">
-        <v>9458.5628037999995</v>
+        <v>11319.350553</v>
       </c>
       <c r="J456" t="s">
         <v>1115</v>
       </c>
       <c r="K456">
-        <v>1.3720101781</v>
+        <v>1.4107117773</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
@@ -20931,13 +20969,13 @@
         <v>0.12234343356000001</v>
       </c>
       <c r="I457">
-        <v>72729.907957000003</v>
+        <v>20416.799002</v>
       </c>
       <c r="J457" t="s">
         <v>1107</v>
       </c>
       <c r="K457">
-        <v>0.10788804070999999</v>
+        <v>8.8294904982999994E-2</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
@@ -20967,13 +21005,13 @@
         <v>1.8731760727</v>
       </c>
       <c r="I458">
-        <v>28304.498329999999</v>
+        <v>20427.123319999999</v>
       </c>
       <c r="J458" t="s">
         <v>1106</v>
       </c>
       <c r="K458">
-        <v>1.3374045802000001</v>
+        <v>1.2642225032000001</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
@@ -21003,13 +21041,13 @@
         <v>1.6290355851</v>
       </c>
       <c r="I459">
-        <v>34810.553250999998</v>
+        <v>37217.526259999999</v>
       </c>
       <c r="J459" t="s">
         <v>1102</v>
       </c>
       <c r="K459">
-        <v>1.9012722646</v>
+        <v>1.8782734333</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
@@ -21039,13 +21077,13 @@
         <v>2.6748587419000001</v>
       </c>
       <c r="I460">
-        <v>500068.08130000002</v>
+        <v>507524.65164</v>
       </c>
       <c r="J460" t="s">
         <v>1104</v>
       </c>
       <c r="K460">
-        <v>3.696692112</v>
+        <v>3.3752734132</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
@@ -21075,13 +21113,13 @@
         <v>0.84472913430999996</v>
       </c>
       <c r="I461">
-        <v>104836.94538</v>
+        <v>82717.432656000004</v>
       </c>
       <c r="J461" t="s">
         <v>1107</v>
       </c>
       <c r="K461">
-        <v>1.5979643766</v>
+        <v>1.5431541348</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
@@ -21111,13 +21149,13 @@
         <v>2.3576849034</v>
       </c>
       <c r="I462">
-        <v>223276.61092000001</v>
+        <v>197994.65080999999</v>
       </c>
       <c r="J462" t="s">
         <v>1101</v>
       </c>
       <c r="K462">
-        <v>3.9287531806999998</v>
+        <v>3.9451768908</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
@@ -21147,13 +21185,13 @@
         <v>1.6054478190000001</v>
       </c>
       <c r="I463">
-        <v>238974.95824000001</v>
+        <v>170005.52640999999</v>
       </c>
       <c r="J463" t="s">
         <v>1106</v>
       </c>
       <c r="K463">
-        <v>5.0910941475999998</v>
+        <v>4.9083940360999998</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
@@ -21216,7 +21254,7 @@
         <v>4.7266698427999998</v>
       </c>
       <c r="I465">
-        <v>9.9110552704000003</v>
+        <v>6.2054323991000002</v>
       </c>
       <c r="J465" t="s">
         <v>1106</v>
@@ -21249,7 +21287,7 @@
         <v>4.7266698427999998</v>
       </c>
       <c r="I466">
-        <v>5.5843738662</v>
+        <v>0</v>
       </c>
       <c r="J466" t="s">
         <v>1106</v>
@@ -21276,13 +21314,13 @@
         <v>0</v>
       </c>
       <c r="I467">
-        <v>2253.1670008999999</v>
+        <v>1124.0056503000001</v>
       </c>
       <c r="J467" t="s">
         <v>1109</v>
       </c>
       <c r="K467">
-        <v>0.24223918575</v>
+        <v>0.19665683381999999</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
@@ -21312,7 +21350,7 @@
         <v>0.39041569948999999</v>
       </c>
       <c r="I468">
-        <v>0</v>
+        <v>0.62662974268000005</v>
       </c>
       <c r="J468" t="s">
         <v>1106</v>
@@ -21345,7 +21383,7 @@
         <v>0.39041569948999999</v>
       </c>
       <c r="I469">
-        <v>1.6753397087999999</v>
+        <v>0.33575225889999999</v>
       </c>
       <c r="J469" t="s">
         <v>1106</v>
@@ -21564,13 +21602,13 @@
         <v>6.4681967636</v>
       </c>
       <c r="I476">
-        <v>810486.26578000002</v>
+        <v>870718.94166000001</v>
       </c>
       <c r="J476" t="s">
         <v>1119</v>
       </c>
       <c r="K476">
-        <v>10.770483459999999</v>
+        <v>11.307767944</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
@@ -21600,13 +21638,13 @@
         <v>1.9764133199</v>
       </c>
       <c r="I477">
-        <v>7220.2378147999998</v>
+        <v>14515.153592999999</v>
       </c>
       <c r="J477" t="s">
         <v>1106</v>
       </c>
       <c r="K477">
-        <v>0.87938931298</v>
+        <v>1.5652278610999999</v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
@@ -21636,13 +21674,13 @@
         <v>1.2853892775</v>
       </c>
       <c r="I478">
-        <v>6370.9451962000003</v>
+        <v>6217.4878024</v>
       </c>
       <c r="J478" t="s">
         <v>1102</v>
       </c>
       <c r="K478">
-        <v>2.4875318065999998</v>
+        <v>2.3438283867999998</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
@@ -21672,13 +21710,13 @@
         <v>1.2853892775</v>
       </c>
       <c r="I479">
-        <v>12161.365965999999</v>
+        <v>13607.753576999999</v>
       </c>
       <c r="J479" t="s">
         <v>1102</v>
       </c>
       <c r="K479">
-        <v>2.5139949109000002</v>
+        <v>2.3799490298000001</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
@@ -21708,13 +21746,13 @@
         <v>1.2853892775</v>
       </c>
       <c r="I480">
-        <v>223902.92952999999</v>
+        <v>243330.41961000001</v>
       </c>
       <c r="J480" t="s">
         <v>1102</v>
       </c>
       <c r="K480">
-        <v>7.5114503816999996</v>
+        <v>7.1037264462999996</v>
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
@@ -21744,13 +21782,13 @@
         <v>1.7473766839</v>
       </c>
       <c r="I481">
-        <v>1033.4927789999999</v>
+        <v>760.14898789999995</v>
       </c>
       <c r="J481" t="s">
         <v>1104</v>
       </c>
       <c r="K481">
-        <v>2.9618320611</v>
+        <v>2.8394838761000001</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
@@ -21780,13 +21818,13 @@
         <v>1.7473766839</v>
       </c>
       <c r="I482">
-        <v>19255.747772999999</v>
+        <v>16012.828785</v>
       </c>
       <c r="J482" t="s">
         <v>1104</v>
       </c>
       <c r="K482">
-        <v>2.9699745546999998</v>
+        <v>2.8274436617999998</v>
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
@@ -21816,13 +21854,13 @@
         <v>0.34029479252</v>
       </c>
       <c r="I483">
-        <v>2894.8901157999999</v>
+        <v>2768.9775365</v>
       </c>
       <c r="J483" t="s">
         <v>1114</v>
       </c>
       <c r="K483">
-        <v>0.14452926209</v>
+        <v>0.1866233219</v>
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
@@ -21843,7 +21881,7 @@
         <v>1040</v>
       </c>
       <c r="F484">
-        <v>0</v>
+        <v>3.0070921986000001E-2</v>
       </c>
       <c r="G484">
         <v>0.14799508018999999</v>
@@ -21852,13 +21890,13 @@
         <v>1.0944850107999999</v>
       </c>
       <c r="I484">
-        <v>2124.1903689999999</v>
+        <v>2017.8962776999999</v>
       </c>
       <c r="J484" t="s">
         <v>1106</v>
       </c>
       <c r="K484">
-        <v>0.70693531319000003</v>
+        <v>0.65017157304999995</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
@@ -21888,13 +21926,13 @@
         <v>1.6042907192</v>
       </c>
       <c r="I485">
-        <v>1393.3265266000001</v>
+        <v>786.79217072999995</v>
       </c>
       <c r="J485" t="s">
         <v>1110</v>
       </c>
       <c r="K485">
-        <v>0.67175572519000004</v>
+        <v>0.56990347762000004</v>
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
@@ -21924,13 +21962,13 @@
         <v>2.4820043977999999</v>
       </c>
       <c r="I486">
-        <v>28711.392891</v>
+        <v>15385.827737</v>
       </c>
       <c r="J486" t="s">
         <v>1107</v>
       </c>
       <c r="K486">
-        <v>5.2030534351000002</v>
+        <v>5.3799690968</v>
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
@@ -21990,7 +22028,7 @@
         <v>-806.98928087000002</v>
       </c>
       <c r="I488">
-        <v>0</v>
+        <v>0.37054135972000002</v>
       </c>
       <c r="J488" t="s">
         <v>1109</v>
@@ -22023,13 +22061,13 @@
         <v>-806.98928087000002</v>
       </c>
       <c r="I489">
-        <v>283.28509444000002</v>
+        <v>1112.9344262</v>
       </c>
       <c r="J489" t="s">
         <v>1109</v>
       </c>
       <c r="K489">
-        <v>5.6590330789000003</v>
+        <v>7.9264744246000003</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
@@ -22092,7 +22130,7 @@
         <v>19.018717059</v>
       </c>
       <c r="I491">
-        <v>5.3654998044999997</v>
+        <v>12.379637682</v>
       </c>
       <c r="J491" t="s">
         <v>1104</v>
@@ -22125,10 +22163,13 @@
         <v>3.6684706516999999</v>
       </c>
       <c r="I492">
-        <v>66.708172124000001</v>
+        <v>94.330067283999995</v>
       </c>
       <c r="J492" t="s">
         <v>1112</v>
+      </c>
+      <c r="K492">
+        <v>3.0682479480999998</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
@@ -22158,13 +22199,13 @@
         <v>3.6684706516999999</v>
       </c>
       <c r="I493">
-        <v>273.04766301000001</v>
+        <v>213.65587787999999</v>
       </c>
       <c r="J493" t="s">
         <v>1112</v>
       </c>
       <c r="K493">
-        <v>2.3776081425000002</v>
+        <v>2.1451648506000001</v>
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
@@ -22185,7 +22226,7 @@
         <v>1050</v>
       </c>
       <c r="F494">
-        <v>0.41875305856</v>
+        <v>0.47026809856000001</v>
       </c>
       <c r="G494">
         <v>0.54709114393000002</v>
@@ -22194,13 +22235,13 @@
         <v>8.3504309502999998</v>
       </c>
       <c r="I494">
-        <v>446086.14130000002</v>
+        <v>495964.64192999998</v>
       </c>
       <c r="J494" t="s">
         <v>1112</v>
       </c>
       <c r="K494">
-        <v>10.422391856999999</v>
+        <v>10.932514597999999</v>
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
@@ -22230,13 +22271,13 @@
         <v>1.4524367143000001</v>
       </c>
       <c r="I495">
-        <v>242411.00575000001</v>
+        <v>107299.12491</v>
       </c>
       <c r="J495" t="s">
         <v>1110</v>
       </c>
       <c r="K495">
-        <v>2.1109414757999998</v>
+        <v>2.1692452792000001</v>
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
@@ -22266,13 +22307,13 @@
         <v>1.4720253091</v>
       </c>
       <c r="I496">
-        <v>4469.0624440000001</v>
+        <v>4001.4011301</v>
       </c>
       <c r="J496" t="s">
         <v>1106</v>
       </c>
       <c r="K496">
-        <v>3.3852417303000002</v>
+        <v>3.3612264965</v>
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
@@ -22302,13 +22343,10 @@
         <v>-16.871373592000001</v>
       </c>
       <c r="I497">
-        <v>31.784995614</v>
+        <v>2.2249255097999998</v>
       </c>
       <c r="J497" t="s">
         <v>1109</v>
-      </c>
-      <c r="K497">
-        <v>2.4427480915999999</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
@@ -22338,13 +22376,13 @@
         <v>-16.871373592000001</v>
       </c>
       <c r="I498">
-        <v>319.14619807000003</v>
+        <v>95.201753977999999</v>
       </c>
       <c r="J498" t="s">
         <v>1109</v>
       </c>
       <c r="K498">
-        <v>0.74910941476000004</v>
+        <v>0.54180964421</v>
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
@@ -22374,13 +22412,13 @@
         <v>2.1098285216999999</v>
       </c>
       <c r="I499">
-        <v>409342.45620999997</v>
+        <v>500112.48946000001</v>
       </c>
       <c r="J499" t="s">
         <v>1112</v>
       </c>
       <c r="K499">
-        <v>3.5664122137000001</v>
+        <v>3.6461782352999998</v>
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
@@ -22410,13 +22448,13 @@
         <v>0.45294509562000002</v>
       </c>
       <c r="I500">
-        <v>1521.6747237</v>
+        <v>1543.4725295999999</v>
       </c>
       <c r="J500" t="s">
         <v>1106</v>
       </c>
       <c r="K500">
-        <v>0.43358778626</v>
+        <v>0.39933377480999999</v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
@@ -22446,13 +22484,13 @@
         <v>1.5585740588999999</v>
       </c>
       <c r="I501">
-        <v>378162.02172000002</v>
+        <v>557117.79857999994</v>
       </c>
       <c r="J501" t="s">
         <v>1114</v>
       </c>
       <c r="K501">
-        <v>6.2860050890999997</v>
+        <v>6.1585696225</v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
@@ -22482,13 +22520,13 @@
         <v>0.48875107843999999</v>
       </c>
       <c r="I502">
-        <v>9195.3205961000003</v>
+        <v>5340.7249916999999</v>
       </c>
       <c r="J502" t="s">
         <v>1108</v>
       </c>
       <c r="K502">
-        <v>2.8559796438</v>
+        <v>2.6929946020000002</v>
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
@@ -22518,13 +22556,13 @@
         <v>5.4485967307000003</v>
       </c>
       <c r="I503">
-        <v>307.36367307</v>
+        <v>466.24728671999998</v>
       </c>
       <c r="J503" t="s">
         <v>1102</v>
       </c>
       <c r="K503">
-        <v>7.2264631042999996</v>
+        <v>6.5920173378999998</v>
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
@@ -22554,13 +22592,13 @@
         <v>5.4485967307000003</v>
       </c>
       <c r="I504">
-        <v>225850.62046999999</v>
+        <v>231225.94005</v>
       </c>
       <c r="J504" t="s">
         <v>1102</v>
       </c>
       <c r="K504">
-        <v>5.3170483461</v>
+        <v>5.1772921558</v>
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
@@ -22623,7 +22661,7 @@
         <v>1.1598517290000001</v>
       </c>
       <c r="I506">
-        <v>11.293726051</v>
+        <v>11.47713787</v>
       </c>
       <c r="J506" t="s">
         <v>1106</v>
@@ -22656,13 +22694,13 @@
         <v>1.4607625143</v>
       </c>
       <c r="I507">
-        <v>14994.618648</v>
+        <v>8680.2071090000009</v>
       </c>
       <c r="J507" t="s">
         <v>1110</v>
       </c>
       <c r="K507">
-        <v>0.98320610686999999</v>
+        <v>0.96121044288000002</v>
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
@@ -22692,13 +22730,13 @@
         <v>3.9508382144</v>
       </c>
       <c r="I508">
-        <v>731.10202390999996</v>
+        <v>756.78190538000001</v>
       </c>
       <c r="J508" t="s">
         <v>1107</v>
       </c>
       <c r="K508">
-        <v>0.84681933842000001</v>
+        <v>0.79264744245999996</v>
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
@@ -22728,13 +22766,13 @@
         <v>4.5300276965000004</v>
       </c>
       <c r="I509">
-        <v>60903.227741000002</v>
+        <v>52356.977680000004</v>
       </c>
       <c r="J509" t="s">
         <v>1115</v>
       </c>
       <c r="K509">
-        <v>5.2946564885000003</v>
+        <v>5.1371581081000004</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
@@ -22755,7 +22793,7 @@
         <v>1066</v>
       </c>
       <c r="F510">
-        <v>6.9666464151999993E-2</v>
+        <v>5.0184679620999997E-2</v>
       </c>
       <c r="G510">
         <v>0.39461366014999999</v>
@@ -22764,13 +22802,13 @@
         <v>2.3159642943000001</v>
       </c>
       <c r="I510">
-        <v>601763.85059000005</v>
+        <v>689303.91688000003</v>
       </c>
       <c r="J510" t="s">
         <v>1100</v>
       </c>
       <c r="K510">
-        <v>5.7628498728000004</v>
+        <v>5.8916782051999999</v>
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
@@ -22800,13 +22838,13 @@
         <v>0.59531191881000001</v>
       </c>
       <c r="I511">
-        <v>404.47450200999998</v>
+        <v>367.16899885999999</v>
       </c>
       <c r="J511" t="s">
         <v>1106</v>
       </c>
       <c r="K511">
-        <v>0.57201017811999999</v>
+        <v>0.53378283466999998</v>
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
@@ -22827,7 +22865,7 @@
         <v>1068</v>
       </c>
       <c r="F512">
-        <v>3.0551974640999999E-2</v>
+        <v>4.1953200112000003E-2</v>
       </c>
       <c r="G512">
         <v>7.3192326934000004E-2</v>
@@ -22836,13 +22874,13 @@
         <v>0.61052601285999997</v>
       </c>
       <c r="I512">
-        <v>3556.9935965</v>
+        <v>3735.5844398999998</v>
       </c>
       <c r="J512" t="s">
         <v>1112</v>
       </c>
       <c r="K512">
-        <v>0.76188256065000004</v>
+        <v>0.82274797825000001</v>
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
@@ -22872,13 +22910,13 @@
         <v>5.4169665634999999</v>
       </c>
       <c r="I513">
-        <v>5322.3858163000004</v>
+        <v>1910.8635422</v>
       </c>
       <c r="J513" t="s">
         <v>1116</v>
       </c>
       <c r="K513">
-        <v>13.652926208</v>
+        <v>12.600084281000001</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
@@ -22908,7 +22946,7 @@
         <v>5.4169665634999999</v>
       </c>
       <c r="I514">
-        <v>58.762703856000002</v>
+        <v>27.112446594000001</v>
       </c>
       <c r="J514" t="s">
         <v>1116</v>
@@ -22941,13 +22979,13 @@
         <v>5.4169665634999999</v>
       </c>
       <c r="I515">
-        <v>48445.939977000002</v>
+        <v>40789.654580000002</v>
       </c>
       <c r="J515" t="s">
         <v>1116</v>
       </c>
       <c r="K515">
-        <v>14.503816793</v>
+        <v>13.278349688</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
@@ -23007,13 +23045,13 @@
         <v>3.8037064539999998</v>
       </c>
       <c r="I517">
-        <v>43041.843084</v>
+        <v>45175.761054000002</v>
       </c>
       <c r="J517" t="s">
         <v>1104</v>
       </c>
       <c r="K517">
-        <v>1.8361323155</v>
+        <v>2.1672385768</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
@@ -23043,13 +23081,13 @@
         <v>3.8037064539999998</v>
       </c>
       <c r="I518">
-        <v>459638.48956000002</v>
+        <v>599262.89720999997</v>
       </c>
       <c r="J518" t="s">
         <v>1104</v>
       </c>
       <c r="K518">
-        <v>1.9338422392000001</v>
+        <v>2.2214195413</v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
@@ -23079,7 +23117,7 @@
         <v>3.8037064539999998</v>
       </c>
       <c r="I519">
-        <v>1.9145051685000001</v>
+        <v>1.1747856782999999</v>
       </c>
       <c r="J519" t="s">
         <v>1104</v>
@@ -23112,13 +23150,13 @@
         <v>8.8259270365999996</v>
       </c>
       <c r="I520">
-        <v>8656468.9176000003</v>
+        <v>6692856.3142999997</v>
       </c>
       <c r="J520" t="s">
         <v>1113</v>
       </c>
       <c r="K520">
-        <v>14.147582697000001</v>
+        <v>13.442899282999999</v>
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
@@ -23148,13 +23186,13 @@
         <v>3.3863136208000002</v>
       </c>
       <c r="I521">
-        <v>46604.026689999999</v>
+        <v>30609.246557999999</v>
       </c>
       <c r="J521" t="s">
         <v>1106</v>
       </c>
       <c r="K521">
-        <v>4.3989821882999998</v>
+        <v>3.7505267594</v>
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
@@ -23184,13 +23222,13 @@
         <v>0.88864571582999996</v>
       </c>
       <c r="I522">
-        <v>221578.24015999999</v>
+        <v>211703.10675000001</v>
       </c>
       <c r="J522" t="s">
         <v>1106</v>
       </c>
       <c r="K522">
-        <v>1.6651399491000001</v>
+        <v>1.7518511829000001</v>
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
@@ -23220,13 +23258,13 @@
         <v>1.8104965470000001</v>
       </c>
       <c r="I523">
-        <v>1152.6428031999999</v>
+        <v>196.99284698</v>
       </c>
       <c r="J523" t="s">
         <v>1109</v>
       </c>
       <c r="K523">
-        <v>3.6234096692</v>
+        <v>2.8615576024</v>
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
@@ -23256,13 +23294,13 @@
         <v>2.4279090702000001</v>
       </c>
       <c r="I524">
-        <v>764206.92165999999</v>
+        <v>761680.35004000005</v>
       </c>
       <c r="J524" t="s">
         <v>1100</v>
       </c>
       <c r="K524">
-        <v>4.7287531807000001</v>
+        <v>5.1893323700999998</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
@@ -23292,13 +23330,13 @@
         <v>0.86762907291000002</v>
       </c>
       <c r="I525">
-        <v>21388.792375000001</v>
+        <v>17075.419317</v>
       </c>
       <c r="J525" t="s">
         <v>1101</v>
       </c>
       <c r="K525">
-        <v>1.5674300254</v>
+        <v>1.4568659321999999</v>
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
@@ -23328,13 +23366,13 @@
         <v>1.5933209618999999</v>
       </c>
       <c r="I526">
-        <v>383262.51360000001</v>
+        <v>247683.56836999999</v>
       </c>
       <c r="J526" t="s">
         <v>1108</v>
       </c>
       <c r="K526">
-        <v>7.1145038168000001</v>
+        <v>6.5619168020999998</v>
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
@@ -23364,13 +23402,13 @@
         <v>1.9526422047000001</v>
       </c>
       <c r="I527">
-        <v>46414.366153000003</v>
+        <v>52817.225653000001</v>
       </c>
       <c r="J527" t="s">
         <v>1108</v>
       </c>
       <c r="K527">
-        <v>2.2900763358999998</v>
+        <v>1.6956635161</v>
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
@@ -23400,13 +23438,13 @@
         <v>0.16858139777</v>
       </c>
       <c r="I528">
-        <v>6557.6669914000004</v>
+        <v>2825.7186338000001</v>
       </c>
       <c r="J528" t="s">
         <v>1110</v>
       </c>
       <c r="K528">
-        <v>0.96081424936000004</v>
+        <v>0.62809784681000003</v>
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
@@ -23436,13 +23474,13 @@
         <v>1.6172472706000001</v>
       </c>
       <c r="I529">
-        <v>65861.645170999996</v>
+        <v>81214.258144000007</v>
       </c>
       <c r="J529" t="s">
         <v>1109</v>
       </c>
       <c r="K529">
-        <v>3.7557251907999998</v>
+        <v>3.7224329260000002</v>
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
@@ -23472,13 +23510,13 @@
         <v>2.0292912671000001</v>
       </c>
       <c r="I530">
-        <v>563.02057124999999</v>
+        <v>344.98133415000001</v>
       </c>
       <c r="J530" t="s">
         <v>1108</v>
       </c>
       <c r="K530">
-        <v>0.80203562341000001</v>
+        <v>0.76254690667000002</v>
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
@@ -23499,7 +23537,7 @@
         <v>1087</v>
       </c>
       <c r="F531">
-        <v>0.12297171571</v>
+        <v>0.13922847163999999</v>
       </c>
       <c r="G531">
         <v>0.24651708357999999</v>
@@ -23508,13 +23546,13 @@
         <v>0.76746946715999997</v>
       </c>
       <c r="I531">
-        <v>787020.76977000001</v>
+        <v>982330.06146999996</v>
       </c>
       <c r="J531" t="s">
         <v>1105</v>
       </c>
       <c r="K531">
-        <v>6.7521628499000004</v>
+        <v>7.3625910541000001</v>
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
@@ -23544,13 +23582,13 @@
         <v>0.4923357303</v>
       </c>
       <c r="I532">
-        <v>480.93404670000001</v>
+        <v>300.02968034000003</v>
       </c>
       <c r="J532" t="s">
         <v>1108</v>
       </c>
       <c r="K532">
-        <v>0.25648854962000001</v>
+        <v>0.24481769109000001</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
@@ -23613,13 +23651,13 @@
         <v>-1.0077607124000001</v>
       </c>
       <c r="I534">
-        <v>124.2366031</v>
+        <v>51.434457107999997</v>
       </c>
       <c r="J534" t="s">
         <v>1115</v>
       </c>
       <c r="K534">
-        <v>1.5430025445</v>
+        <v>1.1297734433</v>
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
@@ -23649,13 +23687,13 @@
         <v>0.34022425545000001</v>
       </c>
       <c r="I535">
-        <v>115.14604405</v>
+        <v>40.854434359999999</v>
       </c>
       <c r="J535" t="s">
         <v>1118</v>
       </c>
       <c r="K535">
-        <v>0.84478371501000005</v>
+        <v>0.82676138302000002</v>
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
@@ -23685,13 +23723,13 @@
         <v>0.34022425545000001</v>
       </c>
       <c r="I536">
-        <v>219.52502440000001</v>
+        <v>192.81697997000001</v>
       </c>
       <c r="J536" t="s">
         <v>1118</v>
       </c>
       <c r="K536">
-        <v>0.90585241729999999</v>
+        <v>0.91304958562000005</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
@@ -23721,13 +23759,13 @@
         <v>1.0433913161999999</v>
       </c>
       <c r="I537">
-        <v>24340.762020999999</v>
+        <v>24976.520898999999</v>
       </c>
       <c r="J537" t="s">
         <v>1107</v>
       </c>
       <c r="K537">
-        <v>3.3567430025</v>
+        <v>3.4615616158</v>
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
@@ -23757,13 +23795,13 @@
         <v>0.57352859436000003</v>
       </c>
       <c r="I538">
-        <v>13576.394177</v>
+        <v>7940.8678344</v>
       </c>
       <c r="J538" t="s">
         <v>1103</v>
       </c>
       <c r="K538">
-        <v>1.341475827</v>
+        <v>1.2461621816999999</v>
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
@@ -23784,7 +23822,7 @@
         <v>1095</v>
       </c>
       <c r="F539">
-        <v>0.16444837692</v>
+        <v>0.20628009324999999</v>
       </c>
       <c r="G539">
         <v>0.57944031364000004</v>
@@ -23793,7 +23831,7 @@
         <v>3.6736914020000002</v>
       </c>
       <c r="I539">
-        <v>4.1764068111999997</v>
+        <v>25.521133425999999</v>
       </c>
       <c r="J539" t="s">
         <v>1108</v>
@@ -23817,7 +23855,7 @@
         <v>1096</v>
       </c>
       <c r="F540">
-        <v>0.18089321542</v>
+        <v>0.22690810379000001</v>
       </c>
       <c r="G540">
         <v>0.57944031364000004</v>
@@ -23826,13 +23864,13 @@
         <v>3.6736914020000002</v>
       </c>
       <c r="I540">
-        <v>124.08676636</v>
+        <v>390.23308566999998</v>
       </c>
       <c r="J540" t="s">
         <v>1108</v>
       </c>
       <c r="K540">
-        <v>5.4303097711000001</v>
+        <v>5.0167559648999998</v>
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
@@ -23892,13 +23930,13 @@
         <v>2.2223027156000001</v>
       </c>
       <c r="I542">
-        <v>304283.72385000001</v>
+        <v>255917.13493</v>
       </c>
       <c r="J542" t="s">
         <v>1106</v>
       </c>
       <c r="K542">
-        <v>4.0244274809</v>
+        <v>4.0856460578</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
@@ -23928,13 +23966,13 @@
         <v>0.99668957639</v>
       </c>
       <c r="I543">
-        <v>35504.634774999999</v>
+        <v>21966.154420999999</v>
       </c>
       <c r="J543" t="s">
         <v>1106</v>
       </c>
       <c r="K543">
-        <v>1.0625954198000001</v>
+        <v>0.83679489495000003</v>
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">

--- a/Database/Add In Economatica.xlsx
+++ b/Database/Add In Economatica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\ERP\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB250FD7-1A01-479C-AF92-506F70B2485A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF30D471-86EA-47D3-8594-31C21167EB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B09459F0-08DB-4757-9381-54BC257394C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B09459F0-08DB-4757-9381-54BC257394C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Acoes Bovespa" sheetId="3" r:id="rId1"/>
@@ -18,17 +18,17 @@
     <sheet name="DRE" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ECO_RANGE_ID0c9d55d3a60349f795f95c3ea8a2e17a" localSheetId="0" hidden="1">'Acoes Bovespa'!$K$5:$K$532</definedName>
-    <definedName name="_ECO_RANGE_ID528d96841cba43069f85d16e65b05d8d" localSheetId="0" hidden="1">'Acoes Bovespa'!$I$5:$I$532</definedName>
-    <definedName name="_ECO_RANGE_ID7df888f635f44c2ba647698c906972f8" localSheetId="0" hidden="1">'Acoes Bovespa'!$D$5:$D$532</definedName>
-    <definedName name="_ECO_RANGE_ID88b9d86a29d84496b337fc34575f0fcd" localSheetId="0" hidden="1">'Acoes Bovespa'!$H$5:$H$532</definedName>
-    <definedName name="_ECO_RANGE_ID89287c110b4649f3bf2a6af88caaa5de" localSheetId="0" hidden="1">'Acoes Bovespa'!$C$5:$C$532</definedName>
-    <definedName name="_ECO_RANGE_ID98926b1c3f3146058f6a726f9a484f38" localSheetId="1" hidden="1">TBond!$B$1</definedName>
-    <definedName name="_ECO_RANGE_ID9c1b5833f90d4b6c88241981224c3660" localSheetId="1" hidden="1">TBond!$A$2:$B$7721</definedName>
-    <definedName name="_ECO_RANGE_ID9e212cb47f4940ba90d4f61d77a77c93" localSheetId="0" hidden="1">'Acoes Bovespa'!$J$5:$J$532</definedName>
-    <definedName name="_ECO_RANGE_IDa57e6d91c2ca44aeaf571b93e0b14494" localSheetId="0" hidden="1">'Acoes Bovespa'!$E$5:$E$532</definedName>
-    <definedName name="_ECO_RANGE_IDcce9ec92486e437c863a4b93241c1597" localSheetId="0" hidden="1">'Acoes Bovespa'!$G$5:$G$532</definedName>
-    <definedName name="_ECO_RANGE_IDf426ed1c574644aa99247c938e49d9ac" localSheetId="0" hidden="1">'Acoes Bovespa'!$F$5:$F$532</definedName>
+    <definedName name="_ECO_RANGE_ID055b089e4cd144ecb5b8bd60c9981d01" localSheetId="1" hidden="1">TBond!$B$1</definedName>
+    <definedName name="_ECO_RANGE_ID1a68a1d1385d4a8b83f751c79d8475bd" localSheetId="0" hidden="1">'Acoes Bovespa'!$K$5:$K$532</definedName>
+    <definedName name="_ECO_RANGE_ID2380a3cb2e3644f4b87faddd3888f3f5" localSheetId="1" hidden="1">TBond!$A$2:$B$7742</definedName>
+    <definedName name="_ECO_RANGE_ID67d65d2b2bae47df837b3c615608d0d1" localSheetId="0" hidden="1">'Acoes Bovespa'!$H$5:$H$532</definedName>
+    <definedName name="_ECO_RANGE_ID9df2e8642faa4ceca0bac691e4878384" localSheetId="0" hidden="1">'Acoes Bovespa'!$E$5:$E$532</definedName>
+    <definedName name="_ECO_RANGE_IDac4387020a624ea3ba9ae02c6dc9b369" localSheetId="0" hidden="1">'Acoes Bovespa'!$J$5:$J$532</definedName>
+    <definedName name="_ECO_RANGE_IDdd81cdb49c364f408dfbc27594764686" localSheetId="0" hidden="1">'Acoes Bovespa'!$I$5:$I$532</definedName>
+    <definedName name="_ECO_RANGE_IDe74d79c8ca804f58a61f63639945a706" localSheetId="0" hidden="1">'Acoes Bovespa'!$F$5:$F$532</definedName>
+    <definedName name="_ECO_RANGE_IDeb656a0c20f24c88af83b9679e72880f" localSheetId="0" hidden="1">'Acoes Bovespa'!$G$5:$G$532</definedName>
+    <definedName name="_ECO_RANGE_IDed1a7b672f98476888c87209a1e655a7" localSheetId="0" hidden="1">'Acoes Bovespa'!$D$5:$D$532</definedName>
+    <definedName name="_ECO_RANGE_IDf281e66ed21d48518bbdf0314a63f939" localSheetId="0" hidden="1">'Acoes Bovespa'!$C$5:$C$532</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Acoes Bovespa'!$A$4:$K$565</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4701,76 +4701,74 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_eco_1571690be01441bd84c89ec70ec3d3e3">
+    <main first="rtdsrv_eco_8bb7d40ce4924fc685169f94c218d454">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>5b579386-f824-48d3-9f4e-d9358db1f813</stp>
+        <stp>624efab9-f635-4401-93df-b29f7d9523dd</stp>
+        <tr r="D4" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_eco_8bb7d40ce4924fc685169f94c218d454">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>482152c5-2b07-4348-b47d-e30bbfcfef00</stp>
+        <tr r="E4" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>8310e3b9-671e-4776-9b38-a5e2271e7291</stp>
+        <tr r="F4" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>636f3baa-2a52-43eb-b470-256157993516</stp>
         <tr r="K4" s="3"/>
       </tp>
       <tp>
-        <v>3</v>
+        <v>2</v>
         <stp/>
-        <stp>be3c6c23-64ad-46a5-b8e3-2c0cffb2d00b</stp>
+        <stp>bb7ca7bc-cedc-4585-836f-51c717cad309</stp>
         <tr r="A1" s="5"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_1571690be01441bd84c89ec70ec3d3e3">
+    <main first="rtdsrv_eco_8bb7d40ce4924fc685169f94c218d454">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>ee69220b-70db-4543-921c-e1bc77a264f8</stp>
-        <tr r="H4" s="3"/>
+        <stp>184c9058-b000-4cbc-a0cd-747582246c2d</stp>
+        <tr r="J4" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_1571690be01441bd84c89ec70ec3d3e3">
+    <main first="rtdsrv_eco_8bb7d40ce4924fc685169f94c218d454">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>4d54c8d2-90dc-4478-8cc0-e277c015fd13</stp>
+        <stp>d92a25fb-6834-48cc-9723-8dfa4e9bfbae</stp>
         <tr r="I4" s="3"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>c5335024-b582-4a81-b10c-b8417758c253</stp>
-        <tr r="E4" s="3"/>
+        <stp>d8ecee6d-4d38-470b-b45b-947e88d5cee6</stp>
+        <tr r="G4" s="3"/>
       </tp>
     </main>
-    <main first="rtdsrv_eco_1571690be01441bd84c89ec70ec3d3e3">
+    <main first="rtdsrv_eco_8bb7d40ce4924fc685169f94c218d454">
       <tp>
         <v>2</v>
         <stp/>
-        <stp>02b01dec-344a-4255-8a75-3b23923b3440</stp>
-        <tr r="C4" s="3"/>
+        <stp>a8b0d97d-33cf-4a90-b5f0-e09d9ac84e20</stp>
+        <tr r="H4" s="3"/>
       </tp>
       <tp>
         <v>2</v>
         <stp/>
-        <stp>08dc1327-f851-401b-970e-ef7b1a3c75f4</stp>
-        <tr r="D4" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_1571690be01441bd84c89ec70ec3d3e3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>a95485cb-55f2-4e1f-8b4f-352b8f813102</stp>
-        <tr r="J4" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_eco_1571690be01441bd84c89ec70ec3d3e3">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>63c750de-9256-47fd-b491-b92efc2984e3</stp>
-        <tr r="G4" s="3"/>
-      </tp>
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>3c28dad5-eb80-475c-b475-23183179a8ff</stp>
-        <tr r="F4" s="3"/>
+        <stp>77f426b8-3f63-47ac-abd3-719c49400cea</stp>
+        <tr r="C4" s="3"/>
       </tp>
     </main>
   </volType>
@@ -5076,7 +5074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B1C275-474F-4760-AE72-49240951837A}">
   <dimension ref="A1:L565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B532" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:K532"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5098,7 +5098,7 @@
         <v>532</v>
       </c>
       <c r="B1" s="6">
-        <v>45487</v>
+        <v>45518</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="B2">
         <f>MONTH(B1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>511</v>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="F3" s="1">
         <f>EOMONTH(B1,0)</f>
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="G3" t="str">
         <f>B3</f>
@@ -5153,12 +5153,12 @@
       </c>
       <c r="I3" s="1">
         <f>F3</f>
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
         <f>F3-L3</f>
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="L3" s="7">
         <v>0</v>
@@ -5171,41 +5171,41 @@
       <c r="B4" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C4" s="3" t="str" cm="1">
+      <c r="C4" s="3" t="e" cm="1">
         <f t="array" ref="C4">_xll.ECONOMATICA(_xll.EcoRange(1,-1,MAX(A:A),-1),"Name",,,,,,,"false","true")</f>
-        <v>Name</v>
-      </c>
-      <c r="D4" s="3" t="str" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="3" t="e" cm="1">
         <f t="array" ref="D4">_xll.ECONOMATICA(_xll.EcoRange(1,-2,MAX(A:A),-2),"Class",,,,,,,"false","true")</f>
-        <v>Class</v>
-      </c>
-      <c r="E4" s="3" t="str" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="3" t="e" cm="1">
         <f t="array" ref="E4">_xll.ECONOMATICA(_xll.EcoRange(1,-3,MAX(A:A),-3),"Ticker",,,,,,,"false","true")</f>
-        <v>Ticker</v>
-      </c>
-      <c r="F4" s="3" t="str" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" s="3" t="e" cm="1">
         <f t="array" ref="F4">_xll.ECONOMATICA(_xll.EcoRange(1,-COLUMN()+COLUMN($B$4),MAX(A:A),-COLUMN()+COLUMN($B$4)),"Divid per Share","1Y",F3,,,"USD",,"false","true")</f>
-        <v>Divid per Share 31Jul24 1 years In US Dollars</v>
-      </c>
-      <c r="G4" s="3" t="str" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" s="3" t="e" cm="1">
         <f t="array" ref="G4">_xll.ECONOMATICA(_xll.EcoRange(1,-COLUMN()+COLUMN($B$4),MAX(A:A),-COLUMN()+COLUMN($B$4)),"EPS","12M",G3,,,"USD",,"false","true")</f>
-        <v xml:space="preserve"> EPS  &lt; Mar 2024  In US Dollars  of 12 months  consolid:yes*  adj by CA's</v>
-      </c>
-      <c r="H4" s="3" t="str" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H4" s="3" t="e" cm="1">
         <f t="array" ref="H4">_xll.ECONOMATICA(_xll.EcoRange(1,-COLUMN()+COLUMN($B$4),MAX(A:A),-COLUMN()+COLUMN($B$4)),"BVperShare",,H3,,,"USD",,"false","true")</f>
-        <v xml:space="preserve"> BVperShare  &lt; Mar 2024  In US Dollars  consolid:yes*  adj by CA's</v>
-      </c>
-      <c r="I4" s="3" t="str" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" s="3" t="e" cm="1">
         <f t="array" ref="I4">_xll.ECONOMATICA(_xll.EcoRange(1,-COLUMN()+COLUMN($B$4),MAX(A:A),-COLUMN()+COLUMN($B$4)),"Volume$","1M",I3,,,"USD","THOUSANDS","false","true",,{"std.tec.caddip=true"})</f>
-        <v>Volume$ 31Jul24 1 months In US Dollars in thousands</v>
-      </c>
-      <c r="J4" s="3" t="str" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" s="3" t="e" cm="1">
         <f t="array" ref="J4">_xll.ECONOMATICA(_xll.EcoRange(1,-COLUMN()+COLUMN($B$4),MAX(A:A),-COLUMN()+COLUMN($B$4)),"Sector Economatica",,,,,,,"false","true")</f>
-        <v>Sector Economatica</v>
-      </c>
-      <c r="K4" s="3" t="str" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" s="3" t="e" cm="1">
         <f t="array" ref="K4">_xll.ECONOMATICA(_xll.EcoRange(1,-COLUMN()+COLUMN($B$4),MAX(A:A),-COLUMN()+COLUMN($B$4)),"Close",,K3,,,"USD",,"false","true")</f>
-        <v>Close 31Jul24 adj by CA's In US Dollars</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -5235,13 +5235,13 @@
         <v>4.3954195975000001</v>
       </c>
       <c r="I5">
-        <v>496882.07643999998</v>
+        <v>587611.2524</v>
       </c>
       <c r="J5" t="s">
         <v>1074</v>
       </c>
       <c r="K5">
-        <v>4.7791455466999997</v>
+        <v>4.6621406598000004</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -5271,13 +5271,13 @@
         <v>1.3802047741000001</v>
       </c>
       <c r="I6">
-        <v>33216.004638999999</v>
+        <v>59686.735890999997</v>
       </c>
       <c r="J6" t="s">
         <v>1075</v>
       </c>
       <c r="K6">
-        <v>1.8862259586000001</v>
+        <v>2.1162618011999998</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -5337,13 +5337,13 @@
         <v>5.2829832776999996</v>
       </c>
       <c r="I8">
-        <v>50006.645771000003</v>
+        <v>82318.405167000004</v>
       </c>
       <c r="J8" t="s">
         <v>1077</v>
       </c>
       <c r="K8">
-        <v>3.8890164427</v>
+        <v>4.1105335737999997</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -5373,13 +5373,13 @@
         <v>2.2421217903000001</v>
       </c>
       <c r="I9">
-        <v>39.885734759999998</v>
+        <v>1151.0688802</v>
       </c>
       <c r="J9" t="s">
         <v>1078</v>
       </c>
       <c r="K9">
-        <v>2.2023630808000001</v>
+        <v>2.3956012870999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -5409,13 +5409,13 @@
         <v>2.2421217903000001</v>
       </c>
       <c r="I10">
-        <v>858.95822849000001</v>
+        <v>3756.4429547999998</v>
       </c>
       <c r="J10" t="s">
         <v>1078</v>
       </c>
       <c r="K10">
-        <v>2.1741050139999998</v>
+        <v>2.3849934584999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -5445,13 +5445,13 @@
         <v>3.5871116119000002</v>
       </c>
       <c r="I11">
-        <v>5395.7414067999998</v>
+        <v>16908.207312999999</v>
       </c>
       <c r="J11" t="s">
         <v>1079</v>
       </c>
       <c r="K11">
-        <v>0.94311297928000004</v>
+        <v>2.1392454297999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -5481,13 +5481,13 @@
         <v>1.4612383405</v>
       </c>
       <c r="I12">
-        <v>170116.03641</v>
+        <v>128639.59748</v>
       </c>
       <c r="J12" t="s">
         <v>1076</v>
       </c>
       <c r="K12">
-        <v>1.9939598381999999</v>
+        <v>2.0243272869000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -5547,13 +5547,13 @@
         <v>0.82963583353000003</v>
       </c>
       <c r="I14">
-        <v>7.4053457924000003</v>
+        <v>16.829496893000002</v>
       </c>
       <c r="J14" t="s">
         <v>1076</v>
       </c>
       <c r="K14">
-        <v>1.2680807474</v>
+        <v>1.2640995721999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -5613,13 +5613,13 @@
         <v>1.0019027636</v>
       </c>
       <c r="I16">
-        <v>5871.4682732000001</v>
+        <v>1713.139799</v>
       </c>
       <c r="J16" t="s">
         <v>1075</v>
       </c>
       <c r="K16">
-        <v>0.24019356776</v>
+        <v>0.21746048584</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5649,13 +5649,10 @@
         <v>2.5703541812999999</v>
       </c>
       <c r="I17">
-        <v>10.720175845</v>
+        <v>15.117332201</v>
       </c>
       <c r="J17" t="s">
         <v>1080</v>
-      </c>
-      <c r="K17">
-        <v>1.5559598028999999</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5676,7 +5673,7 @@
         <v>563</v>
       </c>
       <c r="F18">
-        <v>0.12373815251</v>
+        <v>0.12265285757</v>
       </c>
       <c r="G18">
         <v>3.8438670745999999E-2</v>
@@ -5685,10 +5682,13 @@
         <v>2.5703541812999999</v>
       </c>
       <c r="I18">
-        <v>34.326194667000003</v>
+        <v>32.49331591</v>
       </c>
       <c r="J18" t="s">
         <v>1080</v>
+      </c>
+      <c r="K18">
+        <v>1.5239913723</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5718,13 +5718,10 @@
         <v>2.5703541812999999</v>
       </c>
       <c r="I19">
-        <v>9.1030155480000001</v>
+        <v>0.80088804080999998</v>
       </c>
       <c r="J19" t="s">
         <v>1080</v>
-      </c>
-      <c r="K19">
-        <v>1.5541936736999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5907,13 +5904,13 @@
         <v>1.6411367585000001</v>
       </c>
       <c r="I25">
-        <v>3854.3333367</v>
+        <v>2831.9142185999999</v>
       </c>
       <c r="J25" t="s">
         <v>1080</v>
       </c>
       <c r="K25">
-        <v>1.9851291923000001</v>
+        <v>2.8287542872999998</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5943,13 +5940,13 @@
         <v>3.3986954725</v>
       </c>
       <c r="I26">
-        <v>2721.3995383000001</v>
+        <v>2133.1396147999999</v>
       </c>
       <c r="J26" t="s">
         <v>1082</v>
       </c>
       <c r="K26">
-        <v>1.3864114021</v>
+        <v>1.3312824864999999</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5979,13 +5976,13 @@
         <v>5.1023107558999996</v>
       </c>
       <c r="I27">
-        <v>330861.03230000002</v>
+        <v>408229.72820000001</v>
       </c>
       <c r="J27" t="s">
         <v>1080</v>
       </c>
       <c r="K27">
-        <v>3.8572261175000002</v>
+        <v>4.0327428309000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -6015,13 +6012,13 @@
         <v>1.1200190539999999</v>
       </c>
       <c r="I28">
-        <v>418.87531099</v>
+        <v>312.28889514000002</v>
       </c>
       <c r="J28" t="s">
         <v>1083</v>
       </c>
       <c r="K28">
-        <v>1.4182017273</v>
+        <v>1.3860896008000001</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -6051,13 +6048,13 @@
         <v>1.1200190539999999</v>
       </c>
       <c r="I29">
-        <v>90392.149428999997</v>
+        <v>98107.857512999995</v>
       </c>
       <c r="J29" t="s">
         <v>1083</v>
       </c>
       <c r="K29">
-        <v>1.5188710902</v>
+        <v>1.3613380008</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -6087,10 +6084,13 @@
         <v>4.6157937099000002</v>
       </c>
       <c r="I30">
-        <v>599.16356717999997</v>
+        <v>613.89281388999996</v>
       </c>
       <c r="J30" t="s">
         <v>1077</v>
+      </c>
+      <c r="K30">
+        <v>8.2652664333000008</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -6120,13 +6120,13 @@
         <v>-7.8431687841000006E-2</v>
       </c>
       <c r="I31">
-        <v>97.541772941999994</v>
+        <v>243.00556136</v>
       </c>
       <c r="J31" t="s">
         <v>1084</v>
       </c>
       <c r="K31">
-        <v>0.67112908638000002</v>
+        <v>0.70895654326000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -6147,7 +6147,7 @@
         <v>577</v>
       </c>
       <c r="F32">
-        <v>7.7128221043000003E-2</v>
+        <v>8.0383250059999994E-2</v>
       </c>
       <c r="G32">
         <v>0.15120067126</v>
@@ -6156,13 +6156,13 @@
         <v>1.6044636886999999</v>
       </c>
       <c r="I32">
-        <v>371.25460227000002</v>
+        <v>309.45005127000002</v>
       </c>
       <c r="J32" t="s">
         <v>1076</v>
       </c>
       <c r="K32">
-        <v>1.8350082125</v>
+        <v>1.9005692867999999</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -6183,7 +6183,7 @@
         <v>578</v>
       </c>
       <c r="F33">
-        <v>7.7128221043000003E-2</v>
+        <v>8.0383250059999994E-2</v>
       </c>
       <c r="G33">
         <v>0.15120067126</v>
@@ -6192,13 +6192,13 @@
         <v>1.6044636886999999</v>
       </c>
       <c r="I33">
-        <v>505.02044996000001</v>
+        <v>530.52524430999995</v>
       </c>
       <c r="J33" t="s">
         <v>1076</v>
       </c>
       <c r="K33">
-        <v>1.7908549831</v>
+        <v>1.8475301439</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -6219,7 +6219,7 @@
         <v>579</v>
       </c>
       <c r="F34">
-        <v>7.7128221043000003E-2</v>
+        <v>8.0383250059999994E-2</v>
       </c>
       <c r="G34">
         <v>0.15120067126</v>
@@ -6228,13 +6228,13 @@
         <v>1.6044636886999999</v>
       </c>
       <c r="I34">
-        <v>106238.30929</v>
+        <v>130322.39923</v>
       </c>
       <c r="J34" t="s">
         <v>1076</v>
       </c>
       <c r="K34">
-        <v>5.4396778579999996</v>
+        <v>5.6274530603999997</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -6264,13 +6264,13 @@
         <v>21.829511491000002</v>
       </c>
       <c r="I35">
-        <v>1175.2437009</v>
+        <v>883.60095562000004</v>
       </c>
       <c r="J35" t="s">
         <v>1077</v>
       </c>
       <c r="K35">
-        <v>16.251920665</v>
+        <v>17.414518580999999</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -6300,13 +6300,13 @@
         <v>1.1006114914</v>
       </c>
       <c r="I36">
-        <v>1255693.8211000001</v>
+        <v>1450210.1442</v>
       </c>
       <c r="J36" t="s">
         <v>1085</v>
       </c>
       <c r="K36">
-        <v>2.0451775843000002</v>
+        <v>2.2736112583999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -6336,13 +6336,13 @@
         <v>1.7370897994000001</v>
       </c>
       <c r="I37">
-        <v>710533.98205999995</v>
+        <v>642181.15460000001</v>
       </c>
       <c r="J37" t="s">
         <v>1080</v>
       </c>
       <c r="K37">
-        <v>8.9277829779999998</v>
+        <v>12.598564407</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -6365,14 +6365,20 @@
       <c r="F38">
         <v>0</v>
       </c>
+      <c r="G38">
+        <v>-2.2398746763999999</v>
+      </c>
+      <c r="H38">
+        <v>-632.26561412000001</v>
+      </c>
       <c r="I38">
-        <v>117326.72741000001</v>
+        <v>228949.22312000001</v>
       </c>
       <c r="J38" t="s">
         <v>1082</v>
       </c>
       <c r="K38">
-        <v>9.7137104607999999E-2</v>
+        <v>1.0201195149</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -6402,7 +6408,7 @@
         <v>4.2369075337000002</v>
       </c>
       <c r="I39">
-        <v>2.3199338629000001</v>
+        <v>1.0598351007</v>
       </c>
       <c r="J39" t="s">
         <v>1076</v>
@@ -6426,7 +6432,7 @@
         <v>585</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>8.5880583484000003E-2</v>
       </c>
       <c r="G40">
         <v>-9.9691689767000005E-2</v>
@@ -6435,13 +6441,13 @@
         <v>1.3009264383000001</v>
       </c>
       <c r="I40">
-        <v>78928.788065000001</v>
+        <v>98782.389028999998</v>
       </c>
       <c r="J40" t="s">
         <v>1080</v>
       </c>
       <c r="K40">
-        <v>0.63580650288999996</v>
+        <v>0.57989462889999999</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -6471,13 +6477,13 @@
         <v>5.3021827063</v>
       </c>
       <c r="I41">
-        <v>277910.63192999997</v>
+        <v>377315.34350000002</v>
       </c>
       <c r="J41" t="s">
         <v>1083</v>
       </c>
       <c r="K41">
-        <v>8.5922184348999995</v>
+        <v>8.6630600050000002</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -6507,13 +6513,13 @@
         <v>0.73592134444000001</v>
       </c>
       <c r="I42">
-        <v>36590.633721999999</v>
+        <v>25386.804236</v>
       </c>
       <c r="J42" t="s">
         <v>1080</v>
       </c>
       <c r="K42">
-        <v>1.5488952862000001</v>
+        <v>1.5292952866</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -6543,13 +6549,13 @@
         <v>0.69558491257999999</v>
       </c>
       <c r="I43">
-        <v>653249.75797999999</v>
+        <v>610202.93655999994</v>
       </c>
       <c r="J43" t="s">
         <v>1082</v>
       </c>
       <c r="K43">
-        <v>1.7343388495000001</v>
+        <v>1.6919486581000001</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -6579,13 +6585,13 @@
         <v>3.1440669832000001</v>
       </c>
       <c r="I44">
-        <v>51.560069812000002</v>
+        <v>177.39212201000001</v>
       </c>
       <c r="J44" t="s">
         <v>1080</v>
       </c>
       <c r="K44">
-        <v>0.33203228484000002</v>
+        <v>0.24398005728</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -6615,13 +6621,13 @@
         <v>0.33053476029000001</v>
       </c>
       <c r="I45">
-        <v>58.562388149999997</v>
+        <v>94.377148293999994</v>
       </c>
       <c r="J45" t="s">
         <v>1086</v>
       </c>
       <c r="K45">
-        <v>0.34616131824000002</v>
+        <v>0.36597008592000002</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -6651,13 +6657,13 @@
         <v>1.4043407246999999</v>
       </c>
       <c r="I46">
-        <v>13883.513252999999</v>
+        <v>18825.299051000002</v>
       </c>
       <c r="J46" t="s">
         <v>1087</v>
       </c>
       <c r="K46">
-        <v>3.4086293071</v>
+        <v>3.2177080018000002</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -6687,13 +6693,13 @@
         <v>2.4465523798</v>
       </c>
       <c r="I47">
-        <v>117958.64766</v>
+        <v>192608.13376</v>
       </c>
       <c r="J47" t="s">
         <v>1076</v>
       </c>
       <c r="K47">
-        <v>2.0981614595</v>
+        <v>2.0137194583000002</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -6723,13 +6729,13 @@
         <v>0.35810562435999999</v>
       </c>
       <c r="I48">
-        <v>5034.8622679999999</v>
+        <v>2842.9013106000002</v>
       </c>
       <c r="J48" t="s">
         <v>1084</v>
       </c>
       <c r="K48">
-        <v>0.25432260114999999</v>
+        <v>0.26519571444000001</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -6759,13 +6765,13 @@
         <v>0.35810562435999999</v>
       </c>
       <c r="I49">
-        <v>29003.234648000001</v>
+        <v>16609.944654999999</v>
       </c>
       <c r="J49" t="s">
         <v>1084</v>
       </c>
       <c r="K49">
-        <v>0.25255647197999997</v>
+        <v>0.26519571444000001</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -6795,13 +6801,13 @@
         <v>-12.88028108</v>
       </c>
       <c r="I50">
-        <v>505604.36861</v>
+        <v>700008.22568000003</v>
       </c>
       <c r="J50" t="s">
         <v>1081</v>
       </c>
       <c r="K50">
-        <v>1.4129033396999999</v>
+        <v>0.95293660053999996</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -6831,13 +6837,13 @@
         <v>0.71400388355</v>
       </c>
       <c r="I51">
-        <v>1539992.0574</v>
+        <v>2108885.0501000001</v>
       </c>
       <c r="J51" t="s">
         <v>1077</v>
       </c>
       <c r="K51">
-        <v>1.9162501544999999</v>
+        <v>2.2417877727</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -6867,13 +6873,13 @@
         <v>0.79739784756999998</v>
       </c>
       <c r="I52">
-        <v>65.787790978000004</v>
+        <v>78.972623200000001</v>
       </c>
       <c r="J52" t="s">
         <v>1080</v>
       </c>
       <c r="K52">
-        <v>1.1444517052000001</v>
+        <v>1.1297337435000001</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -6903,13 +6909,13 @@
         <v>1.3688105334</v>
       </c>
       <c r="I53">
-        <v>7221.1976458999998</v>
+        <v>8213.3203778999996</v>
       </c>
       <c r="J53" t="s">
         <v>1077</v>
       </c>
       <c r="K53">
-        <v>0.61991134031999995</v>
+        <v>0.67006117181000002</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -6939,13 +6945,13 @@
         <v>1.2904395360000001</v>
       </c>
       <c r="I54">
-        <v>45899.767470999999</v>
+        <v>80073.486841000005</v>
       </c>
       <c r="J54" t="s">
         <v>1077</v>
       </c>
       <c r="K54">
-        <v>1.5330001235999999</v>
+        <v>1.7502917152999999</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -6966,7 +6972,7 @@
         <v>599</v>
       </c>
       <c r="F55">
-        <v>0.45014892760000003</v>
+        <v>0.42271256775999999</v>
       </c>
       <c r="G55">
         <v>0.61181238668000004</v>
@@ -6975,7 +6981,7 @@
         <v>7.6127097856999999</v>
       </c>
       <c r="I55">
-        <v>2.2053058400999999</v>
+        <v>12.671168717</v>
       </c>
       <c r="J55" t="s">
         <v>1077</v>
@@ -6999,7 +7005,7 @@
         <v>600</v>
       </c>
       <c r="F56">
-        <v>0.49516382046000001</v>
+        <v>0.46498382465999999</v>
       </c>
       <c r="G56">
         <v>0.61181238668000004</v>
@@ -7008,13 +7014,13 @@
         <v>7.6127097856999999</v>
       </c>
       <c r="I56">
-        <v>32.884259422</v>
+        <v>310.78789814999999</v>
       </c>
       <c r="J56" t="s">
         <v>1077</v>
       </c>
       <c r="K56">
-        <v>4.0603309726000001</v>
+        <v>4.1069976308999996</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -7035,7 +7041,7 @@
         <v>601</v>
       </c>
       <c r="F57">
-        <v>0.12825197553000001</v>
+        <v>0.12759970982999999</v>
       </c>
       <c r="G57">
         <v>0.23337204988999999</v>
@@ -7044,13 +7050,13 @@
         <v>1.4394553018</v>
       </c>
       <c r="I57">
-        <v>515.73436292999997</v>
+        <v>443.35808569</v>
       </c>
       <c r="J57" t="s">
         <v>1077</v>
       </c>
       <c r="K57">
-        <v>1.5890098815</v>
+        <v>1.5947102295</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -7071,7 +7077,7 @@
         <v>602</v>
       </c>
       <c r="F58">
-        <v>0.12825197553000001</v>
+        <v>0.12759970982999999</v>
       </c>
       <c r="G58">
         <v>0.23337204988999999</v>
@@ -7080,13 +7086,13 @@
         <v>1.4394553018</v>
       </c>
       <c r="I58">
-        <v>131.29207890999999</v>
+        <v>150.48082783000001</v>
       </c>
       <c r="J58" t="s">
         <v>1077</v>
       </c>
       <c r="K58">
-        <v>1.6949826783999999</v>
+        <v>1.7432198296000001</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -7107,7 +7113,7 @@
         <v>603</v>
       </c>
       <c r="F59">
-        <v>2.5234380880999998</v>
+        <v>1.8896332882</v>
       </c>
       <c r="G59">
         <v>6.4566466608999997</v>
@@ -7149,13 +7155,13 @@
         <v>4.7955541313000003</v>
       </c>
       <c r="I60">
-        <v>225.69544980000001</v>
+        <v>439.91189352999999</v>
       </c>
       <c r="J60" t="s">
         <v>1077</v>
       </c>
       <c r="K60">
-        <v>2.1529114639000002</v>
+        <v>2.4132810014000001</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -7185,7 +7191,7 @@
         <v>4.7955541313000003</v>
       </c>
       <c r="I61">
-        <v>1.1461072543999999</v>
+        <v>0.89462329997000001</v>
       </c>
       <c r="J61" t="s">
         <v>1077</v>
@@ -7218,13 +7224,13 @@
         <v>4.7955541313000003</v>
       </c>
       <c r="I62">
-        <v>63693.488867</v>
+        <v>57493.829819999999</v>
       </c>
       <c r="J62" t="s">
         <v>1077</v>
       </c>
       <c r="K62">
-        <v>2.0204517757999998</v>
+        <v>2.2205721156</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -7251,7 +7257,7 @@
         <v>-25.857526719999999</v>
       </c>
       <c r="I63">
-        <v>0.24048059150000001</v>
+        <v>0.22568781875999999</v>
       </c>
       <c r="J63" t="s">
         <v>1079</v>
@@ -7281,13 +7287,13 @@
         <v>-25.857526719999999</v>
       </c>
       <c r="I64">
-        <v>1.8554181114999999</v>
+        <v>2.3427969576000001</v>
       </c>
       <c r="J64" t="s">
         <v>1079</v>
       </c>
       <c r="K64">
-        <v>1.6954840077</v>
+        <v>1.6618931438</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -7317,7 +7323,7 @@
         <v>3.0664594231</v>
       </c>
       <c r="I65">
-        <v>1.3293043761000001</v>
+        <v>1.3287250819</v>
       </c>
       <c r="J65" t="s">
         <v>1080</v>
@@ -7350,13 +7356,13 @@
         <v>3.0664594231</v>
       </c>
       <c r="I66">
-        <v>5.7258538225000004</v>
+        <v>29.648740449999998</v>
       </c>
       <c r="J66" t="s">
         <v>1080</v>
       </c>
       <c r="K66">
-        <v>1.7572985288</v>
+        <v>1.8828895725000001</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -7407,7 +7413,7 @@
         <v>612</v>
       </c>
       <c r="F68">
-        <v>0.57625067643000005</v>
+        <v>0.5078463862</v>
       </c>
       <c r="G68">
         <v>0.81833152747000004</v>
@@ -7416,13 +7422,13 @@
         <v>1.2224610967</v>
       </c>
       <c r="I68">
-        <v>511095.02954000002</v>
+        <v>764273.90246999997</v>
       </c>
       <c r="J68" t="s">
         <v>1077</v>
       </c>
       <c r="K68">
-        <v>6.2114763073999999</v>
+        <v>6.4937590609000004</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -7452,13 +7458,13 @@
         <v>2.5440485863000002</v>
       </c>
       <c r="I69">
-        <v>17648.353208</v>
+        <v>14291.662812</v>
       </c>
       <c r="J69" t="s">
         <v>1088</v>
       </c>
       <c r="K69">
-        <v>2.5538227866000001</v>
+        <v>2.8181464587999998</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -7518,13 +7524,13 @@
         <v>92.073934409000003</v>
       </c>
       <c r="I71">
-        <v>64.949173157000004</v>
+        <v>76.535470869999997</v>
       </c>
       <c r="J71" t="s">
         <v>1089</v>
       </c>
       <c r="K71">
-        <v>58.264601472999999</v>
+        <v>54.366889430999997</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -7554,13 +7560,13 @@
         <v>0.50949985000999998</v>
       </c>
       <c r="I72">
-        <v>4445.1233536</v>
+        <v>3420.7723003000001</v>
       </c>
       <c r="J72" t="s">
         <v>1080</v>
       </c>
       <c r="K72">
-        <v>1.8014517582</v>
+        <v>1.5929422580999999</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -7590,13 +7596,13 @@
         <v>2.2748824458999999</v>
       </c>
       <c r="I73">
-        <v>9541.9861113999996</v>
+        <v>16742.333855000001</v>
       </c>
       <c r="J73" t="s">
         <v>1090</v>
       </c>
       <c r="K73">
-        <v>1.8297098249999999</v>
+        <v>2.4698560871000002</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -7626,13 +7632,13 @@
         <v>1.7211393732</v>
       </c>
       <c r="I74">
-        <v>25149.960036</v>
+        <v>45324.701332999997</v>
       </c>
       <c r="J74" t="s">
         <v>1075</v>
       </c>
       <c r="K74">
-        <v>2.6474276328999999</v>
+        <v>2.2718432869999998</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -7695,13 +7701,13 @@
         <v>-3.1129685608000002E-2</v>
       </c>
       <c r="I76">
-        <v>109.80241246</v>
+        <v>258.58206730000001</v>
       </c>
       <c r="J76" t="s">
         <v>1090</v>
       </c>
       <c r="K76">
-        <v>0.35499196411</v>
+        <v>0.3765779145</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -7722,7 +7728,7 @@
         <v>621</v>
       </c>
       <c r="F77">
-        <v>8.8852517172000003E-2</v>
+        <v>9.1002457573999995E-2</v>
       </c>
       <c r="G77">
         <v>0.10892669817</v>
@@ -7731,13 +7737,13 @@
         <v>0.52510372135000005</v>
       </c>
       <c r="I77">
-        <v>15124.304781999999</v>
+        <v>16418.806668000001</v>
       </c>
       <c r="J77" t="s">
         <v>1077</v>
       </c>
       <c r="K77">
-        <v>2.4549195527999998</v>
+        <v>2.7757151443999999</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -7758,7 +7764,7 @@
         <v>622</v>
       </c>
       <c r="F78">
-        <v>0.23592957055</v>
+        <v>0.23536051001</v>
       </c>
       <c r="G78">
         <v>0.28310236501000002</v>
@@ -7767,13 +7773,13 @@
         <v>3.0262050498000002</v>
       </c>
       <c r="I78">
-        <v>248402.484</v>
+        <v>442715.90084999998</v>
       </c>
       <c r="J78" t="s">
         <v>1077</v>
       </c>
       <c r="K78">
-        <v>1.9803487312000001</v>
+        <v>2.4999116014</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -7794,7 +7800,7 @@
         <v>623</v>
       </c>
       <c r="F79">
-        <v>0.25952252865999997</v>
+        <v>0.25889656205</v>
       </c>
       <c r="G79">
         <v>0.28310236501000002</v>
@@ -7803,13 +7809,13 @@
         <v>3.0262050498000002</v>
       </c>
       <c r="I79">
-        <v>1378103.135</v>
+        <v>2670556.6861999999</v>
       </c>
       <c r="J79" t="s">
         <v>1077</v>
       </c>
       <c r="K79">
-        <v>2.1919899564000001</v>
+        <v>2.7651073158999999</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -7839,13 +7845,13 @@
         <v>4.1823399557999998</v>
       </c>
       <c r="I80">
-        <v>5365.9436535000004</v>
+        <v>9744.6035269000004</v>
       </c>
       <c r="J80" t="s">
         <v>1080</v>
       </c>
       <c r="K80">
-        <v>3.1278147683999999</v>
+        <v>3.1646688588999998</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -7875,13 +7881,13 @@
         <v>4.1823399557999998</v>
       </c>
       <c r="I81">
-        <v>197355.61498000001</v>
+        <v>233664.37278999999</v>
       </c>
       <c r="J81" t="s">
         <v>1080</v>
       </c>
       <c r="K81">
-        <v>3.2708712315000001</v>
+        <v>3.4422403734000002</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -7902,7 +7908,7 @@
         <v>626</v>
       </c>
       <c r="F82">
-        <v>0.48147514381000001</v>
+        <v>0.48645720538999998</v>
       </c>
       <c r="G82">
         <v>1.2061303730999999</v>
@@ -7911,13 +7917,13 @@
         <v>6.1087736838</v>
       </c>
       <c r="I82">
-        <v>1559872.1610000001</v>
+        <v>1877466.841</v>
       </c>
       <c r="J82" t="s">
         <v>1077</v>
       </c>
       <c r="K82">
-        <v>4.6890729587999997</v>
+        <v>4.9715356599999998</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -7947,13 +7953,13 @@
         <v>3.9329152718999998</v>
       </c>
       <c r="I83">
-        <v>25965.485885999999</v>
+        <v>21273.531792999998</v>
       </c>
       <c r="J83" t="s">
         <v>1075</v>
       </c>
       <c r="K83">
-        <v>4.6537503752999996</v>
+        <v>4.5808139739999998</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -7983,13 +7989,13 @@
         <v>0.77450297424000003</v>
       </c>
       <c r="I84">
-        <v>537.08603452</v>
+        <v>1090.5695307999999</v>
       </c>
       <c r="J84" t="s">
         <v>1090</v>
       </c>
       <c r="K84">
-        <v>3.1348792850999998</v>
+        <v>3.1682048018</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -8019,13 +8025,13 @@
         <v>0.77450297424000003</v>
       </c>
       <c r="I85">
-        <v>147238.56086999999</v>
+        <v>203816.03938</v>
       </c>
       <c r="J85" t="s">
         <v>1090</v>
       </c>
       <c r="K85">
-        <v>3.0995567016000001</v>
+        <v>3.1894204589999999</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -8055,7 +8061,7 @@
         <v>0.77450297424000003</v>
       </c>
       <c r="I86">
-        <v>20.144500204</v>
+        <v>1.9644297981000001</v>
       </c>
       <c r="J86" t="s">
         <v>1090</v>
@@ -8088,7 +8094,7 @@
         <v>1.3993634561999999</v>
       </c>
       <c r="I87">
-        <v>11.516976726999999</v>
+        <v>11.190691445000001</v>
       </c>
       <c r="J87" t="s">
         <v>1077</v>
@@ -8121,10 +8127,13 @@
         <v>1.3993634561999999</v>
       </c>
       <c r="I88">
-        <v>18.405693710000001</v>
+        <v>30.278123315999999</v>
       </c>
       <c r="J88" t="s">
         <v>1077</v>
+      </c>
+      <c r="K88">
+        <v>1.7644354867000001</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -8154,13 +8163,13 @@
         <v>1.8268270313999999</v>
       </c>
       <c r="I89">
-        <v>552418.51858999999</v>
+        <v>698032.73427000002</v>
       </c>
       <c r="J89" t="s">
         <v>1085</v>
       </c>
       <c r="K89">
-        <v>3.7194680418999999</v>
+        <v>4.6373890598000003</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -8190,13 +8199,13 @@
         <v>0.68461560330000004</v>
       </c>
       <c r="I90">
-        <v>8712.0906792000005</v>
+        <v>10802.092678000001</v>
       </c>
       <c r="J90" t="s">
         <v>1080</v>
       </c>
       <c r="K90">
-        <v>0.72058070327000001</v>
+        <v>0.62409391463999997</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -8247,7 +8256,7 @@
         <v>636</v>
       </c>
       <c r="F92">
-        <v>7.7515119617E-2</v>
+        <v>4.9986424314000001E-2</v>
       </c>
       <c r="G92">
         <v>0.18465419372</v>
@@ -8256,13 +8265,13 @@
         <v>0.90389513691000001</v>
       </c>
       <c r="I92">
-        <v>235.99204176999999</v>
+        <v>393.25353113</v>
       </c>
       <c r="J92" t="s">
         <v>1077</v>
       </c>
       <c r="K92">
-        <v>2.7427986083000002</v>
+        <v>2.8870973444999999</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -8283,7 +8292,7 @@
         <v>637</v>
       </c>
       <c r="F93">
-        <v>7.7515119617E-2</v>
+        <v>4.9986424314000001E-2</v>
       </c>
       <c r="G93">
         <v>0.18465419372</v>
@@ -8292,13 +8301,13 @@
         <v>0.90389513691000001</v>
       </c>
       <c r="I93">
-        <v>171.74450582</v>
+        <v>206.16996739000001</v>
       </c>
       <c r="J93" t="s">
         <v>1077</v>
       </c>
       <c r="K93">
-        <v>1.4817823776000001</v>
+        <v>1.6725009724</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -8319,7 +8328,7 @@
         <v>638</v>
       </c>
       <c r="F94">
-        <v>7.7515119617E-2</v>
+        <v>4.9986424314000001E-2</v>
       </c>
       <c r="G94">
         <v>0.18465419372</v>
@@ -8328,13 +8337,13 @@
         <v>0.90389513691000001</v>
       </c>
       <c r="I94">
-        <v>1268267.9852</v>
+        <v>1338314.5815999999</v>
       </c>
       <c r="J94" t="s">
         <v>1077</v>
       </c>
       <c r="K94">
-        <v>5.7593472387000002</v>
+        <v>6.2869064035999997</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -8385,7 +8394,7 @@
         <v>640</v>
       </c>
       <c r="F96">
-        <v>0.21051784286</v>
+        <v>0.25991711244999999</v>
       </c>
       <c r="G96">
         <v>0.24175586779</v>
@@ -8394,13 +8403,13 @@
         <v>0.89597660888999997</v>
       </c>
       <c r="I96">
-        <v>149766.54415</v>
+        <v>220920.42885</v>
       </c>
       <c r="J96" t="s">
         <v>1077</v>
       </c>
       <c r="K96">
-        <v>2.4980164847999999</v>
+        <v>2.8906332874</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -8421,7 +8430,7 @@
         <v>641</v>
       </c>
       <c r="F97">
-        <v>6.1137784961000002E-2</v>
+        <v>0.10368617234999999</v>
       </c>
       <c r="G97">
         <v>0.34490558861999998</v>
@@ -8430,13 +8439,13 @@
         <v>1.2068146889</v>
       </c>
       <c r="I97">
-        <v>1544.4957684999999</v>
+        <v>2140.9526618999998</v>
       </c>
       <c r="J97" t="s">
         <v>1083</v>
       </c>
       <c r="K97">
-        <v>2.0434114551000002</v>
+        <v>2.2417877727</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -8466,13 +8475,13 @@
         <v>1.8264197716999999</v>
       </c>
       <c r="I98">
-        <v>19805.257430000001</v>
+        <v>20917.945947</v>
       </c>
       <c r="J98" t="s">
         <v>1085</v>
       </c>
       <c r="K98">
-        <v>1.5577259321000001</v>
+        <v>1.6848767724</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -8502,13 +8511,13 @@
         <v>1.8323512898000001</v>
       </c>
       <c r="I99">
-        <v>347569.41655000002</v>
+        <v>296070.58794</v>
       </c>
       <c r="J99" t="s">
         <v>1082</v>
       </c>
       <c r="K99">
-        <v>1.6354356158000001</v>
+        <v>1.5858703723000001</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -8604,13 +8613,13 @@
         <v>6.7472450827000001</v>
       </c>
       <c r="I102">
-        <v>88970.282365000006</v>
+        <v>143538.66240999999</v>
       </c>
       <c r="J102" t="s">
         <v>1082</v>
       </c>
       <c r="K102">
-        <v>0.78945974108999994</v>
+        <v>1.3153707435999999</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -8640,13 +8649,13 @@
         <v>1.3316487097</v>
       </c>
       <c r="I103">
-        <v>106430.30355</v>
+        <v>69600.055959000005</v>
       </c>
       <c r="J103" t="s">
         <v>1087</v>
       </c>
       <c r="K103">
-        <v>0.93781459176000004</v>
+        <v>0.88044977192999996</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -8676,13 +8685,13 @@
         <v>1.2749631843</v>
       </c>
       <c r="I104">
-        <v>335760.91609000001</v>
+        <v>337686.13666000002</v>
       </c>
       <c r="J104" t="s">
         <v>1081</v>
       </c>
       <c r="K104">
-        <v>2.1864679183</v>
+        <v>2.3425621442</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -8712,13 +8721,13 @@
         <v>2.0041597953000001</v>
       </c>
       <c r="I105">
-        <v>98999.553558</v>
+        <v>116977.03161999999</v>
       </c>
       <c r="J105" t="s">
         <v>1082</v>
       </c>
       <c r="K105">
-        <v>1.4906130233999999</v>
+        <v>1.7980269439000001</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -8748,13 +8757,13 @@
         <v>2.9206882460000001</v>
       </c>
       <c r="I106">
-        <v>286.10040980999997</v>
+        <v>233.11397349000001</v>
       </c>
       <c r="J106" t="s">
         <v>1076</v>
       </c>
       <c r="K106">
-        <v>3.5075325409000002</v>
+        <v>3.4440083447999998</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -8784,13 +8793,13 @@
         <v>2.9206882460000001</v>
       </c>
       <c r="I107">
-        <v>111.63365025</v>
+        <v>287.81333752</v>
       </c>
       <c r="J107" t="s">
         <v>1076</v>
       </c>
       <c r="K107">
-        <v>3.1437099309000001</v>
+        <v>2.9525122873999998</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -8820,13 +8829,13 @@
         <v>2.9206882460000001</v>
       </c>
       <c r="I108">
-        <v>487.40395870999998</v>
+        <v>515.04975702000002</v>
       </c>
       <c r="J108" t="s">
         <v>1076</v>
       </c>
       <c r="K108">
-        <v>3.2655728439999998</v>
+        <v>3.1911884304</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -8856,7 +8865,7 @@
         <v>4.2803330530999997</v>
       </c>
       <c r="I109">
-        <v>16.124084371999999</v>
+        <v>9.9044110569000008</v>
       </c>
       <c r="J109" t="s">
         <v>1083</v>
@@ -8889,13 +8898,13 @@
         <v>4.2803330530999997</v>
       </c>
       <c r="I110">
-        <v>42.212170997999998</v>
+        <v>107.669028</v>
       </c>
       <c r="J110" t="s">
         <v>1083</v>
       </c>
       <c r="K110">
-        <v>4.2387100192</v>
+        <v>4.3315300025000001</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -8925,10 +8934,13 @@
         <v>-9.7496393347999994</v>
       </c>
       <c r="I111">
-        <v>0.69615538039000002</v>
+        <v>0.72456271402000005</v>
       </c>
       <c r="J111" t="s">
         <v>1076</v>
+      </c>
+      <c r="K111">
+        <v>2.4751600013999999</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -9051,7 +9063,7 @@
         <v>1.1748703984</v>
       </c>
       <c r="I115">
-        <v>3.5520017021000001</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>1074</v>
@@ -9084,7 +9096,7 @@
         <v>16.192612833999998</v>
       </c>
       <c r="I116">
-        <v>32.902050961999997</v>
+        <v>43.931151552999999</v>
       </c>
       <c r="J116" t="s">
         <v>1076</v>
@@ -9117,13 +9129,13 @@
         <v>16.192612833999998</v>
       </c>
       <c r="I117">
-        <v>763.19401138000001</v>
+        <v>1236.3633292</v>
       </c>
       <c r="J117" t="s">
         <v>1076</v>
       </c>
       <c r="K117">
-        <v>13.290122039</v>
+        <v>13.940454722</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -9183,13 +9195,10 @@
         <v>-1.3750867138</v>
       </c>
       <c r="I119">
-        <v>0.84104322986000002</v>
+        <v>1.6615425096000001</v>
       </c>
       <c r="J119" t="s">
         <v>1080</v>
-      </c>
-      <c r="K119">
-        <v>0.74177425337000003</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -9219,10 +9228,13 @@
         <v>-1.3750867138</v>
       </c>
       <c r="I120">
-        <v>7.9902438296999998</v>
+        <v>6.1325658294999998</v>
       </c>
       <c r="J120" t="s">
         <v>1080</v>
+      </c>
+      <c r="K120">
+        <v>0.88398571478999999</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -9243,7 +9255,7 @@
         <v>665</v>
       </c>
       <c r="F121">
-        <v>0.21539547219999999</v>
+        <v>0.30521321005000002</v>
       </c>
       <c r="G121">
         <v>0.38610731632</v>
@@ -9252,13 +9264,13 @@
         <v>1.7781687933000001</v>
       </c>
       <c r="I121">
-        <v>6291.8834791999998</v>
+        <v>12703.457555000001</v>
       </c>
       <c r="J121" t="s">
         <v>1076</v>
       </c>
       <c r="K121">
-        <v>2.2235566309000001</v>
+        <v>2.5405749442999999</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -9279,7 +9291,7 @@
         <v>666</v>
       </c>
       <c r="F122">
-        <v>0.21539547219999999</v>
+        <v>0.30521321005000002</v>
       </c>
       <c r="G122">
         <v>0.38610731632</v>
@@ -9288,13 +9300,13 @@
         <v>1.7781687933000001</v>
       </c>
       <c r="I122">
-        <v>497071.87304999999</v>
+        <v>688765.79452999996</v>
       </c>
       <c r="J122" t="s">
         <v>1076</v>
       </c>
       <c r="K122">
-        <v>1.9180162837000001</v>
+        <v>2.0561507726000001</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -9315,7 +9327,7 @@
         <v>667</v>
       </c>
       <c r="F123">
-        <v>7.3557510579999999E-2</v>
+        <v>5.8719289993000003E-2</v>
       </c>
       <c r="G123">
         <v>0.15956225383</v>
@@ -9324,13 +9336,10 @@
         <v>0.90257570115999997</v>
       </c>
       <c r="I123">
-        <v>353269.46250999998</v>
+        <v>486563.96969</v>
       </c>
       <c r="J123" t="s">
         <v>1088</v>
-      </c>
-      <c r="K123">
-        <v>1.0190565337999999</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -9420,13 +9429,13 @@
         <v>0.76058120466000001</v>
       </c>
       <c r="I126">
-        <v>63518.978817000003</v>
+        <v>56893.248132000001</v>
       </c>
       <c r="J126" t="s">
         <v>1082</v>
       </c>
       <c r="K126">
-        <v>1.4641210858</v>
+        <v>1.5151515151999999</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -9447,7 +9456,7 @@
         <v>671</v>
       </c>
       <c r="F127">
-        <v>1.0082661409</v>
+        <v>0.56599721031000005</v>
       </c>
       <c r="G127">
         <v>1.3814601411</v>
@@ -9456,7 +9465,7 @@
         <v>5.2723055909000003</v>
       </c>
       <c r="I127">
-        <v>67.484098015000001</v>
+        <v>172.09791337999999</v>
       </c>
       <c r="J127" t="s">
         <v>1076</v>
@@ -9480,7 +9489,7 @@
         <v>672</v>
       </c>
       <c r="F128">
-        <v>1.0082661409</v>
+        <v>0.56599721031000005</v>
       </c>
       <c r="G128">
         <v>1.3814601411</v>
@@ -9552,13 +9561,10 @@
         <v>11.108087399</v>
       </c>
       <c r="I130">
-        <v>4.0504626687999998</v>
+        <v>1.1633040739</v>
       </c>
       <c r="J130" t="s">
         <v>1076</v>
-      </c>
-      <c r="K130">
-        <v>5.4043552745000003</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -9588,13 +9594,13 @@
         <v>11.108087399</v>
       </c>
       <c r="I131">
-        <v>1602.1942971999999</v>
+        <v>1629.6767927000001</v>
       </c>
       <c r="J131" t="s">
         <v>1076</v>
       </c>
       <c r="K131">
-        <v>5.4114197912000002</v>
+        <v>5.7105477175999999</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -9657,13 +9663,13 @@
         <v>1.2454661086000001</v>
       </c>
       <c r="I133">
-        <v>198459.40327000001</v>
+        <v>262189.62018999999</v>
       </c>
       <c r="J133" t="s">
         <v>1080</v>
       </c>
       <c r="K133">
-        <v>0.26845163454999998</v>
+        <v>0.24221208585000001</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -9714,7 +9720,7 @@
         <v>679</v>
       </c>
       <c r="F135">
-        <v>2.1803484066999999</v>
+        <v>3.2571619602999999</v>
       </c>
       <c r="G135">
         <v>3.8122964087</v>
@@ -9723,7 +9729,7 @@
         <v>1.3015327552</v>
       </c>
       <c r="I135">
-        <v>11.763912122000001</v>
+        <v>91.091823116</v>
       </c>
       <c r="J135" t="s">
         <v>1074</v>
@@ -9747,7 +9753,7 @@
         <v>680</v>
       </c>
       <c r="F136">
-        <v>2.3983832474</v>
+        <v>3.5828781563000001</v>
       </c>
       <c r="G136">
         <v>3.8122964087</v>
@@ -9756,13 +9762,13 @@
         <v>1.3015327552</v>
       </c>
       <c r="I136">
-        <v>502.98952001999999</v>
+        <v>1304.0918145000001</v>
       </c>
       <c r="J136" t="s">
         <v>1074</v>
       </c>
       <c r="K136">
-        <v>19.692340298000001</v>
+        <v>21.215657154999999</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -9912,13 +9918,10 @@
         <v>1.3073730404999999</v>
       </c>
       <c r="I141">
-        <v>0.92508496105000004</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>1084</v>
-      </c>
-      <c r="K141">
-        <v>4.5919358541999999</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -9948,13 +9951,13 @@
         <v>4.0924227332000003</v>
       </c>
       <c r="I142">
-        <v>130617.21042</v>
+        <v>139662.63055999999</v>
       </c>
       <c r="J142" t="s">
         <v>1080</v>
       </c>
       <c r="K142">
-        <v>3.8801857968000002</v>
+        <v>4.1936282309999999</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -9984,13 +9987,13 @@
         <v>1.6384648458</v>
       </c>
       <c r="I143">
-        <v>193478.53989000001</v>
+        <v>204102.77499999999</v>
       </c>
       <c r="J143" t="s">
         <v>1076</v>
       </c>
       <c r="K143">
-        <v>1.5859839989</v>
+        <v>1.6583572009000001</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -10020,13 +10023,10 @@
         <v>1.6384648458</v>
       </c>
       <c r="I144">
-        <v>13.401389662</v>
+        <v>22.069056815</v>
       </c>
       <c r="J144" t="s">
         <v>1076</v>
-      </c>
-      <c r="K144">
-        <v>2.4708147154</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -10056,13 +10056,13 @@
         <v>1.6384648458</v>
       </c>
       <c r="I145">
-        <v>450196.37104</v>
+        <v>513979.67106000002</v>
       </c>
       <c r="J145" t="s">
         <v>1076</v>
       </c>
       <c r="K145">
-        <v>1.7820243373</v>
+        <v>1.8439942010999999</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -10092,13 +10092,13 @@
         <v>2.2203018430000001</v>
       </c>
       <c r="I146">
-        <v>492545.44884000003</v>
+        <v>523206.03886999999</v>
       </c>
       <c r="J146" t="s">
         <v>1074</v>
       </c>
       <c r="K146">
-        <v>2.3613147066</v>
+        <v>2.3620098298999999</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -10119,7 +10119,7 @@
         <v>691</v>
       </c>
       <c r="F147">
-        <v>0.74530118945000001</v>
+        <v>0.50729245426000003</v>
       </c>
       <c r="G147">
         <v>0.7133234007</v>
@@ -10128,13 +10128,10 @@
         <v>2.0280296350000002</v>
       </c>
       <c r="I147">
-        <v>365.98476300999999</v>
+        <v>508.87355626999999</v>
       </c>
       <c r="J147" t="s">
         <v>1076</v>
-      </c>
-      <c r="K147">
-        <v>2.7728228043000001</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -10155,7 +10152,7 @@
         <v>692</v>
       </c>
       <c r="F148">
-        <v>0.81983130838999996</v>
+        <v>0.55802169968000004</v>
       </c>
       <c r="G148">
         <v>0.7133234007</v>
@@ -10164,7 +10161,7 @@
         <v>2.0280296350000002</v>
       </c>
       <c r="I148">
-        <v>30.054088549999999</v>
+        <v>31.526901006999999</v>
       </c>
       <c r="J148" t="s">
         <v>1076</v>
@@ -10188,7 +10185,7 @@
         <v>693</v>
       </c>
       <c r="F149">
-        <v>0.81983130838999996</v>
+        <v>0.55802169968000004</v>
       </c>
       <c r="G149">
         <v>0.7133234007</v>
@@ -10197,13 +10194,10 @@
         <v>2.0280296350000002</v>
       </c>
       <c r="I149">
-        <v>34.9436702</v>
+        <v>31.551913262999999</v>
       </c>
       <c r="J149" t="s">
         <v>1076</v>
-      </c>
-      <c r="K149">
-        <v>3.4086293071</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -10227,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="I150">
-        <v>1.4861177519</v>
+        <v>0.38680786477000001</v>
       </c>
       <c r="J150" t="s">
         <v>1083</v>
@@ -10254,13 +10248,10 @@
         <v>0</v>
       </c>
       <c r="I151">
-        <v>113.26933327</v>
+        <v>22.458214187999999</v>
       </c>
       <c r="J151" t="s">
         <v>1083</v>
-      </c>
-      <c r="K151">
-        <v>0.17308065912000001</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -10281,7 +10272,7 @@
         <v>696</v>
       </c>
       <c r="F152">
-        <v>0.69530449494000002</v>
+        <v>0.53805419584000003</v>
       </c>
       <c r="G152">
         <v>0.97421584580999998</v>
@@ -10290,13 +10281,13 @@
         <v>3.5668513800000001</v>
       </c>
       <c r="I152">
-        <v>175666.33257</v>
+        <v>214816.79047000001</v>
       </c>
       <c r="J152" t="s">
         <v>1076</v>
       </c>
       <c r="K152">
-        <v>5.7363875593999998</v>
+        <v>6.0270146034999996</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -10359,13 +10350,13 @@
         <v>4.6900383143999997</v>
       </c>
       <c r="I154">
-        <v>261.72511469</v>
+        <v>195.84865406</v>
       </c>
       <c r="J154" t="s">
         <v>1090</v>
       </c>
       <c r="K154">
-        <v>5.1482665442000002</v>
+        <v>5.1235812028999996</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -10395,13 +10386,13 @@
         <v>4.6900383143999997</v>
       </c>
       <c r="I155">
-        <v>31.334021760999999</v>
+        <v>58.011752164000001</v>
       </c>
       <c r="J155" t="s">
         <v>1090</v>
       </c>
       <c r="K155">
-        <v>5.2436375196</v>
+        <v>5.0404865457000003</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -10422,7 +10413,7 @@
         <v>700</v>
       </c>
       <c r="F156">
-        <v>3.3809177756000001E-2</v>
+        <v>6.3751479626000002E-2</v>
       </c>
       <c r="G156">
         <v>6.9700703525999996E-2</v>
@@ -10431,13 +10422,13 @@
         <v>0.78245510558999998</v>
       </c>
       <c r="I156">
-        <v>5209.9428574000003</v>
+        <v>11287.393758</v>
       </c>
       <c r="J156" t="s">
         <v>1080</v>
       </c>
       <c r="K156">
-        <v>0.7046855407</v>
+        <v>0.64530957180000004</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -10467,13 +10458,13 @@
         <v>0.44094257404999998</v>
       </c>
       <c r="I157">
-        <v>182056.47691</v>
+        <v>241742.09315</v>
       </c>
       <c r="J157" t="s">
         <v>1087</v>
       </c>
       <c r="K157">
-        <v>0.90425813744000005</v>
+        <v>1.004207772</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -10500,13 +10491,13 @@
         <v>2.1419045055999999</v>
       </c>
       <c r="I158">
-        <v>2958.4621597</v>
+        <v>3405.8879058000002</v>
       </c>
       <c r="J158" t="s">
         <v>1080</v>
       </c>
       <c r="K158">
-        <v>3.4333551156</v>
+        <v>3.4033450019</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -10566,13 +10557,13 @@
         <v>0.69474017039000002</v>
       </c>
       <c r="I160">
-        <v>137514.66925000001</v>
+        <v>130258.33869999999</v>
       </c>
       <c r="J160" t="s">
         <v>1084</v>
       </c>
       <c r="K160">
-        <v>3.9208067677999998</v>
+        <v>4.2113079452999997</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -10602,13 +10593,13 @@
         <v>0.22027774648000001</v>
       </c>
       <c r="I161">
-        <v>113921.57365000001</v>
+        <v>181537.36497</v>
       </c>
       <c r="J161" t="s">
         <v>1081</v>
       </c>
       <c r="K161">
-        <v>0.32143550979000002</v>
+        <v>0.34829037162999998</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -10638,13 +10629,13 @@
         <v>4.2632057357999997</v>
       </c>
       <c r="I162">
-        <v>440101.15432999999</v>
+        <v>477113.54665999999</v>
       </c>
       <c r="J162" t="s">
         <v>1084</v>
       </c>
       <c r="K162">
-        <v>3.4421857615000002</v>
+        <v>3.8577136592999999</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -10674,13 +10665,13 @@
         <v>3.4486103121</v>
       </c>
       <c r="I163">
-        <v>2160.7961639</v>
+        <v>2792.6321134999998</v>
       </c>
       <c r="J163" t="s">
         <v>1082</v>
       </c>
       <c r="K163">
-        <v>1.3510888186000001</v>
+        <v>1.2587956578999999</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -10710,13 +10701,13 @@
         <v>1.9243203965</v>
       </c>
       <c r="I164">
-        <v>19018.764564000001</v>
+        <v>13662.347005</v>
       </c>
       <c r="J164" t="s">
         <v>1080</v>
       </c>
       <c r="K164">
-        <v>0.48568552304000001</v>
+        <v>0.52862345744999995</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -10746,13 +10737,13 @@
         <v>2.2199645239999999</v>
       </c>
       <c r="I165">
-        <v>22416.642674999999</v>
+        <v>19804.529723</v>
       </c>
       <c r="J165" t="s">
         <v>1086</v>
       </c>
       <c r="K165">
-        <v>2.8770244256000002</v>
+        <v>2.7226760016</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -10782,13 +10773,13 @@
         <v>1.5783154226</v>
       </c>
       <c r="I166">
-        <v>81391.058434000006</v>
+        <v>132784.02806000001</v>
       </c>
       <c r="J166" t="s">
         <v>1080</v>
       </c>
       <c r="K166">
-        <v>1.2910404267</v>
+        <v>1.4515045437</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -10818,13 +10809,13 @@
         <v>1.6418738636000001</v>
       </c>
       <c r="I167">
-        <v>2543.6809202999998</v>
+        <v>4591.3126748000004</v>
       </c>
       <c r="J167" t="s">
         <v>1080</v>
       </c>
       <c r="K167">
-        <v>1.8138146624</v>
+        <v>1.7167002580999999</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -10854,13 +10845,13 @@
         <v>1.6418738636000001</v>
       </c>
       <c r="I168">
-        <v>395.88915317999999</v>
+        <v>1295.4493672000001</v>
       </c>
       <c r="J168" t="s">
         <v>1080</v>
       </c>
       <c r="K168">
-        <v>1.8014517582</v>
+        <v>1.6795728581</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -10881,7 +10872,7 @@
         <v>713</v>
       </c>
       <c r="F169">
-        <v>8.1030795281999995E-2</v>
+        <v>7.0158634087999994E-2</v>
       </c>
       <c r="G169">
         <v>0.14563204221000001</v>
@@ -10890,13 +10881,13 @@
         <v>1.6092941718</v>
       </c>
       <c r="I169">
-        <v>14128.580591</v>
+        <v>16599.210565000001</v>
       </c>
       <c r="J169" t="s">
         <v>1082</v>
       </c>
       <c r="K169">
-        <v>1.7996856290000001</v>
+        <v>1.7803472296</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -10926,13 +10917,13 @@
         <v>2.4317297629999999</v>
       </c>
       <c r="I170">
-        <v>239061.61773999999</v>
+        <v>184802.38097</v>
       </c>
       <c r="J170" t="s">
         <v>1084</v>
       </c>
       <c r="K170">
-        <v>4.9098391055999997</v>
+        <v>5.1147413457999997</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -10962,7 +10953,7 @@
         <v>3.1547576597</v>
       </c>
       <c r="I171">
-        <v>0.47624959930999999</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>1077</v>
@@ -10995,7 +10986,7 @@
         <v>1.8504103055000001</v>
       </c>
       <c r="I172">
-        <v>0.35887573442999998</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>1083</v>
@@ -11028,13 +11019,13 @@
         <v>1.8504103055000001</v>
       </c>
       <c r="I173">
-        <v>26.159842142999999</v>
+        <v>21.294873504000002</v>
       </c>
       <c r="J173" t="s">
         <v>1083</v>
       </c>
       <c r="K173">
-        <v>0.74000812418999995</v>
+        <v>0.77260351473</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -11064,13 +11055,13 @@
         <v>-3.6283692030000001</v>
       </c>
       <c r="I174">
-        <v>248.94026833000001</v>
+        <v>1502.3939171</v>
       </c>
       <c r="J174" t="s">
         <v>1080</v>
       </c>
       <c r="K174">
-        <v>1.1780081595</v>
+        <v>1.5575828295</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -11100,7 +11091,7 @@
         <v>-7.8901915914000004E-2</v>
       </c>
       <c r="I175">
-        <v>1.2774473288999999</v>
+        <v>13.374002068999999</v>
       </c>
       <c r="J175" t="s">
         <v>1080</v>
@@ -11163,13 +11154,13 @@
         <v>0.85437801000000002</v>
       </c>
       <c r="I177">
-        <v>112907.59903</v>
+        <v>106812.58087000001</v>
       </c>
       <c r="J177" t="s">
         <v>1081</v>
       </c>
       <c r="K177">
-        <v>1.2521855849000001</v>
+        <v>1.3843216294</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -11190,7 +11181,7 @@
         <v>722</v>
       </c>
       <c r="F178">
-        <v>2.0302137833999998</v>
+        <v>1.6579341962</v>
       </c>
       <c r="G178">
         <v>0.99270838050999999</v>
@@ -11199,7 +11190,7 @@
         <v>3.3417394494999999</v>
       </c>
       <c r="I178">
-        <v>0.66414065405</v>
+        <v>0.70623312927000004</v>
       </c>
       <c r="J178" t="s">
         <v>1076</v>
@@ -11223,7 +11214,7 @@
         <v>723</v>
       </c>
       <c r="F179">
-        <v>2.2332351618000001</v>
+        <v>1.8237276158</v>
       </c>
       <c r="G179">
         <v>0.99270838050999999</v>
@@ -11232,13 +11223,13 @@
         <v>3.3417394494999999</v>
       </c>
       <c r="I179">
-        <v>563.26936453999997</v>
+        <v>193.28927376999999</v>
       </c>
       <c r="J179" t="s">
         <v>1076</v>
       </c>
       <c r="K179">
-        <v>7.1669521909</v>
+        <v>7.6411725186000004</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -11268,13 +11259,13 @@
         <v>10.012935172000001</v>
       </c>
       <c r="I180">
-        <v>1213426.5460999999</v>
+        <v>1244072.9517000001</v>
       </c>
       <c r="J180" t="s">
         <v>1076</v>
       </c>
       <c r="K180">
-        <v>6.9885731442000001</v>
+        <v>7.3812807185000002</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -11304,7 +11295,7 @@
         <v>10.012935172000001</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3.2959789057000002</v>
       </c>
       <c r="J181" t="s">
         <v>1076</v>
@@ -11337,13 +11328,13 @@
         <v>10.012935172000001</v>
       </c>
       <c r="I182">
-        <v>208603.4448</v>
+        <v>252747.74913000001</v>
       </c>
       <c r="J182" t="s">
         <v>1076</v>
       </c>
       <c r="K182">
-        <v>7.7020893307999998</v>
+        <v>8.1574201761000005</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -11373,13 +11364,13 @@
         <v>1.2826192239</v>
       </c>
       <c r="I183">
-        <v>4676.2197919</v>
+        <v>7666.9253165</v>
       </c>
       <c r="J183" t="s">
         <v>1080</v>
       </c>
       <c r="K183">
-        <v>3.1048550891</v>
+        <v>3.1823485732000001</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -11409,13 +11400,13 @@
         <v>3.7771859140999999</v>
       </c>
       <c r="I184">
-        <v>4.3207701048000002</v>
+        <v>4.2988057361000003</v>
       </c>
       <c r="J184" t="s">
         <v>1076</v>
       </c>
       <c r="K184">
-        <v>8.4774200385</v>
+        <v>8.3978642904999994</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -11445,10 +11436,13 @@
         <v>6.0185075379999997</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1.2101764435</v>
       </c>
       <c r="J185" t="s">
         <v>1076</v>
+      </c>
+      <c r="K185">
+        <v>12.101764435</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -11478,13 +11472,13 @@
         <v>6.0185075379999997</v>
       </c>
       <c r="I186">
-        <v>443.19656192000002</v>
+        <v>415.98651038999998</v>
       </c>
       <c r="J186" t="s">
         <v>1076</v>
       </c>
       <c r="K186">
-        <v>7.4724925381</v>
+        <v>7.2999540326999997</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -11514,13 +11508,13 @@
         <v>1.0840809675</v>
       </c>
       <c r="I187">
-        <v>221.49783722000001</v>
+        <v>158.77122388999999</v>
       </c>
       <c r="J187" t="s">
         <v>1082</v>
       </c>
       <c r="K187">
-        <v>1.0367178255</v>
+        <v>1.0484070577</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -11550,13 +11544,13 @@
         <v>3.7936554412999999</v>
       </c>
       <c r="I188">
-        <v>1148077.1714999999</v>
+        <v>1757626.0482999999</v>
       </c>
       <c r="J188" t="s">
         <v>1089</v>
       </c>
       <c r="K188">
-        <v>7.7374119143</v>
+        <v>8.2794102046999996</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
@@ -11586,13 +11580,10 @@
         <v>3.1557338964000001</v>
       </c>
       <c r="I189">
-        <v>201187.13138000001</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>1074</v>
-      </c>
-      <c r="K189">
-        <v>3.821903534</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
@@ -11616,10 +11607,10 @@
         <v>0</v>
       </c>
       <c r="G190">
-        <v>0.49013714269000003</v>
+        <v>0.50125844001999997</v>
       </c>
       <c r="H190">
-        <v>3.9311990937000001</v>
+        <v>4.0862113728000002</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -11646,7 +11637,7 @@
         <v>735</v>
       </c>
       <c r="F191">
-        <v>6.9416895408000001E-2</v>
+        <v>7.7733792772999993E-2</v>
       </c>
       <c r="G191">
         <v>0.23048299149000001</v>
@@ -11655,13 +11646,13 @@
         <v>1.3352087722999999</v>
       </c>
       <c r="I191">
-        <v>218.06440229</v>
+        <v>474.55319470000001</v>
       </c>
       <c r="J191" t="s">
         <v>1076</v>
       </c>
       <c r="K191">
-        <v>2.3701453523999998</v>
+        <v>2.5936140872000002</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -11682,7 +11673,7 @@
         <v>736</v>
       </c>
       <c r="F192">
-        <v>6.9416895408000001E-2</v>
+        <v>7.7733792772999993E-2</v>
       </c>
       <c r="G192">
         <v>0.23048299149000001</v>
@@ -11691,13 +11682,13 @@
         <v>1.3352087722999999</v>
       </c>
       <c r="I192">
-        <v>233.85550465</v>
+        <v>592.95658279999998</v>
       </c>
       <c r="J192" t="s">
         <v>1076</v>
       </c>
       <c r="K192">
-        <v>1.3493226894999999</v>
+        <v>1.4391287437</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -11718,7 +11709,7 @@
         <v>737</v>
       </c>
       <c r="F193">
-        <v>6.9416895408000001E-2</v>
+        <v>7.7733792772999993E-2</v>
       </c>
       <c r="G193">
         <v>0.23048299149000001</v>
@@ -11727,13 +11718,13 @@
         <v>1.3352087722999999</v>
       </c>
       <c r="I193">
-        <v>569501.52778</v>
+        <v>660414.35996000003</v>
       </c>
       <c r="J193" t="s">
         <v>1076</v>
       </c>
       <c r="K193">
-        <v>7.7586054644000004</v>
+        <v>8.3642728333999994</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
@@ -11763,7 +11754,7 @@
         <v>3.4841591026000001</v>
       </c>
       <c r="I194">
-        <v>14.635233099000001</v>
+        <v>103.0390974</v>
       </c>
       <c r="J194" t="s">
         <v>1076</v>
@@ -11787,7 +11778,7 @@
         <v>739</v>
       </c>
       <c r="F195">
-        <v>0.90885858103999995</v>
+        <v>0.75507877485999997</v>
       </c>
       <c r="G195">
         <v>1.3968160958</v>
@@ -11796,10 +11787,13 @@
         <v>3.4841591026000001</v>
       </c>
       <c r="I195">
-        <v>104.88247434</v>
+        <v>111.19326469000001</v>
       </c>
       <c r="J195" t="s">
         <v>1076</v>
+      </c>
+      <c r="K195">
+        <v>14.776705207999999</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -11829,13 +11823,13 @@
         <v>1.5589009561</v>
       </c>
       <c r="I196">
-        <v>303786.54923</v>
+        <v>616302.46215000004</v>
       </c>
       <c r="J196" t="s">
         <v>1076</v>
       </c>
       <c r="K196">
-        <v>2.2306211476</v>
+        <v>2.321346487</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -11856,7 +11850,7 @@
         <v>741</v>
       </c>
       <c r="F197">
-        <v>0.46535010606999999</v>
+        <v>0.48569340155000001</v>
       </c>
       <c r="G197">
         <v>1.0380964973</v>
@@ -11865,13 +11859,13 @@
         <v>2.6441167820000002</v>
       </c>
       <c r="I197">
-        <v>171211.51519999999</v>
+        <v>196791.91746999999</v>
       </c>
       <c r="J197" t="s">
         <v>1076</v>
       </c>
       <c r="K197">
-        <v>7.8115893396000002</v>
+        <v>7.9841589759999998</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
@@ -11901,13 +11895,13 @@
         <v>0.32779094611999998</v>
       </c>
       <c r="I198">
-        <v>6997.0578324999997</v>
+        <v>7591.1006853999997</v>
       </c>
       <c r="J198" t="s">
         <v>1082</v>
       </c>
       <c r="K198">
-        <v>0.30377421804999999</v>
+        <v>0.29878717160000001</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
@@ -11937,13 +11931,10 @@
         <v>4.7736840453999996</v>
       </c>
       <c r="I199">
-        <v>81.741986983999993</v>
+        <v>104.68203078000001</v>
       </c>
       <c r="J199" t="s">
         <v>1076</v>
-      </c>
-      <c r="K199">
-        <v>4.5018632663</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
@@ -12039,13 +12030,13 @@
         <v>0.45983031993000001</v>
       </c>
       <c r="I202">
-        <v>105.35077731</v>
+        <v>3286.4593042000001</v>
       </c>
       <c r="J202" t="s">
         <v>1076</v>
       </c>
       <c r="K202">
-        <v>1.2910404267</v>
+        <v>1.0607828577</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
@@ -12075,7 +12066,7 @@
         <v>0.45983031993000001</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>6.4802170546999998</v>
       </c>
       <c r="J203" t="s">
         <v>1076</v>
@@ -12108,7 +12099,7 @@
         <v>0.45983031993000001</v>
       </c>
       <c r="I204">
-        <v>1.0397756790999999</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>1076</v>
@@ -12141,7 +12132,7 @@
         <v>0.45983031993000001</v>
       </c>
       <c r="I205">
-        <v>0.45282659213999998</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>1076</v>
@@ -12174,13 +12165,13 @@
         <v>3.7332059154000001</v>
       </c>
       <c r="I206">
-        <v>1022309.578</v>
+        <v>1047986.4266</v>
       </c>
       <c r="J206" t="s">
         <v>1076</v>
       </c>
       <c r="K206">
-        <v>5.7646456262000001</v>
+        <v>6.0464622892</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
@@ -12210,13 +12201,13 @@
         <v>0.47823556030999997</v>
       </c>
       <c r="I207">
-        <v>2176.2282899000002</v>
+        <v>2087.1680851000001</v>
       </c>
       <c r="J207" t="s">
         <v>1080</v>
       </c>
       <c r="K207">
-        <v>0.17484678829</v>
+        <v>0.18740497153999999</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
@@ -12246,13 +12237,13 @@
         <v>0.32617671919000002</v>
       </c>
       <c r="I208">
-        <v>1650.7261080000001</v>
+        <v>2049.1872564</v>
       </c>
       <c r="J208" t="s">
         <v>1080</v>
       </c>
       <c r="K208">
-        <v>0.62520972783999995</v>
+        <v>0.66122131466</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
@@ -12315,13 +12306,10 @@
         <v>-13.529357026</v>
       </c>
       <c r="I210">
-        <v>1.5270949049</v>
+        <v>10.533189194</v>
       </c>
       <c r="J210" t="s">
         <v>1080</v>
-      </c>
-      <c r="K210">
-        <v>0.35499196411</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
@@ -12342,7 +12330,7 @@
         <v>755</v>
       </c>
       <c r="F211">
-        <v>0.12315410554</v>
+        <v>0.12983196093999999</v>
       </c>
       <c r="G211">
         <v>0.34191975886999998</v>
@@ -12351,13 +12339,13 @@
         <v>2.4965800099000002</v>
       </c>
       <c r="I211">
-        <v>7530.0648067000002</v>
+        <v>16369.139057</v>
       </c>
       <c r="J211" t="s">
         <v>1091</v>
       </c>
       <c r="K211">
-        <v>1.0225887921000001</v>
+        <v>1.0360312576999999</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
@@ -12387,10 +12375,13 @@
         <v>5.3517426010999998</v>
       </c>
       <c r="I212">
-        <v>32.168676769000001</v>
+        <v>30.509444872</v>
       </c>
       <c r="J212" t="s">
         <v>1080</v>
+      </c>
+      <c r="K212">
+        <v>3.0762702874999999</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
@@ -12420,13 +12411,13 @@
         <v>5.3517426010999998</v>
       </c>
       <c r="I213">
-        <v>2550.0347987</v>
+        <v>2992.3196462000001</v>
       </c>
       <c r="J213" t="s">
         <v>1080</v>
       </c>
       <c r="K213">
-        <v>2.6986453788999998</v>
+        <v>2.7668752873</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
@@ -12486,13 +12477,13 @@
         <v>2.0101160671999998</v>
       </c>
       <c r="I215">
-        <v>14286.675782</v>
+        <v>15605.134324000001</v>
       </c>
       <c r="J215" t="s">
         <v>1084</v>
       </c>
       <c r="K215">
-        <v>1.1108952509000001</v>
+        <v>1.1226618578000001</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
@@ -12552,10 +12543,13 @@
         <v>4.2088414516999997</v>
       </c>
       <c r="I217">
-        <v>17.154141287000002</v>
+        <v>18.328724703999999</v>
       </c>
       <c r="J217" t="s">
         <v>1085</v>
+      </c>
+      <c r="K217">
+        <v>14.120787807999999</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
@@ -12576,7 +12570,7 @@
         <v>762</v>
       </c>
       <c r="F218">
-        <v>5.5303521712000002E-2</v>
+        <v>5.6024261137E-2</v>
       </c>
       <c r="G218">
         <v>0.23302265050000001</v>
@@ -12585,13 +12579,13 @@
         <v>4.3150436456000003</v>
       </c>
       <c r="I218">
-        <v>109398.29917</v>
+        <v>117487.10756</v>
       </c>
       <c r="J218" t="s">
         <v>1084</v>
       </c>
       <c r="K218">
-        <v>2.3295243814000002</v>
+        <v>2.4910717443000001</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
@@ -12621,13 +12615,13 @@
         <v>-0.50786793881000003</v>
       </c>
       <c r="I219">
-        <v>209.02118121000001</v>
+        <v>195.75263715</v>
       </c>
       <c r="J219" t="s">
         <v>1090</v>
       </c>
       <c r="K219">
-        <v>0.77179844933999997</v>
+        <v>0.73370814328</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
@@ -12657,13 +12651,10 @@
         <v>1.9000611490999999</v>
       </c>
       <c r="I220">
-        <v>19.130087067000002</v>
+        <v>13.500806881999999</v>
       </c>
       <c r="J220" t="s">
         <v>1078</v>
-      </c>
-      <c r="K220">
-        <v>2.3842743858</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
@@ -12693,13 +12684,13 @@
         <v>1.9000611490999999</v>
       </c>
       <c r="I221">
-        <v>19943.286500999999</v>
+        <v>19113.732016999998</v>
       </c>
       <c r="J221" t="s">
         <v>1078</v>
       </c>
       <c r="K221">
-        <v>1.4517581816</v>
+        <v>1.4408967151000001</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
@@ -12729,13 +12720,13 @@
         <v>6.4953604893000003</v>
       </c>
       <c r="I222">
-        <v>50.012272498000002</v>
+        <v>50.042249658000003</v>
       </c>
       <c r="J222" t="s">
         <v>1084</v>
       </c>
       <c r="K222">
-        <v>2.1193550096</v>
+        <v>1.4674162866</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
@@ -12756,7 +12747,7 @@
         <v>767</v>
       </c>
       <c r="F223">
-        <v>0.11749202487</v>
+        <v>0.17939507810999999</v>
       </c>
       <c r="G223">
         <v>0.18417267145999999</v>
@@ -12765,13 +12756,13 @@
         <v>1.9014896636</v>
       </c>
       <c r="I223">
-        <v>144773.89785000001</v>
+        <v>234798.99612</v>
       </c>
       <c r="J223" t="s">
         <v>1080</v>
       </c>
       <c r="K223">
-        <v>2.6774518288000002</v>
+        <v>2.8199144301999999</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
@@ -12801,13 +12792,13 @@
         <v>1.4755281785000001</v>
       </c>
       <c r="I224">
-        <v>37147.103258000003</v>
+        <v>44131.696560999997</v>
       </c>
       <c r="J224" t="s">
         <v>1089</v>
       </c>
       <c r="K224">
-        <v>3.366242207</v>
+        <v>3.4899756019999999</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
@@ -12837,13 +12828,13 @@
         <v>1.2519606909000001</v>
       </c>
       <c r="I225">
-        <v>369.66540407999997</v>
+        <v>339.86584147999997</v>
       </c>
       <c r="J225" t="s">
         <v>1077</v>
       </c>
       <c r="K225">
-        <v>0.35852422245999999</v>
+        <v>0.36597008592000002</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
@@ -12867,19 +12858,19 @@
         <v>0</v>
       </c>
       <c r="G226">
-        <v>-0.44770718846000002</v>
+        <v>-0.44770263123999998</v>
       </c>
       <c r="H226">
         <v>5.1375611260999996</v>
       </c>
       <c r="I226">
-        <v>50352.075542999999</v>
+        <v>48459.319631999999</v>
       </c>
       <c r="J226" t="s">
         <v>1084</v>
       </c>
       <c r="K226">
-        <v>0.56339520671999999</v>
+        <v>0.46497648598000002</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
@@ -12939,7 +12930,7 @@
         <v>-87.831090644</v>
       </c>
       <c r="I228">
-        <v>2.2563067266000001</v>
+        <v>1.6953129399</v>
       </c>
       <c r="J228" t="s">
         <v>1080</v>
@@ -12972,13 +12963,13 @@
         <v>4.0322837676000001</v>
       </c>
       <c r="I229">
-        <v>8.9734436080000002</v>
+        <v>11.637333509999999</v>
       </c>
       <c r="J229" t="s">
         <v>1076</v>
       </c>
       <c r="K229">
-        <v>4.5919358541999999</v>
+        <v>4.6762844312</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
@@ -13008,13 +12999,13 @@
         <v>4.0322837676000001</v>
       </c>
       <c r="I230">
-        <v>47.211956334</v>
+        <v>53.598826664000001</v>
       </c>
       <c r="J230" t="s">
         <v>1076</v>
       </c>
       <c r="K230">
-        <v>4.6890729587999997</v>
+        <v>4.8530815742</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
@@ -13035,7 +13026,7 @@
         <v>775</v>
       </c>
       <c r="F231">
-        <v>0.22349629122</v>
+        <v>0.17320448589000001</v>
       </c>
       <c r="G231">
         <v>0.60446241632999997</v>
@@ -13044,13 +13035,13 @@
         <v>4.9401000089</v>
       </c>
       <c r="I231">
-        <v>2339.0548313999998</v>
+        <v>3149.9544525000001</v>
       </c>
       <c r="J231" t="s">
         <v>1078</v>
       </c>
       <c r="K231">
-        <v>2.8081453877999998</v>
+        <v>2.8658816873999999</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
@@ -13071,7 +13062,7 @@
         <v>776</v>
       </c>
       <c r="F232">
-        <v>0.22349629122</v>
+        <v>0.17320448589000001</v>
       </c>
       <c r="G232">
         <v>0.60446241632999997</v>
@@ -13080,13 +13071,13 @@
         <v>4.9401000089</v>
       </c>
       <c r="I232">
-        <v>680529.94802999997</v>
+        <v>768995.72378</v>
       </c>
       <c r="J232" t="s">
         <v>1078</v>
       </c>
       <c r="K232">
-        <v>3.2249518730000002</v>
+        <v>3.2353877161</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
@@ -13107,7 +13098,7 @@
         <v>777</v>
       </c>
       <c r="F233">
-        <v>0.28970114625999999</v>
+        <v>0.25192761778</v>
       </c>
       <c r="G233">
         <v>0.41694531059000001</v>
@@ -13116,13 +13107,13 @@
         <v>3.4293656004000002</v>
       </c>
       <c r="I233">
-        <v>1491.9506335999999</v>
+        <v>1698.4424240999999</v>
       </c>
       <c r="J233" t="s">
         <v>1078</v>
       </c>
       <c r="K233">
-        <v>1.8879920877</v>
+        <v>1.8652098582000001</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
@@ -13143,7 +13134,7 @@
         <v>778</v>
       </c>
       <c r="F234">
-        <v>0.28970114625999999</v>
+        <v>0.25192761778</v>
       </c>
       <c r="G234">
         <v>0.41694531059000001</v>
@@ -13152,13 +13143,13 @@
         <v>3.4293656004000002</v>
       </c>
       <c r="I234">
-        <v>231877.43030000001</v>
+        <v>254331.63456000001</v>
       </c>
       <c r="J234" t="s">
         <v>1078</v>
       </c>
       <c r="K234">
-        <v>1.8773953127</v>
+        <v>1.8546020296000001</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
@@ -13188,13 +13179,13 @@
         <v>1.1163588178999999</v>
       </c>
       <c r="I235">
-        <v>269.83635350999998</v>
+        <v>293.85372963999998</v>
       </c>
       <c r="J235" t="s">
         <v>1082</v>
       </c>
       <c r="K235">
-        <v>0.83714522879999997</v>
+        <v>0.83094657189999999</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
@@ -13254,13 +13245,13 @@
         <v>-9.2536666724999996</v>
       </c>
       <c r="I237">
-        <v>38571.011845000001</v>
+        <v>16840.022131000002</v>
       </c>
       <c r="J237" t="s">
         <v>1081</v>
       </c>
       <c r="K237">
-        <v>0.20133872590999999</v>
+        <v>0.19094091438999999</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
@@ -13290,13 +13281,13 @@
         <v>1.8714763955</v>
       </c>
       <c r="I238">
-        <v>280.39783905000002</v>
+        <v>5348.0115372999999</v>
       </c>
       <c r="J238" t="s">
         <v>1080</v>
       </c>
       <c r="K238">
-        <v>0.67112908638000002</v>
+        <v>0.70718857182999995</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
@@ -13326,13 +13317,13 @@
         <v>0.93893239471000001</v>
       </c>
       <c r="I239">
-        <v>183099.61898999999</v>
+        <v>199288.32295</v>
       </c>
       <c r="J239" t="s">
         <v>1080</v>
       </c>
       <c r="K239">
-        <v>3.0730647640000002</v>
+        <v>3.1911884304</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
@@ -13392,13 +13383,10 @@
         <v>8.8676173177000006</v>
       </c>
       <c r="I241">
-        <v>76.452476851</v>
+        <v>153.27325298</v>
       </c>
       <c r="J241" t="s">
         <v>1082</v>
-      </c>
-      <c r="K241">
-        <v>4.3552745448000003</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
@@ -13428,13 +13416,13 @@
         <v>8.8676173177000006</v>
       </c>
       <c r="I242">
-        <v>401.73058028000003</v>
+        <v>679.02334612000004</v>
       </c>
       <c r="J242" t="s">
         <v>1082</v>
       </c>
       <c r="K242">
-        <v>4.3958955158000004</v>
+        <v>4.4711997453999999</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
@@ -13455,7 +13443,7 @@
         <v>786</v>
       </c>
       <c r="F243">
-        <v>6.3638980809000004E-2</v>
+        <v>6.2507348672000002E-2</v>
       </c>
       <c r="G243">
         <v>0.12740182209000001</v>
@@ -13464,13 +13452,13 @@
         <v>0.81414295720999996</v>
       </c>
       <c r="I243">
-        <v>20122.186827000001</v>
+        <v>24837.481906000001</v>
       </c>
       <c r="J243" t="s">
         <v>1083</v>
       </c>
       <c r="K243">
-        <v>1.0384839547</v>
+        <v>1.0607828577</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
@@ -13500,13 +13488,13 @@
         <v>0.79853384290999996</v>
       </c>
       <c r="I244">
-        <v>98854.581176000007</v>
+        <v>90888.715188000002</v>
       </c>
       <c r="J244" t="s">
         <v>1082</v>
       </c>
       <c r="K244">
-        <v>1.1815404179</v>
+        <v>1.3931614864999999</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
@@ -13536,13 +13524,13 @@
         <v>3.1925570451</v>
       </c>
       <c r="I245">
-        <v>350949.56624000001</v>
+        <v>640687.54264</v>
       </c>
       <c r="J245" t="s">
         <v>1082</v>
       </c>
       <c r="K245">
-        <v>2.6368308578000001</v>
+        <v>2.3956012870999999</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
@@ -13572,13 +13560,13 @@
         <v>2.1394846838000001</v>
       </c>
       <c r="I246">
-        <v>113816.71879</v>
+        <v>112118.26052</v>
       </c>
       <c r="J246" t="s">
         <v>1082</v>
       </c>
       <c r="K246">
-        <v>2.6703873120999999</v>
+        <v>3.0568226017</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
@@ -13608,13 +13596,10 @@
         <v>1.4817598293000001</v>
       </c>
       <c r="I247">
-        <v>154919.6361</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
         <v>1082</v>
-      </c>
-      <c r="K247">
-        <v>1.0490807298</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
@@ -13644,13 +13629,13 @@
         <v>2.0484094353</v>
       </c>
       <c r="I248">
-        <v>42597.880602999998</v>
+        <v>47966.140439000003</v>
       </c>
       <c r="J248" t="s">
         <v>1083</v>
       </c>
       <c r="K248">
-        <v>1.2097984847000001</v>
+        <v>1.5310632580000001</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
@@ -13710,10 +13695,13 @@
         <v>14.873998789</v>
       </c>
       <c r="I250">
-        <v>11.490474218999999</v>
+        <v>9.4931037240999991</v>
       </c>
       <c r="J250" t="s">
         <v>1080</v>
+      </c>
+      <c r="K250">
+        <v>6.8774088611000002</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
@@ -13773,13 +13761,13 @@
         <v>-0.88730007914999998</v>
       </c>
       <c r="I252">
-        <v>167.74702547000001</v>
+        <v>109.9450949</v>
       </c>
       <c r="J252" t="s">
         <v>1078</v>
       </c>
       <c r="K252">
-        <v>0.46979036047</v>
+        <v>0.41900922881000002</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
@@ -13809,13 +13797,13 @@
         <v>-0.88730007914999998</v>
       </c>
       <c r="I253">
-        <v>30.310054768000001</v>
+        <v>89.375513209999994</v>
       </c>
       <c r="J253" t="s">
         <v>1078</v>
       </c>
       <c r="K253">
-        <v>0.20487098426</v>
+        <v>0.21038860011999999</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
@@ -13845,13 +13833,13 @@
         <v>1.3133192775</v>
       </c>
       <c r="I254">
-        <v>776493.74037999997</v>
+        <v>1121638.2608</v>
       </c>
       <c r="J254" t="s">
         <v>1080</v>
       </c>
       <c r="K254">
-        <v>0.71881457410000005</v>
+        <v>0.74961988613999997</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
@@ -13881,13 +13869,13 @@
         <v>3.9604113982000002</v>
       </c>
       <c r="I255">
-        <v>7983.3758580000003</v>
+        <v>6170.4042185999997</v>
       </c>
       <c r="J255" t="s">
         <v>1084</v>
       </c>
       <c r="K255">
-        <v>0.97137104608000002</v>
+        <v>0.94940065769000004</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
@@ -13917,13 +13905,13 @@
         <v>2.1325399882</v>
       </c>
       <c r="I256">
-        <v>4328.7719127999999</v>
+        <v>4102.5498930000003</v>
       </c>
       <c r="J256" t="s">
         <v>1084</v>
       </c>
       <c r="K256">
-        <v>0.39384680595999999</v>
+        <v>0.36597008592000002</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
@@ -13986,10 +13974,13 @@
         <v>-137.99887502000001</v>
       </c>
       <c r="I258">
-        <v>4.4316654040000003</v>
+        <v>1.1576580058999999</v>
       </c>
       <c r="J258" t="s">
         <v>1078</v>
+      </c>
+      <c r="K258">
+        <v>1.0413351719999999</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
@@ -14019,13 +14010,13 @@
         <v>0.35316661714000003</v>
       </c>
       <c r="I259">
-        <v>64577.501183</v>
+        <v>36085.618238000003</v>
       </c>
       <c r="J259" t="s">
         <v>1081</v>
       </c>
       <c r="K259">
-        <v>0.62167746949000002</v>
+        <v>0.61702202892000002</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
@@ -14046,7 +14037,7 @@
         <v>803</v>
       </c>
       <c r="G260">
-        <v>7.8464096958999995E-3</v>
+        <v>9.4084456391999999E-3</v>
       </c>
       <c r="H260">
         <v>0.24918805614</v>
@@ -14115,13 +14106,13 @@
         <v>-1.4042459772</v>
       </c>
       <c r="I262">
-        <v>13.574453058</v>
+        <v>36.624602887999998</v>
       </c>
       <c r="J262" t="s">
         <v>1080</v>
       </c>
       <c r="K262">
-        <v>0.43446777697</v>
+        <v>0.41900922881000002</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
@@ -14151,13 +14142,13 @@
         <v>3.7027578558999998</v>
       </c>
       <c r="I263">
-        <v>527358.08733000001</v>
+        <v>401548.59334999998</v>
       </c>
       <c r="J263" t="s">
         <v>1080</v>
       </c>
       <c r="K263">
-        <v>5.0864520230999997</v>
+        <v>5.0457904600000001</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
@@ -14217,13 +14208,13 @@
         <v>0.69282779207</v>
       </c>
       <c r="I265">
-        <v>421.14319415</v>
+        <v>463.57995663000003</v>
       </c>
       <c r="J265" t="s">
         <v>1080</v>
       </c>
       <c r="K265">
-        <v>0.45742745623999997</v>
+        <v>0.49149605742000002</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
@@ -14253,7 +14244,7 @@
         <v>0.69282779207</v>
       </c>
       <c r="I266">
-        <v>7.1635932581999997</v>
+        <v>4.1694993355000003</v>
       </c>
       <c r="J266" t="s">
         <v>1080</v>
@@ -14286,13 +14277,13 @@
         <v>0.69282779207</v>
       </c>
       <c r="I267">
-        <v>220356.97107999999</v>
+        <v>243278.40565</v>
       </c>
       <c r="J267" t="s">
         <v>1080</v>
       </c>
       <c r="K267">
-        <v>3.7230003001999998</v>
+        <v>3.9054488879</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
@@ -14322,13 +14313,13 @@
         <v>0.70552100502000004</v>
       </c>
       <c r="I268">
-        <v>4251.4269309000001</v>
+        <v>4858.6031574999997</v>
       </c>
       <c r="J268" t="s">
         <v>1082</v>
       </c>
       <c r="K268">
-        <v>0.27904840959999999</v>
+        <v>0.28110745729999997</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
@@ -14448,13 +14439,13 @@
         <v>-5.3422854744999997</v>
       </c>
       <c r="I272">
-        <v>499.35924847000001</v>
+        <v>602.52001805999998</v>
       </c>
       <c r="J272" t="s">
         <v>1080</v>
       </c>
       <c r="K272">
-        <v>0.33379841401999999</v>
+        <v>0.36066617162999998</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
@@ -14484,13 +14475,13 @@
         <v>-5.3422854744999997</v>
       </c>
       <c r="I273">
-        <v>386.69903653</v>
+        <v>461.01205263000003</v>
       </c>
       <c r="J273" t="s">
         <v>1080</v>
       </c>
       <c r="K273">
-        <v>0.35145970576000002</v>
+        <v>0.37480994306999998</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
@@ -14520,13 +14511,13 @@
         <v>0.48215877504999999</v>
       </c>
       <c r="I274">
-        <v>13274.896726000001</v>
+        <v>20142.074874000002</v>
       </c>
       <c r="J274" t="s">
         <v>1082</v>
       </c>
       <c r="K274">
-        <v>6.0048391939000002E-2</v>
+        <v>2.4751600014000001E-2</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
@@ -14547,7 +14538,7 @@
         <v>817</v>
       </c>
       <c r="F275">
-        <v>0.12861653747999999</v>
+        <v>0.12674205168</v>
       </c>
       <c r="G275">
         <v>0.34603758698999998</v>
@@ -14556,13 +14547,13 @@
         <v>1.6229201808</v>
       </c>
       <c r="I275">
-        <v>111438.74458</v>
+        <v>79903.291436</v>
       </c>
       <c r="J275" t="s">
         <v>1092</v>
       </c>
       <c r="K275">
-        <v>3.6853942647000002</v>
+        <v>3.8966090308000001</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
@@ -14718,13 +14709,13 @@
         <v>5.0612051323999996</v>
       </c>
       <c r="I280">
-        <v>48850.570535999999</v>
+        <v>51552.268634</v>
       </c>
       <c r="J280" t="s">
         <v>1089</v>
       </c>
       <c r="K280">
-        <v>2.2058953392</v>
+        <v>2.0455429440000001</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
@@ -14745,7 +14736,7 @@
         <v>823</v>
       </c>
       <c r="F281">
-        <v>0.14711458205</v>
+        <v>0.10798899184999999</v>
       </c>
       <c r="G281">
         <v>0.28406122306999998</v>
@@ -14754,13 +14745,13 @@
         <v>1.1019032013000001</v>
       </c>
       <c r="I281">
-        <v>31381.618193999999</v>
+        <v>39391.161386</v>
       </c>
       <c r="J281" t="s">
         <v>1093</v>
       </c>
       <c r="K281">
-        <v>1.4906130233999999</v>
+        <v>1.4126091722</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
@@ -14790,13 +14781,13 @@
         <v>10.899497658</v>
       </c>
       <c r="I282">
-        <v>111709.11138</v>
+        <v>404862.77549999999</v>
       </c>
       <c r="J282" t="s">
         <v>1077</v>
       </c>
       <c r="K282">
-        <v>5.1765246109999996</v>
+        <v>8.5534457763000002</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
@@ -14817,7 +14808,7 @@
         <v>825</v>
       </c>
       <c r="F283">
-        <v>0.15908967451</v>
+        <v>0.15459131101000001</v>
       </c>
       <c r="G283">
         <v>0.27657938030000001</v>
@@ -14826,13 +14817,13 @@
         <v>1.5589989956000001</v>
       </c>
       <c r="I283">
-        <v>3906.6670288999999</v>
+        <v>8417.5375653999999</v>
       </c>
       <c r="J283" t="s">
         <v>1080</v>
       </c>
       <c r="K283">
-        <v>1.7979194998000001</v>
+        <v>1.9264648526999999</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
@@ -14853,7 +14844,7 @@
         <v>826</v>
       </c>
       <c r="F284">
-        <v>0.15908967451</v>
+        <v>0.15459131101000001</v>
       </c>
       <c r="G284">
         <v>0.27657938030000001</v>
@@ -14862,13 +14853,13 @@
         <v>1.5589989956000001</v>
       </c>
       <c r="I284">
-        <v>775288.92535000003</v>
+        <v>1026353.4878999999</v>
       </c>
       <c r="J284" t="s">
         <v>1080</v>
       </c>
       <c r="K284">
-        <v>1.7961533706999999</v>
+        <v>1.9335367384</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
@@ -14889,7 +14880,7 @@
         <v>827</v>
       </c>
       <c r="F285">
-        <v>0.47106602183000001</v>
+        <v>0.47046078912</v>
       </c>
       <c r="G285">
         <v>0.71006140302999998</v>
@@ -14898,13 +14889,13 @@
         <v>3.593417139</v>
       </c>
       <c r="I285">
-        <v>38199.441501000001</v>
+        <v>59966.148437999997</v>
       </c>
       <c r="J285" t="s">
         <v>1077</v>
       </c>
       <c r="K285">
-        <v>5.1398509387000004</v>
+        <v>5.6207966478999998</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
@@ -14925,7 +14916,7 @@
         <v>828</v>
       </c>
       <c r="F286">
-        <v>0.47106602183000001</v>
+        <v>0.47046078912</v>
       </c>
       <c r="G286">
         <v>0.71006140302999998</v>
@@ -14934,13 +14925,13 @@
         <v>3.593417139</v>
       </c>
       <c r="I286">
-        <v>2645405.9863999998</v>
+        <v>3876017.1266000001</v>
       </c>
       <c r="J286" t="s">
         <v>1077</v>
       </c>
       <c r="K286">
-        <v>5.9805284258000002</v>
+        <v>6.485334677</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
@@ -14961,7 +14952,7 @@
         <v>829</v>
       </c>
       <c r="F287">
-        <v>0.10534962615</v>
+        <v>1.2002155969E-2</v>
       </c>
       <c r="G287">
         <v>5.7206661366999999E-2</v>
@@ -14970,13 +14961,13 @@
         <v>1.3771196154000001</v>
       </c>
       <c r="I287">
-        <v>19471.386556000001</v>
+        <v>16409.472457</v>
       </c>
       <c r="J287" t="s">
         <v>1080</v>
       </c>
       <c r="K287">
-        <v>1.2362904223</v>
+        <v>1.1880768007</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
@@ -14997,7 +14988,7 @@
         <v>830</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>0.36875195899000002</v>
       </c>
       <c r="G288">
         <v>0.18386661857</v>
@@ -15006,13 +14997,13 @@
         <v>3.9888715639000001</v>
       </c>
       <c r="I288">
-        <v>737793.68660999998</v>
+        <v>1221026.6680000001</v>
       </c>
       <c r="J288" t="s">
         <v>1085</v>
       </c>
       <c r="K288">
-        <v>5.9553875769999998</v>
+        <v>6.1879000035000002</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
@@ -15033,7 +15024,7 @@
         <v>831</v>
       </c>
       <c r="F289">
-        <v>6.0562863351000001E-2</v>
+        <v>6.2399459228999997E-2</v>
       </c>
       <c r="G289">
         <v>0.14788661832</v>
@@ -15042,13 +15033,13 @@
         <v>1.4682956777</v>
       </c>
       <c r="I289">
-        <v>54872.560128999998</v>
+        <v>61294.739834</v>
       </c>
       <c r="J289" t="s">
         <v>1084</v>
       </c>
       <c r="K289">
-        <v>0.71511468928999999</v>
+        <v>0.77260351473</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
@@ -15078,13 +15069,13 @@
         <v>-7.1641775643000001</v>
       </c>
       <c r="I290">
-        <v>10669.058621</v>
+        <v>3628.5303718</v>
       </c>
       <c r="J290" t="s">
         <v>1084</v>
       </c>
       <c r="K290">
-        <v>6.1814521114000001E-2</v>
+        <v>3.7127400020999998E-2</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
@@ -15114,13 +15105,13 @@
         <v>11.081092202000001</v>
       </c>
       <c r="I291">
-        <v>5.5596819585999997</v>
+        <v>4.5271432723</v>
       </c>
       <c r="J291" t="s">
         <v>1085</v>
       </c>
       <c r="K291">
-        <v>4.0426696808999996</v>
+        <v>4.0309748593999997</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
@@ -15183,13 +15174,13 @@
         <v>1.1946764997999999</v>
       </c>
       <c r="I293">
-        <v>14035.529105</v>
+        <v>24424.278599000001</v>
       </c>
       <c r="J293" t="s">
         <v>1081</v>
       </c>
       <c r="K293">
-        <v>1.6689920701000001</v>
+        <v>1.7520596867</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
@@ -15249,7 +15240,7 @@
         <v>-3.2765594841999999</v>
       </c>
       <c r="I295">
-        <v>4.0694849991000002</v>
+        <v>0.36595853690000002</v>
       </c>
       <c r="J295" t="s">
         <v>1083</v>
@@ -15282,10 +15273,13 @@
         <v>-3.2765594841999999</v>
       </c>
       <c r="I296">
-        <v>39.565948689000003</v>
+        <v>127.88603261999999</v>
       </c>
       <c r="J296" t="s">
         <v>1083</v>
+      </c>
+      <c r="K296">
+        <v>3.4475442877</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
@@ -15306,7 +15300,7 @@
         <v>839</v>
       </c>
       <c r="F297">
-        <v>0.20077841041</v>
+        <v>0.15316252480000001</v>
       </c>
       <c r="G297">
         <v>0.27796811001999999</v>
@@ -15315,13 +15309,13 @@
         <v>0.88295549967999998</v>
       </c>
       <c r="I297">
-        <v>41125.882753999998</v>
+        <v>48688.086523999998</v>
       </c>
       <c r="J297" t="s">
         <v>1078</v>
       </c>
       <c r="K297">
-        <v>1.8685646668</v>
+        <v>1.9748240868</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
@@ -15342,7 +15336,7 @@
         <v>840</v>
       </c>
       <c r="F298">
-        <v>4.2599986664E-2</v>
+        <v>4.5180419584000001E-2</v>
       </c>
       <c r="G298">
         <v>6.4536881963999995E-2</v>
@@ -15351,13 +15345,13 @@
         <v>0.37306734906</v>
       </c>
       <c r="I298">
-        <v>5084.1605333999996</v>
+        <v>5348.4839635999997</v>
       </c>
       <c r="J298" t="s">
         <v>1093</v>
       </c>
       <c r="K298">
-        <v>0.77709683685999997</v>
+        <v>0.76376365757999998</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
@@ -15378,7 +15372,7 @@
         <v>841</v>
       </c>
       <c r="F299">
-        <v>4.2599986664E-2</v>
+        <v>4.5180419584000001E-2</v>
       </c>
       <c r="G299">
         <v>6.4536881963999995E-2</v>
@@ -15387,13 +15381,13 @@
         <v>0.37306734906</v>
       </c>
       <c r="I299">
-        <v>20024.359548</v>
+        <v>23406.067535999999</v>
       </c>
       <c r="J299" t="s">
         <v>1093</v>
       </c>
       <c r="K299">
-        <v>0.77709683685999997</v>
+        <v>0.77083554330000004</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -15414,7 +15408,7 @@
         <v>842</v>
       </c>
       <c r="F300">
-        <v>4.2599986664E-2</v>
+        <v>4.5180419584000001E-2</v>
       </c>
       <c r="G300">
         <v>6.4536881963999995E-2</v>
@@ -15423,13 +15417,13 @@
         <v>0.37306734906</v>
       </c>
       <c r="I300">
-        <v>366733.11187000002</v>
+        <v>330054.81143</v>
       </c>
       <c r="J300" t="s">
         <v>1093</v>
       </c>
       <c r="K300">
-        <v>3.9013793469000002</v>
+        <v>3.8170503165</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
@@ -15459,13 +15453,13 @@
         <v>0.24996270513999999</v>
       </c>
       <c r="I301">
-        <v>2188.9220317999998</v>
+        <v>1276.2165193000001</v>
       </c>
       <c r="J301" t="s">
         <v>1080</v>
       </c>
       <c r="K301">
-        <v>0.12716130058</v>
+        <v>0.1078462572</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
@@ -15486,7 +15480,7 @@
         <v>844</v>
       </c>
       <c r="F302">
-        <v>0.12905431766</v>
+        <v>0.12688673803</v>
       </c>
       <c r="G302">
         <v>0.2825028436</v>
@@ -15495,13 +15489,13 @@
         <v>1.3529584351999999</v>
       </c>
       <c r="I302">
-        <v>25001.855364999999</v>
+        <v>20005.453582999999</v>
       </c>
       <c r="J302" t="s">
         <v>1084</v>
       </c>
       <c r="K302">
-        <v>1.5736210946</v>
+        <v>1.4674162866</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
@@ -15591,13 +15585,13 @@
         <v>1.4715308491000001</v>
       </c>
       <c r="I305">
-        <v>14489.665677000001</v>
+        <v>35578.411199000002</v>
       </c>
       <c r="J305" t="s">
         <v>1076</v>
       </c>
       <c r="K305">
-        <v>0.73117747832000002</v>
+        <v>1.1315017149</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
@@ -15681,13 +15675,13 @@
         <v>4.9031369254000001</v>
       </c>
       <c r="I308">
-        <v>1396142.6155000001</v>
+        <v>2657066.0767999999</v>
       </c>
       <c r="J308" t="s">
         <v>1080</v>
       </c>
       <c r="K308">
-        <v>7.7409441726999999</v>
+        <v>7.3140978042000002</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
@@ -15717,13 +15711,13 @@
         <v>7.4889146167999998</v>
       </c>
       <c r="I309">
-        <v>46723.367524000001</v>
+        <v>38824.742549000002</v>
       </c>
       <c r="J309" t="s">
         <v>1084</v>
       </c>
       <c r="K309">
-        <v>3.8395648258000001</v>
+        <v>4.1370531452000003</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
@@ -15753,13 +15747,13 @@
         <v>1.7995868590999999</v>
       </c>
       <c r="I310">
-        <v>3723.2368538999999</v>
+        <v>1829.3835756000001</v>
       </c>
       <c r="J310" t="s">
         <v>1081</v>
       </c>
       <c r="K310">
-        <v>6.6088553716999998</v>
+        <v>6.1896679749999999</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
@@ -15789,13 +15783,13 @@
         <v>-0.42098595445999998</v>
       </c>
       <c r="I311">
-        <v>2644.5618914000001</v>
+        <v>2372.8787548999999</v>
       </c>
       <c r="J311" t="s">
         <v>1082</v>
       </c>
       <c r="K311">
-        <v>0.25432260114999999</v>
+        <v>0.20685265725999999</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
@@ -15825,13 +15819,13 @@
         <v>2.1142757614000001</v>
       </c>
       <c r="I312">
-        <v>788503.22378999996</v>
+        <v>1936292.7734000001</v>
       </c>
       <c r="J312" t="s">
         <v>1082</v>
       </c>
       <c r="K312">
-        <v>2.3418872855999999</v>
+        <v>3.0073194016999998</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
@@ -15861,13 +15855,13 @@
         <v>0.31228354491999999</v>
       </c>
       <c r="I313">
-        <v>584.75185342999998</v>
+        <v>795.88153123999996</v>
       </c>
       <c r="J313" t="s">
         <v>1080</v>
       </c>
       <c r="K313">
-        <v>0.30730647639999997</v>
+        <v>0.29171528588000001</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
@@ -15897,13 +15891,13 @@
         <v>0.75146306521999995</v>
       </c>
       <c r="I314">
-        <v>2090.0278951</v>
+        <v>896.56902415000002</v>
       </c>
       <c r="J314" t="s">
         <v>1078</v>
       </c>
       <c r="K314">
-        <v>0.30907260556999999</v>
+        <v>0.26873165729999998</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
@@ -15933,13 +15927,13 @@
         <v>0.98556464394999999</v>
       </c>
       <c r="I315">
-        <v>125134.37512</v>
+        <v>125595.51469</v>
       </c>
       <c r="J315" t="s">
         <v>1088</v>
       </c>
       <c r="K315">
-        <v>0.77709683685999997</v>
+        <v>0.80442700046000004</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
@@ -15969,13 +15963,13 @@
         <v>4.6133886154999999</v>
       </c>
       <c r="I316">
-        <v>96146.170203999995</v>
+        <v>91789.933810999995</v>
       </c>
       <c r="J316" t="s">
         <v>1085</v>
       </c>
       <c r="K316">
-        <v>4.7579519966000001</v>
+        <v>4.8018104027000001</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
@@ -16035,13 +16029,13 @@
         <v>2.9742220429000001</v>
       </c>
       <c r="I318">
-        <v>1028124.0186</v>
+        <v>1159100.987</v>
       </c>
       <c r="J318" t="s">
         <v>1082</v>
       </c>
       <c r="K318">
-        <v>1.9551049964</v>
+        <v>2.1498532583999999</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
@@ -16104,13 +16098,13 @@
         <v>1.1687513693</v>
       </c>
       <c r="I320">
-        <v>121.81284531999999</v>
+        <v>220.38241758000001</v>
       </c>
       <c r="J320" t="s">
         <v>1078</v>
       </c>
       <c r="K320">
-        <v>2.2977340562999999</v>
+        <v>1.9447685724999999</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
@@ -16131,7 +16125,7 @@
         <v>863</v>
       </c>
       <c r="F321">
-        <v>8.6273257281999999E-2</v>
+        <v>0.10796719202000001</v>
       </c>
       <c r="G321">
         <v>0.15696395142</v>
@@ -16140,13 +16134,13 @@
         <v>0.63182055245000002</v>
       </c>
       <c r="I321">
-        <v>4426.6547444999997</v>
+        <v>5072.5393390999998</v>
       </c>
       <c r="J321" t="s">
         <v>1089</v>
       </c>
       <c r="K321">
-        <v>0.83184684127999997</v>
+        <v>1.0201195149</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
@@ -16167,7 +16161,7 @@
         <v>864</v>
       </c>
       <c r="F322">
-        <v>8.6273257281999999E-2</v>
+        <v>0.10796719202000001</v>
       </c>
       <c r="G322">
         <v>0.15696395142</v>
@@ -16176,13 +16170,13 @@
         <v>0.63182055245000002</v>
       </c>
       <c r="I322">
-        <v>147284.71421999999</v>
+        <v>290346.73517</v>
       </c>
       <c r="J322" t="s">
         <v>1089</v>
       </c>
       <c r="K322">
-        <v>1.072040409</v>
+        <v>1.2994590007</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
@@ -16212,13 +16206,13 @@
         <v>1.5903454021000001</v>
       </c>
       <c r="I323">
-        <v>261274.18807999999</v>
+        <v>304731.67998000002</v>
       </c>
       <c r="J323" t="s">
         <v>1085</v>
       </c>
       <c r="K323">
-        <v>1.9974920966</v>
+        <v>2.5741664014999999</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
@@ -16248,13 +16242,13 @@
         <v>0.88104544061000001</v>
       </c>
       <c r="I324">
-        <v>12134.467279</v>
+        <v>11635.317096999999</v>
       </c>
       <c r="J324" t="s">
         <v>1080</v>
       </c>
       <c r="K324">
-        <v>0.82654845374999997</v>
+        <v>0.82387468619000004</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
@@ -16284,7 +16278,7 @@
         <v>26.024279859</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>65.373770555999997</v>
       </c>
       <c r="J325" t="s">
         <v>1093</v>
@@ -16317,7 +16311,7 @@
         <v>26.024279859</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>9.1838257165999995</v>
       </c>
       <c r="J326" t="s">
         <v>1093</v>
@@ -16350,13 +16344,13 @@
         <v>1.8374194186999999</v>
       </c>
       <c r="I327">
-        <v>31982.776266000001</v>
+        <v>36469.742919999997</v>
       </c>
       <c r="J327" t="s">
         <v>1088</v>
       </c>
       <c r="K327">
-        <v>0.98373395029999999</v>
+        <v>1.2199002863999999</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
@@ -16386,13 +16380,13 @@
         <v>1.2210007074</v>
       </c>
       <c r="I328">
-        <v>2856.8381307</v>
+        <v>11524.026456</v>
       </c>
       <c r="J328" t="s">
         <v>1084</v>
       </c>
       <c r="K328">
-        <v>0.60931456527000005</v>
+        <v>0.59934231462999998</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
@@ -16485,7 +16479,7 @@
         <v>2.7362827954000002</v>
       </c>
       <c r="I331">
-        <v>9.4377135275999997</v>
+        <v>1.7255617250999999</v>
       </c>
       <c r="J331" t="s">
         <v>1077</v>
@@ -16518,7 +16512,7 @@
         <v>5.6606751701000002</v>
       </c>
       <c r="I332">
-        <v>0.35888055606000002</v>
+        <v>3.4198979810000001</v>
       </c>
       <c r="J332" t="s">
         <v>1077</v>
@@ -16551,13 +16545,10 @@
         <v>5.6606751701000002</v>
       </c>
       <c r="I333">
-        <v>14.199361436</v>
+        <v>6.0719811743000003</v>
       </c>
       <c r="J333" t="s">
         <v>1077</v>
-      </c>
-      <c r="K333">
-        <v>2.8258066794999999</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
@@ -16578,7 +16569,7 @@
         <v>876</v>
       </c>
       <c r="F334">
-        <v>0.41364444632000003</v>
+        <v>0.32191154637000002</v>
       </c>
       <c r="G334">
         <v>0.99209804090999998</v>
@@ -16587,13 +16578,13 @@
         <v>3.2039395449999999</v>
       </c>
       <c r="I334">
-        <v>105.69179966</v>
+        <v>329.18680664999999</v>
       </c>
       <c r="J334" t="s">
         <v>1077</v>
       </c>
       <c r="K334">
-        <v>5.3690326911000001</v>
+        <v>6.3646971465000002</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
@@ -16614,7 +16605,7 @@
         <v>877</v>
       </c>
       <c r="F335">
-        <v>0.45500848524999998</v>
+        <v>0.35410247927999999</v>
       </c>
       <c r="G335">
         <v>0.99209804090999998</v>
@@ -16623,13 +16614,13 @@
         <v>3.2039395449999999</v>
       </c>
       <c r="I335">
-        <v>1475.8097848</v>
+        <v>2319.7188015000002</v>
       </c>
       <c r="J335" t="s">
         <v>1077</v>
       </c>
       <c r="K335">
-        <v>5.5279843167999996</v>
+        <v>6.8950885754</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
@@ -16659,13 +16650,13 @@
         <v>1.6355741145</v>
       </c>
       <c r="I336">
-        <v>43543.529299000002</v>
+        <v>59128.487138999997</v>
       </c>
       <c r="J336" t="s">
         <v>1089</v>
       </c>
       <c r="K336">
-        <v>5.9606859645999997</v>
+        <v>5.6681164032</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
@@ -16695,13 +16686,13 @@
         <v>10.80997108</v>
       </c>
       <c r="I337">
-        <v>2474.1293175999999</v>
+        <v>2328.7521329000001</v>
       </c>
       <c r="J337" t="s">
         <v>1079</v>
       </c>
       <c r="K337">
-        <v>44.151463237999998</v>
+        <v>33.591457161999998</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
@@ -16764,13 +16755,13 @@
         <v>10.21885076</v>
       </c>
       <c r="I339">
-        <v>471.47888222</v>
+        <v>747.28507277000006</v>
       </c>
       <c r="J339" t="s">
         <v>1078</v>
       </c>
       <c r="K339">
-        <v>7.9122587026</v>
+        <v>7.9346557759999996</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
@@ -16791,7 +16782,7 @@
         <v>882</v>
       </c>
       <c r="F340">
-        <v>6.3095196714000004E-2</v>
+        <v>0.10244943256</v>
       </c>
       <c r="G340">
         <v>0.23149503423000001</v>
@@ -16800,13 +16791,13 @@
         <v>1.2527566499</v>
       </c>
       <c r="I340">
-        <v>42718.667563000003</v>
+        <v>34985.207354999999</v>
       </c>
       <c r="J340" t="s">
         <v>1080</v>
       </c>
       <c r="K340">
-        <v>1.9621695131000001</v>
+        <v>1.946536544</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
@@ -16890,7 +16881,7 @@
         <v>885</v>
       </c>
       <c r="F343">
-        <v>3.9262307896E-2</v>
+        <v>0</v>
       </c>
       <c r="G343">
         <v>3.4251867668000001E-2</v>
@@ -16899,13 +16890,13 @@
         <v>7.4118966064999998E-3</v>
       </c>
       <c r="I343">
-        <v>141096.35699</v>
+        <v>268359.31838999997</v>
       </c>
       <c r="J343" t="s">
         <v>1085</v>
       </c>
       <c r="K343">
-        <v>1.1108952509000001</v>
+        <v>1.3242106008000001</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
@@ -16935,13 +16926,13 @@
         <v>-8.8803547034000001</v>
       </c>
       <c r="I344">
-        <v>257.55479300000002</v>
+        <v>149.56173082000001</v>
       </c>
       <c r="J344" t="s">
         <v>1085</v>
       </c>
       <c r="K344">
-        <v>2.6262340827999999</v>
+        <v>2.8305222587999999</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
@@ -16962,7 +16953,7 @@
         <v>887</v>
       </c>
       <c r="F345">
-        <v>0.12265080640000001</v>
+        <v>2.5881859002000001E-2</v>
       </c>
       <c r="G345">
         <v>0.13640832204</v>
@@ -16971,13 +16962,13 @@
         <v>1.8483395757000001</v>
       </c>
       <c r="I345">
-        <v>14146.222972</v>
+        <v>11610.940301000001</v>
       </c>
       <c r="J345" t="s">
         <v>1084</v>
       </c>
       <c r="K345">
-        <v>0.69762102400000003</v>
+        <v>0.65768537180999997</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
@@ -17007,13 +16998,13 @@
         <v>0.84586254958999996</v>
       </c>
       <c r="I346">
-        <v>6796.7160112000001</v>
+        <v>9554.2619042999995</v>
       </c>
       <c r="J346" t="s">
         <v>1082</v>
       </c>
       <c r="K346">
-        <v>0.52100810652999996</v>
+        <v>0.51978360030000004</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
@@ -17034,7 +17025,7 @@
         <v>889</v>
       </c>
       <c r="F347">
-        <v>5.9119710977000004</v>
+        <v>4.7076009024000003</v>
       </c>
       <c r="G347">
         <v>15.101238198000001</v>
@@ -17043,7 +17034,7 @@
         <v>25.843222024999999</v>
       </c>
       <c r="I347">
-        <v>85.260772090000003</v>
+        <v>7.0830662964000002</v>
       </c>
       <c r="J347" t="s">
         <v>1080</v>
@@ -17076,13 +17067,13 @@
         <v>3.3081828294000002</v>
       </c>
       <c r="I348">
-        <v>29523.145948000001</v>
+        <v>27237.813630000001</v>
       </c>
       <c r="J348" t="s">
         <v>1084</v>
       </c>
       <c r="K348">
-        <v>2.4867098780000001</v>
+        <v>2.5193592871999999</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
@@ -17112,13 +17103,13 @@
         <v>1.4063029883</v>
       </c>
       <c r="I349">
-        <v>131318.88344000001</v>
+        <v>136277.74794999999</v>
       </c>
       <c r="J349" t="s">
         <v>1080</v>
       </c>
       <c r="K349">
-        <v>1.1532823511000001</v>
+        <v>1.2623316007000001</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
@@ -17148,10 +17139,13 @@
         <v>3.9687719245999999</v>
       </c>
       <c r="I350">
-        <v>12.650957166</v>
+        <v>9.8252179387999998</v>
       </c>
       <c r="J350" t="s">
         <v>1081</v>
+      </c>
+      <c r="K350">
+        <v>5.2685548602000001</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
@@ -17181,7 +17175,7 @@
         <v>3.9687719245999999</v>
       </c>
       <c r="I351">
-        <v>2.9067717859000002</v>
+        <v>3.1961229074999999</v>
       </c>
       <c r="J351" t="s">
         <v>1081</v>
@@ -17214,7 +17208,7 @@
         <v>3.9687719245999999</v>
       </c>
       <c r="I352">
-        <v>1.9827227620000001</v>
+        <v>7.9893845744999998</v>
       </c>
       <c r="J352" t="s">
         <v>1081</v>
@@ -17247,13 +17241,13 @@
         <v>2.3531520496999998</v>
       </c>
       <c r="I353">
-        <v>301244.13808</v>
+        <v>367555.74202000001</v>
       </c>
       <c r="J353" t="s">
         <v>1084</v>
       </c>
       <c r="K353">
-        <v>1.1886049346000001</v>
+        <v>1.3206746578999999</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
@@ -17283,13 +17277,13 @@
         <v>0.77547973709999996</v>
       </c>
       <c r="I354">
-        <v>22157.793786999999</v>
+        <v>36305.821528</v>
       </c>
       <c r="J354" t="s">
         <v>1092</v>
       </c>
       <c r="K354">
-        <v>0.34439518906</v>
+        <v>0.32884268589999999</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
@@ -17319,13 +17313,13 @@
         <v>2.4404692754999999</v>
       </c>
       <c r="I355">
-        <v>474211.73642999999</v>
+        <v>475567.88507999998</v>
       </c>
       <c r="J355" t="s">
         <v>1080</v>
       </c>
       <c r="K355">
-        <v>4.2316455026000002</v>
+        <v>4.5330787455000001</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
@@ -17355,10 +17349,13 @@
         <v>3.0661178178999999</v>
       </c>
       <c r="I356">
-        <v>86.774093313999998</v>
+        <v>186.19363129000001</v>
       </c>
       <c r="J356" t="s">
         <v>1078</v>
+      </c>
+      <c r="K356">
+        <v>2.4946076870999998</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
@@ -17388,13 +17385,13 @@
         <v>5.1096307986999996</v>
       </c>
       <c r="I357">
-        <v>82836.067297000001</v>
+        <v>66466.896485999998</v>
       </c>
       <c r="J357" t="s">
         <v>1076</v>
       </c>
       <c r="K357">
-        <v>3.2002260644999998</v>
+        <v>3.5182631449000001</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
@@ -17424,13 +17421,13 @@
         <v>0.39248958039999998</v>
       </c>
       <c r="I358">
-        <v>4390.4255215000003</v>
+        <v>3662.9431958999999</v>
       </c>
       <c r="J358" t="s">
         <v>1088</v>
       </c>
       <c r="K358">
-        <v>0.20840324261000001</v>
+        <v>0.23160425728</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
@@ -17460,13 +17457,13 @@
         <v>-11.370593239</v>
       </c>
       <c r="I359">
-        <v>15.371398864</v>
+        <v>23.723822633000001</v>
       </c>
       <c r="J359" t="s">
         <v>1080</v>
       </c>
       <c r="K359">
-        <v>0.72411296162000005</v>
+        <v>0.72310031470000002</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
@@ -17487,7 +17484,7 @@
         <v>902</v>
       </c>
       <c r="F360">
-        <v>1.1699457941</v>
+        <v>1.1624074681000001</v>
       </c>
       <c r="G360">
         <v>4.8582568860000004</v>
@@ -17496,13 +17493,13 @@
         <v>26.184080007999999</v>
       </c>
       <c r="I360">
-        <v>109.70211831</v>
+        <v>86.419688074000007</v>
       </c>
       <c r="J360" t="s">
         <v>1077</v>
       </c>
       <c r="K360">
-        <v>16.601614242</v>
+        <v>18.740497154</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
@@ -17532,13 +17529,13 @@
         <v>-4.9932224280000002</v>
       </c>
       <c r="I361">
-        <v>131.13927866</v>
+        <v>74.714491394000007</v>
       </c>
       <c r="J361" t="s">
         <v>1079</v>
       </c>
       <c r="K361">
-        <v>2.1158227513000001</v>
+        <v>2.1056539725999999</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
@@ -17592,13 +17589,13 @@
         <v>0</v>
       </c>
       <c r="I363">
-        <v>112831.56285</v>
+        <v>265276.89315999998</v>
       </c>
       <c r="J363" t="s">
         <v>1077</v>
       </c>
       <c r="K363">
-        <v>2.0098550008</v>
+        <v>2.4574802871000001</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
@@ -17628,13 +17625,13 @@
         <v>0.56070542943000001</v>
       </c>
       <c r="I364">
-        <v>154.30003484</v>
+        <v>204.20882091999999</v>
       </c>
       <c r="J364" t="s">
         <v>1090</v>
       </c>
       <c r="K364">
-        <v>0.93075007505999996</v>
+        <v>0.86100208620999996</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
@@ -17664,13 +17661,13 @@
         <v>0.84175240607000001</v>
       </c>
       <c r="I365">
-        <v>14008.837498000001</v>
+        <v>20000.112053000001</v>
       </c>
       <c r="J365" t="s">
         <v>1087</v>
       </c>
       <c r="K365">
-        <v>1.1585807386</v>
+        <v>1.1438775149</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
@@ -17754,7 +17751,7 @@
         <v>910</v>
       </c>
       <c r="F368">
-        <v>0.20759454599999999</v>
+        <v>0.23584961232000001</v>
       </c>
       <c r="G368">
         <v>0.18780529277999999</v>
@@ -17763,13 +17760,13 @@
         <v>0.53965324773000001</v>
       </c>
       <c r="I368">
-        <v>45401.674102999998</v>
+        <v>50230.34117</v>
       </c>
       <c r="J368" t="s">
         <v>1080</v>
       </c>
       <c r="K368">
-        <v>1.9992582257</v>
+        <v>1.9907358297</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
@@ -17799,13 +17796,13 @@
         <v>-101.14818151999999</v>
       </c>
       <c r="I369">
-        <v>30476.392448999999</v>
+        <v>20993.688641000001</v>
       </c>
       <c r="J369" t="s">
         <v>1086</v>
       </c>
       <c r="K369">
-        <v>0.73647586584000002</v>
+        <v>0.87514585763999997</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
@@ -17835,13 +17832,13 @@
         <v>-101.14818151999999</v>
       </c>
       <c r="I370">
-        <v>1127.4005562</v>
+        <v>366.40590359999999</v>
       </c>
       <c r="J370" t="s">
         <v>1086</v>
       </c>
       <c r="K370">
-        <v>2.3383550273</v>
+        <v>2.1304055726</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
@@ -17871,13 +17868,13 @@
         <v>0.90586819647000005</v>
       </c>
       <c r="I371">
-        <v>97409.859035000001</v>
+        <v>144678.70619</v>
       </c>
       <c r="J371" t="s">
         <v>1080</v>
       </c>
       <c r="K371">
-        <v>1.1091291217000001</v>
+        <v>1.1774689721</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
@@ -17907,13 +17904,13 @@
         <v>1.7651490622999999</v>
       </c>
       <c r="I372">
-        <v>80020.85871</v>
+        <v>73178.401364000005</v>
       </c>
       <c r="J372" t="s">
         <v>1080</v>
       </c>
       <c r="K372">
-        <v>7.5449038343000003</v>
+        <v>8.1804038046999992</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
@@ -17943,13 +17940,13 @@
         <v>-444.56408198000003</v>
       </c>
       <c r="I373">
-        <v>48.173847498000001</v>
+        <v>164.40948727</v>
       </c>
       <c r="J373" t="s">
         <v>1089</v>
       </c>
       <c r="K373">
-        <v>0.66583069886000001</v>
+        <v>0.68420494325000003</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
@@ -17973,19 +17970,19 @@
         <v>0.12265499472999999</v>
       </c>
       <c r="G374">
-        <v>-0.12499636744000001</v>
+        <v>-0.12542003046</v>
       </c>
       <c r="H374">
         <v>2.6161794507999998</v>
       </c>
       <c r="I374">
-        <v>491.12701439</v>
+        <v>293.81627236000003</v>
       </c>
       <c r="J374" t="s">
         <v>1090</v>
       </c>
       <c r="K374">
-        <v>3.6029035164000001</v>
+        <v>4.0115271737000002</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
@@ -18015,13 +18012,13 @@
         <v>1.9035690483000001</v>
       </c>
       <c r="I375">
-        <v>179306.76809999999</v>
+        <v>170742.20684999999</v>
       </c>
       <c r="J375" t="s">
         <v>1082</v>
       </c>
       <c r="K375">
-        <v>0.46802423128999998</v>
+        <v>0.55337505746000004</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
@@ -18051,13 +18048,13 @@
         <v>0.35124994471999998</v>
       </c>
       <c r="I376">
-        <v>234.88573223</v>
+        <v>603.69195803000002</v>
       </c>
       <c r="J376" t="s">
         <v>1088</v>
       </c>
       <c r="K376">
-        <v>0.33556454319000001</v>
+        <v>0.37304197164000003</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
@@ -18087,13 +18084,13 @@
         <v>0.89598622075000001</v>
       </c>
       <c r="I377">
-        <v>9420.6767540000001</v>
+        <v>12339.870755</v>
       </c>
       <c r="J377" t="s">
         <v>1082</v>
       </c>
       <c r="K377">
-        <v>0.45036293955000001</v>
+        <v>0.54453520031000002</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
@@ -18123,13 +18120,13 @@
         <v>7.1543759852999997</v>
       </c>
       <c r="I378">
-        <v>8.0793349866999993</v>
+        <v>233.77849283</v>
       </c>
       <c r="J378" t="s">
         <v>1078</v>
       </c>
       <c r="K378">
-        <v>4.2387100192</v>
+        <v>7.1956437184000004</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
@@ -18159,10 +18156,13 @@
         <v>7.1543759852999997</v>
       </c>
       <c r="I379">
-        <v>0.47778249487000002</v>
+        <v>15.247494758</v>
       </c>
       <c r="J379" t="s">
         <v>1078</v>
+      </c>
+      <c r="K379">
+        <v>7.4254800041999998</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
@@ -18183,7 +18183,7 @@
         <v>922</v>
       </c>
       <c r="F380">
-        <v>0.19929687259000001</v>
+        <v>0.13876752548999999</v>
       </c>
       <c r="G380">
         <v>0.27830230123999999</v>
@@ -18192,10 +18192,13 @@
         <v>9.2512901348999996</v>
       </c>
       <c r="I380">
-        <v>31.308058328000001</v>
+        <v>17.954018312999999</v>
       </c>
       <c r="J380" t="s">
         <v>1080</v>
+      </c>
+      <c r="K380">
+        <v>7.4643753757000004</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
@@ -18216,7 +18219,7 @@
         <v>923</v>
       </c>
       <c r="F381">
-        <v>0.22780118631999999</v>
+        <v>0.16121890451000001</v>
       </c>
       <c r="G381">
         <v>0.27830230123999999</v>
@@ -18225,10 +18228,13 @@
         <v>9.2512901348999996</v>
       </c>
       <c r="I381">
-        <v>30.231342744999999</v>
+        <v>5.9574728505000003</v>
       </c>
       <c r="J381" t="s">
         <v>1080</v>
+      </c>
+      <c r="K381">
+        <v>8.5746614334999993</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
@@ -18258,13 +18264,13 @@
         <v>-15.854994227000001</v>
       </c>
       <c r="I382">
-        <v>471.67831934999998</v>
+        <v>973.23658545000001</v>
       </c>
       <c r="J382" t="s">
         <v>1078</v>
       </c>
       <c r="K382">
-        <v>0.41504035605</v>
+        <v>0.32707471447000003</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
@@ -18294,13 +18300,13 @@
         <v>-8.5380044012000003</v>
       </c>
       <c r="I383">
-        <v>2845.3283931999999</v>
+        <v>4924.5145014999998</v>
       </c>
       <c r="J383" t="s">
         <v>1084</v>
       </c>
       <c r="K383">
-        <v>3.1790325144000001E-2</v>
+        <v>2.8287542873000001E-2</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
@@ -18323,14 +18329,20 @@
       <c r="F384">
         <v>0</v>
       </c>
+      <c r="G384">
+        <v>-2.9725568457999998</v>
+      </c>
+      <c r="H384">
+        <v>-16.494072024000001</v>
+      </c>
       <c r="I384">
-        <v>599.36694379999994</v>
+        <v>288.99941984999998</v>
       </c>
       <c r="J384" t="s">
         <v>1074</v>
       </c>
       <c r="K384">
-        <v>0.49804842725999998</v>
+        <v>0.53923128602000003</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
@@ -18351,7 +18363,7 @@
         <v>927</v>
       </c>
       <c r="F385">
-        <v>1.2706494082999999</v>
+        <v>1.2325996034</v>
       </c>
       <c r="G385">
         <v>1.6945049201</v>
@@ -18360,13 +18372,13 @@
         <v>6.3201944166999997</v>
       </c>
       <c r="I385">
-        <v>1389963.0793999999</v>
+        <v>1625015.2075</v>
       </c>
       <c r="J385" t="s">
         <v>1074</v>
       </c>
       <c r="K385">
-        <v>7.1704844491999999</v>
+        <v>7.5916693186000002</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
@@ -18387,7 +18399,7 @@
         <v>928</v>
       </c>
       <c r="F386">
-        <v>1.2706494082999999</v>
+        <v>1.2325996034</v>
       </c>
       <c r="G386">
         <v>1.6945049201</v>
@@ -18396,13 +18408,13 @@
         <v>6.3201944166999997</v>
       </c>
       <c r="I386">
-        <v>4372140.2498000003</v>
+        <v>5982728.9616</v>
       </c>
       <c r="J386" t="s">
         <v>1074</v>
       </c>
       <c r="K386">
-        <v>6.6070892424999998</v>
+        <v>6.9605035183000004</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
@@ -18432,13 +18444,13 @@
         <v>3.1762375554000002</v>
       </c>
       <c r="I387">
-        <v>166972.51519999999</v>
+        <v>152641.88706000001</v>
       </c>
       <c r="J387" t="s">
         <v>1074</v>
       </c>
       <c r="K387">
-        <v>3.6488228749</v>
+        <v>3.6066617163000001</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
@@ -18468,13 +18480,13 @@
         <v>3.6785705444999999</v>
       </c>
       <c r="I388">
-        <v>1303320.0153999999</v>
+        <v>1728399.8167000001</v>
       </c>
       <c r="J388" t="s">
         <v>1074</v>
       </c>
       <c r="K388">
-        <v>8.4862506843999999</v>
+        <v>8.2811781761999992</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
@@ -18504,13 +18516,13 @@
         <v>1.6149638271</v>
       </c>
       <c r="I389">
-        <v>28.015517234000001</v>
+        <v>36.551957358000003</v>
       </c>
       <c r="J389" t="s">
         <v>1083</v>
       </c>
       <c r="K389">
-        <v>1.6425001324999999</v>
+        <v>1.6565892295</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
@@ -18540,13 +18552,13 @@
         <v>1.6149638271</v>
       </c>
       <c r="I390">
-        <v>215.31908304999999</v>
+        <v>305.30593479999999</v>
       </c>
       <c r="J390" t="s">
         <v>1083</v>
       </c>
       <c r="K390">
-        <v>1.1126613801</v>
+        <v>1.2835472579</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
@@ -18576,13 +18588,13 @@
         <v>0.80339555509000005</v>
       </c>
       <c r="I391">
-        <v>107382.52608</v>
+        <v>413107.53980000003</v>
       </c>
       <c r="J391" t="s">
         <v>1082</v>
       </c>
       <c r="K391">
-        <v>0.61814521113999998</v>
+        <v>0.85923411478</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
@@ -18603,7 +18615,7 @@
         <v>934</v>
       </c>
       <c r="F392">
-        <v>9.4471386948999994E-2</v>
+        <v>7.3247317115000002E-2</v>
       </c>
       <c r="G392">
         <v>0.2265598529</v>
@@ -18612,13 +18624,13 @@
         <v>1.0422767906999999</v>
       </c>
       <c r="I392">
-        <v>81.240108281000005</v>
+        <v>45.177397003000003</v>
       </c>
       <c r="J392" t="s">
         <v>1077</v>
       </c>
       <c r="K392">
-        <v>0.98903233782</v>
+        <v>0.98829602914000003</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
@@ -18639,7 +18651,7 @@
         <v>935</v>
       </c>
       <c r="F393">
-        <v>9.4471386948999994E-2</v>
+        <v>7.3247317115000002E-2</v>
       </c>
       <c r="G393">
         <v>0.2265598529</v>
@@ -18648,13 +18660,13 @@
         <v>1.0422767906999999</v>
       </c>
       <c r="I393">
-        <v>2942.1294376999999</v>
+        <v>5694.5274638000001</v>
       </c>
       <c r="J393" t="s">
         <v>1077</v>
       </c>
       <c r="K393">
-        <v>0.75590328676999996</v>
+        <v>0.85923411478</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
@@ -18684,13 +18696,13 @@
         <v>0.62911080114999995</v>
       </c>
       <c r="I394">
-        <v>57205.329320999997</v>
+        <v>47850.849298000001</v>
       </c>
       <c r="J394" t="s">
         <v>1084</v>
       </c>
       <c r="K394">
-        <v>2.1440808181</v>
+        <v>2.1268696297999998</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
@@ -18720,13 +18732,13 @@
         <v>-7.0765733667999999</v>
       </c>
       <c r="I395">
-        <v>13.830925277</v>
+        <v>44.801076258000002</v>
       </c>
       <c r="J395" t="s">
         <v>1089</v>
       </c>
       <c r="K395">
-        <v>0.92191942919000003</v>
+        <v>1.0607828577</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
@@ -18816,13 +18828,13 @@
         <v>3.9000626605000002</v>
       </c>
       <c r="I398">
-        <v>187553.41761999999</v>
+        <v>169716.88238</v>
       </c>
       <c r="J398" t="s">
         <v>1077</v>
       </c>
       <c r="K398">
-        <v>5.4043552745000003</v>
+        <v>6.0217106891999999</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
@@ -18852,13 +18864,13 @@
         <v>0.52684752335999996</v>
       </c>
       <c r="I399">
-        <v>9968.8616660999996</v>
+        <v>11560.740124</v>
       </c>
       <c r="J399" t="s">
         <v>1091</v>
       </c>
       <c r="K399">
-        <v>0.80005651612999995</v>
+        <v>0.86453802906999999</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
@@ -18888,13 +18900,13 @@
         <v>2.3511218396000002</v>
       </c>
       <c r="I400">
-        <v>46578.175541999997</v>
+        <v>54647.295088999999</v>
       </c>
       <c r="J400" t="s">
         <v>1092</v>
       </c>
       <c r="K400">
-        <v>1.1939033220999999</v>
+        <v>1.1544853435</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
@@ -18924,13 +18936,13 @@
         <v>6.3999366194000004E-4</v>
       </c>
       <c r="I401">
-        <v>6.3816808702000003</v>
+        <v>4.8131471308</v>
       </c>
       <c r="J401" t="s">
         <v>1077</v>
       </c>
       <c r="K401">
-        <v>0.50687907313000002</v>
+        <v>0.45260068597000003</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
@@ -18990,13 +19002,13 @@
         <v>1.3858117151</v>
       </c>
       <c r="I403">
-        <v>10934.362947</v>
+        <v>20395.977857999998</v>
       </c>
       <c r="J403" t="s">
         <v>1084</v>
       </c>
       <c r="K403">
-        <v>1.8191130498999999</v>
+        <v>2.3478660585000002</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
@@ -19026,13 +19038,13 @@
         <v>2.0478752309999999</v>
       </c>
       <c r="I404">
-        <v>4373.2446153000001</v>
+        <v>5390.0654800000002</v>
       </c>
       <c r="J404" t="s">
         <v>1082</v>
       </c>
       <c r="K404">
-        <v>1.0402500839</v>
+        <v>1.1173579435000001</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.3">
@@ -19092,13 +19104,13 @@
         <v>0.92355009061000004</v>
       </c>
       <c r="I406">
-        <v>23303.332686000002</v>
+        <v>31119.559075000001</v>
       </c>
       <c r="J406" t="s">
         <v>1080</v>
       </c>
       <c r="K406">
-        <v>0.2649193762</v>
+        <v>0.40132951451999999</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
@@ -19155,13 +19167,13 @@
         <v>0.63688066031000001</v>
       </c>
       <c r="I408">
-        <v>49275.783654999999</v>
+        <v>60755.144066000001</v>
       </c>
       <c r="J408" t="s">
         <v>1082</v>
       </c>
       <c r="K408">
-        <v>0.69055650729999996</v>
+        <v>0.75138785757000004</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
@@ -19191,13 +19203,13 @@
         <v>0.70855103806999997</v>
       </c>
       <c r="I409">
-        <v>546891.11172000004</v>
+        <v>900112.63687000005</v>
       </c>
       <c r="J409" t="s">
         <v>1082</v>
       </c>
       <c r="K409">
-        <v>4.8745165221000004</v>
+        <v>4.8725292599000003</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
@@ -19218,7 +19230,7 @@
         <v>952</v>
       </c>
       <c r="F410">
-        <v>3.4523340495999998E-2</v>
+        <v>3.6268995450000001E-2</v>
       </c>
       <c r="G410">
         <v>1.0096907170000001E-2</v>
@@ -19227,13 +19239,13 @@
         <v>0.41439914316999998</v>
       </c>
       <c r="I410">
-        <v>181229.60037</v>
+        <v>221636.04243</v>
       </c>
       <c r="J410" t="s">
         <v>1075</v>
       </c>
       <c r="K410">
-        <v>0.52807262323000004</v>
+        <v>0.56751882890000005</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
@@ -19263,13 +19275,13 @@
         <v>1.7530030407999999</v>
       </c>
       <c r="I411">
-        <v>1608.0883770999999</v>
+        <v>1468.3983665000001</v>
       </c>
       <c r="J411" t="s">
         <v>1089</v>
       </c>
       <c r="K411">
-        <v>1.6018791614000001</v>
+        <v>1.5787984866</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
@@ -19299,13 +19311,13 @@
         <v>1.7530030407999999</v>
       </c>
       <c r="I412">
-        <v>117264.8845</v>
+        <v>105225.73158000001</v>
       </c>
       <c r="J412" t="s">
         <v>1089</v>
       </c>
       <c r="K412">
-        <v>1.8862259586000001</v>
+        <v>1.946536544</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
@@ -19335,13 +19347,13 @@
         <v>1.5221051929E-3</v>
       </c>
       <c r="I413">
-        <v>2715.8303897999999</v>
+        <v>9554.9341461000004</v>
       </c>
       <c r="J413" t="s">
         <v>1089</v>
       </c>
       <c r="K413">
-        <v>0.49451616891</v>
+        <v>0.83094657189999999</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
@@ -19371,13 +19383,13 @@
         <v>1.5221051929E-3</v>
       </c>
       <c r="I414">
-        <v>4239.4125542000002</v>
+        <v>1092.4522259</v>
       </c>
       <c r="J414" t="s">
         <v>1089</v>
       </c>
       <c r="K414">
-        <v>0.17484678829</v>
+        <v>0.15911742866</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
@@ -19407,13 +19419,13 @@
         <v>2.0560061357000001</v>
       </c>
       <c r="I415">
-        <v>519071.91483999998</v>
+        <v>969612.76592999999</v>
       </c>
       <c r="J415" t="s">
         <v>1080</v>
       </c>
       <c r="K415">
-        <v>4.8727503929999996</v>
+        <v>5.6451327747000004</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
@@ -19434,7 +19446,7 @@
         <v>958</v>
       </c>
       <c r="F416">
-        <v>0.16095231242999999</v>
+        <v>0.13224437057999999</v>
       </c>
       <c r="G416">
         <v>0.17645855460000001</v>
@@ -19443,13 +19455,13 @@
         <v>0.38599822741000001</v>
       </c>
       <c r="I416">
-        <v>106.44697523000001</v>
+        <v>46.242373358999998</v>
       </c>
       <c r="J416" t="s">
         <v>1076</v>
       </c>
       <c r="K416">
-        <v>1.2150968722</v>
+        <v>1.2375800007</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.3">
@@ -19479,13 +19491,13 @@
         <v>0.69885579541999998</v>
       </c>
       <c r="I417">
-        <v>183.41046381999999</v>
+        <v>388.79860423000002</v>
       </c>
       <c r="J417" t="s">
         <v>1076</v>
       </c>
       <c r="K417">
-        <v>0.15365323819999999</v>
+        <v>0.18033308581999999</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
@@ -19515,13 +19527,13 @@
         <v>0.69885579541999998</v>
       </c>
       <c r="I418">
-        <v>347.63505505000001</v>
+        <v>743.26980859000003</v>
       </c>
       <c r="J418" t="s">
         <v>1076</v>
       </c>
       <c r="K418">
-        <v>0.15541936737000001</v>
+        <v>0.17502917153</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.3">
@@ -19551,13 +19563,13 @@
         <v>0.69885579541999998</v>
       </c>
       <c r="I419">
-        <v>84.375690668000004</v>
+        <v>146.00141126</v>
       </c>
       <c r="J419" t="s">
         <v>1076</v>
       </c>
       <c r="K419">
-        <v>0.46802423128999998</v>
+        <v>0.52508751459000003</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
@@ -19617,13 +19629,13 @@
         <v>6.7357744052999999</v>
       </c>
       <c r="I421">
-        <v>788.38712441999996</v>
+        <v>555.59310794999999</v>
       </c>
       <c r="J421" t="s">
         <v>1089</v>
       </c>
       <c r="K421">
-        <v>10.595008918</v>
+        <v>11.474134577999999</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
@@ -19650,13 +19662,13 @@
         <v>1.7023908955</v>
       </c>
       <c r="I422">
-        <v>122.11013404000001</v>
+        <v>68.351115843000002</v>
       </c>
       <c r="J422" t="s">
         <v>1084</v>
       </c>
       <c r="K422">
-        <v>0.57575811094999996</v>
+        <v>0.58343057176000002</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
@@ -19716,13 +19728,13 @@
         <v>2.5292691528</v>
       </c>
       <c r="I424">
-        <v>8326.1828461000005</v>
+        <v>7904.3532341</v>
       </c>
       <c r="J424" t="s">
         <v>1079</v>
       </c>
       <c r="K424">
-        <v>1.8632662793000001</v>
+        <v>1.9447685724999999</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
@@ -19752,13 +19764,13 @@
         <v>-8.8970639764000001</v>
       </c>
       <c r="I425">
-        <v>1748.5022061</v>
+        <v>2009.1648814</v>
       </c>
       <c r="J425" t="s">
         <v>1084</v>
       </c>
       <c r="K425">
-        <v>0.71351618657000004</v>
+        <v>0.67713305752999997</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
@@ -19788,13 +19800,13 @@
         <v>1.7369919596000001</v>
       </c>
       <c r="I426">
-        <v>806805.23256000003</v>
+        <v>1207340.9844</v>
       </c>
       <c r="J426" t="s">
         <v>1081</v>
       </c>
       <c r="K426">
-        <v>3.9119761219</v>
+        <v>3.8630175736000001</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.3">
@@ -19821,13 +19833,13 @@
         <v>8.9842173279999997</v>
       </c>
       <c r="I427">
-        <v>3236472.7215999998</v>
+        <v>1833262.7855</v>
       </c>
       <c r="J427" t="s">
         <v>1080</v>
       </c>
       <c r="K427">
-        <v>15.584323836999999</v>
+        <v>16.747993352000002</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
@@ -19887,13 +19899,13 @@
         <v>1.3408171983999999</v>
       </c>
       <c r="I429">
-        <v>4114.4202027000001</v>
+        <v>4574.2882716000004</v>
       </c>
       <c r="J429" t="s">
         <v>1080</v>
       </c>
       <c r="K429">
-        <v>0.89895974991000005</v>
+        <v>0.95470457197000003</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.3">
@@ -19923,13 +19935,13 @@
         <v>1.3408171983999999</v>
       </c>
       <c r="I430">
-        <v>22945.950163000001</v>
+        <v>29537.193886000001</v>
       </c>
       <c r="J430" t="s">
         <v>1080</v>
       </c>
       <c r="K430">
-        <v>0.97843556277999999</v>
+        <v>1.0342632863000001</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.3">
@@ -19959,13 +19971,13 @@
         <v>1.3408171983999999</v>
       </c>
       <c r="I431">
-        <v>107344.30412</v>
+        <v>110584.58104</v>
       </c>
       <c r="J431" t="s">
         <v>1080</v>
       </c>
       <c r="K431">
-        <v>4.8250649051999996</v>
+        <v>5.0670061172</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.3">
@@ -19995,10 +20007,13 @@
         <v>-51.462988289999998</v>
       </c>
       <c r="I432">
-        <v>84.602560462</v>
+        <v>60.205443371999998</v>
       </c>
       <c r="J432" t="s">
         <v>1080</v>
+      </c>
+      <c r="K432">
+        <v>2.3496340298999998</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.3">
@@ -20028,10 +20043,13 @@
         <v>-51.462988289999998</v>
       </c>
       <c r="I433">
-        <v>38.223559190000003</v>
+        <v>218.74931556000001</v>
       </c>
       <c r="J433" t="s">
         <v>1080</v>
+      </c>
+      <c r="K433">
+        <v>1.0095116863</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.3">
@@ -20094,13 +20112,13 @@
         <v>2.3399560351000002</v>
       </c>
       <c r="I435">
-        <v>7069.3439718</v>
+        <v>6721.6596995</v>
       </c>
       <c r="J435" t="s">
         <v>1077</v>
       </c>
       <c r="K435">
-        <v>2.4001695484000001</v>
+        <v>2.6413493157999999</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
@@ -20130,13 +20148,13 @@
         <v>2.3399560351000002</v>
       </c>
       <c r="I436">
-        <v>8272.7623796999997</v>
+        <v>7271.7038682000002</v>
       </c>
       <c r="J436" t="s">
         <v>1077</v>
       </c>
       <c r="K436">
-        <v>2.6668550538</v>
+        <v>2.8994731444999999</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
@@ -20166,13 +20184,13 @@
         <v>2.3399560351000002</v>
       </c>
       <c r="I437">
-        <v>371599.75349999999</v>
+        <v>256559.26371999999</v>
       </c>
       <c r="J437" t="s">
         <v>1077</v>
       </c>
       <c r="K437">
-        <v>5.0599600855000002</v>
+        <v>5.5514302888999998</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.3">
@@ -20196,13 +20214,13 @@
         <v>0</v>
       </c>
       <c r="I438">
-        <v>178.38613325</v>
+        <v>95.505631444000002</v>
       </c>
       <c r="J438" t="s">
         <v>1083</v>
       </c>
       <c r="K438">
-        <v>0.53690326910999997</v>
+        <v>0.48796011455999999</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.3">
@@ -20226,13 +20244,13 @@
         <v>0</v>
       </c>
       <c r="I439">
-        <v>694.98491081999998</v>
+        <v>351.84343364</v>
       </c>
       <c r="J439" t="s">
         <v>1083</v>
       </c>
       <c r="K439">
-        <v>0.26668550538000002</v>
+        <v>0.24574802871000001</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.3">
@@ -20253,7 +20271,7 @@
         <v>982</v>
       </c>
       <c r="F440">
-        <v>0.12305906826</v>
+        <v>0.14578263053000001</v>
       </c>
       <c r="G440">
         <v>0.14044191727999999</v>
@@ -20262,13 +20280,13 @@
         <v>0.51427884320999995</v>
       </c>
       <c r="I440">
-        <v>301266.62605000002</v>
+        <v>363867.18504000001</v>
       </c>
       <c r="J440" t="s">
         <v>1081</v>
       </c>
       <c r="K440">
-        <v>2.315395348</v>
+        <v>2.2983628585</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.3">
@@ -20298,13 +20316,13 @@
         <v>5.9109492173999998</v>
       </c>
       <c r="I441">
-        <v>1195.6161407</v>
+        <v>1469.8438819</v>
       </c>
       <c r="J441" t="s">
         <v>1080</v>
       </c>
       <c r="K441">
-        <v>4.3005245403999997</v>
+        <v>4.3845691454000004</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.3">
@@ -20334,13 +20352,13 @@
         <v>3.9716491589</v>
       </c>
       <c r="I442">
-        <v>217249.56883999999</v>
+        <v>165874.77071000001</v>
       </c>
       <c r="J442" t="s">
         <v>1080</v>
       </c>
       <c r="K442">
-        <v>5.1323713815999996</v>
+        <v>4.9008168027999996</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.3">
@@ -20403,13 +20421,13 @@
         <v>0.73942666541000002</v>
       </c>
       <c r="I444">
-        <v>8512.7325390000005</v>
+        <v>6259.5372427000002</v>
       </c>
       <c r="J444" t="s">
         <v>1089</v>
       </c>
       <c r="K444">
-        <v>1.1144275092</v>
+        <v>1.1827728864</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.3">
@@ -20439,13 +20457,13 @@
         <v>3.7592745309</v>
       </c>
       <c r="I445">
-        <v>6759.4945162000004</v>
+        <v>55128.709667000003</v>
       </c>
       <c r="J445" t="s">
         <v>1081</v>
       </c>
       <c r="K445">
-        <v>0.71175005739999997</v>
+        <v>1.1297337435000001</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.3">
@@ -20475,13 +20493,13 @@
         <v>1.8589968623999999</v>
       </c>
       <c r="I446">
-        <v>11368.771672999999</v>
+        <v>10677.106653999999</v>
       </c>
       <c r="J446" t="s">
         <v>1080</v>
       </c>
       <c r="K446">
-        <v>0.92545168753999996</v>
+        <v>1.1403415721000001</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.3">
@@ -20511,13 +20529,13 @@
         <v>1.7237216849999999</v>
       </c>
       <c r="I447">
-        <v>72315.498189000005</v>
+        <v>64526.579055000002</v>
       </c>
       <c r="J447" t="s">
         <v>1076</v>
       </c>
       <c r="K447">
-        <v>1.5259356069000001</v>
+        <v>1.4320568579999999</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.3">
@@ -20547,13 +20565,13 @@
         <v>2.6107654131000002</v>
       </c>
       <c r="I448">
-        <v>283412.42632999999</v>
+        <v>319212.40846000001</v>
       </c>
       <c r="J448" t="s">
         <v>1078</v>
       </c>
       <c r="K448">
-        <v>2.0946292012000001</v>
+        <v>2.0968141155</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.3">
@@ -20583,13 +20601,13 @@
         <v>0.74723006073999998</v>
       </c>
       <c r="I449">
-        <v>88344.207876999993</v>
+        <v>104520.08084</v>
       </c>
       <c r="J449" t="s">
         <v>1081</v>
       </c>
       <c r="K449">
-        <v>1.1179597675999999</v>
+        <v>1.0908383720999999</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.3">
@@ -20619,13 +20637,13 @@
         <v>2.2497004451999998</v>
       </c>
       <c r="I450">
-        <v>171462.42801</v>
+        <v>133014.07982000001</v>
       </c>
       <c r="J450" t="s">
         <v>1075</v>
       </c>
       <c r="K450">
-        <v>3.1719679976999999</v>
+        <v>3.1222375445999999</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.3">
@@ -20655,13 +20673,13 @@
         <v>1.7991772902000001</v>
       </c>
       <c r="I451">
-        <v>276453.25257000001</v>
+        <v>255305.68999000001</v>
       </c>
       <c r="J451" t="s">
         <v>1080</v>
       </c>
       <c r="K451">
-        <v>3.7441938502999998</v>
+        <v>3.8983770022000002</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.3">
@@ -20784,13 +20802,10 @@
         <v>0</v>
       </c>
       <c r="I455">
-        <v>142.29229734</v>
+        <v>39.869090284000002</v>
       </c>
       <c r="J455" t="s">
         <v>1083</v>
-      </c>
-      <c r="K455">
-        <v>0.37088712668000001</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
@@ -20820,13 +20835,10 @@
         <v>2.6659221439</v>
       </c>
       <c r="I456">
-        <v>5.6471094471000001</v>
+        <v>16.878686555000002</v>
       </c>
       <c r="J456" t="s">
         <v>1080</v>
-      </c>
-      <c r="K456">
-        <v>6.1814521113999996</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
@@ -20856,7 +20868,7 @@
         <v>2.6659221439</v>
       </c>
       <c r="I457">
-        <v>0</v>
+        <v>7.714742319</v>
       </c>
       <c r="J457" t="s">
         <v>1080</v>
@@ -20889,7 +20901,7 @@
         <v>2.6659221439</v>
       </c>
       <c r="I458">
-        <v>0</v>
+        <v>1.3016297872</v>
       </c>
       <c r="J458" t="s">
         <v>1080</v>
@@ -21075,13 +21087,13 @@
         <v>6.9557933105999998</v>
       </c>
       <c r="I464">
-        <v>1764847.8552000001</v>
+        <v>1479997.5989000001</v>
       </c>
       <c r="J464" t="s">
         <v>1093</v>
       </c>
       <c r="K464">
-        <v>9.5123717349000003</v>
+        <v>9.7238428626999998</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
@@ -21102,7 +21114,7 @@
         <v>1007</v>
       </c>
       <c r="F465">
-        <v>0</v>
+        <v>0.52844622793999996</v>
       </c>
       <c r="G465">
         <v>1.5111980375E-2</v>
@@ -21111,13 +21123,13 @@
         <v>1.9971731017000001</v>
       </c>
       <c r="I465">
-        <v>12240.845738</v>
+        <v>34520.550057</v>
       </c>
       <c r="J465" t="s">
         <v>1080</v>
       </c>
       <c r="K465">
-        <v>1.7961533706999999</v>
+        <v>1.4073052579000001</v>
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.3">
@@ -21138,7 +21150,7 @@
         <v>1008</v>
       </c>
       <c r="F466">
-        <v>0.24870158337000001</v>
+        <v>0.22635114485999999</v>
       </c>
       <c r="G466">
         <v>0.26243320512000001</v>
@@ -21147,13 +21159,13 @@
         <v>1.3666703065000001</v>
       </c>
       <c r="I466">
-        <v>4679.5687266000004</v>
+        <v>4501.8914979000001</v>
       </c>
       <c r="J466" t="s">
         <v>1076</v>
       </c>
       <c r="K466">
-        <v>1.9798308048</v>
+        <v>2.0809023726000002</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
@@ -21174,7 +21186,7 @@
         <v>1009</v>
       </c>
       <c r="F467">
-        <v>0.24870158337000001</v>
+        <v>0.22635114485999999</v>
       </c>
       <c r="G467">
         <v>0.26243320512000001</v>
@@ -21183,13 +21195,13 @@
         <v>1.3666703065000001</v>
       </c>
       <c r="I467">
-        <v>8665.9319295999994</v>
+        <v>9578.3691686999991</v>
       </c>
       <c r="J467" t="s">
         <v>1076</v>
       </c>
       <c r="K467">
-        <v>1.9957259674000001</v>
+        <v>2.1003500583000001</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.3">
@@ -21210,7 +21222,7 @@
         <v>1010</v>
       </c>
       <c r="F468">
-        <v>0.24870158337000001</v>
+        <v>0.22635114485999999</v>
       </c>
       <c r="G468">
         <v>0.26243320512000001</v>
@@ -21219,13 +21231,13 @@
         <v>1.3666703065000001</v>
       </c>
       <c r="I468">
-        <v>184716.73235999999</v>
+        <v>250651.95288999999</v>
       </c>
       <c r="J468" t="s">
         <v>1076</v>
       </c>
       <c r="K468">
-        <v>5.9677504813000004</v>
+        <v>6.2674587179000003</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.3">
@@ -21246,7 +21258,7 @@
         <v>1011</v>
       </c>
       <c r="F469">
-        <v>7.8736958208999994E-2</v>
+        <v>5.8675570362000003E-2</v>
       </c>
       <c r="G469">
         <v>0.21567747178999999</v>
@@ -21255,13 +21267,13 @@
         <v>1.7927774057999999</v>
       </c>
       <c r="I469">
-        <v>564.54312158000005</v>
+        <v>881.90916860000004</v>
       </c>
       <c r="J469" t="s">
         <v>1078</v>
       </c>
       <c r="K469">
-        <v>2.0663711344000002</v>
+        <v>2.0172554011999999</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
@@ -21282,7 +21294,7 @@
         <v>1012</v>
       </c>
       <c r="F470">
-        <v>7.8736958208999994E-2</v>
+        <v>5.8675570362000003E-2</v>
       </c>
       <c r="G470">
         <v>0.21567747178999999</v>
@@ -21291,13 +21303,13 @@
         <v>1.7927774057999999</v>
       </c>
       <c r="I470">
-        <v>12612.455819000001</v>
+        <v>13305.476140999999</v>
       </c>
       <c r="J470" t="s">
         <v>1078</v>
       </c>
       <c r="K470">
-        <v>2.0363469383999999</v>
+        <v>1.9942717726000001</v>
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.3">
@@ -21327,13 +21339,13 @@
         <v>1.3860691149</v>
       </c>
       <c r="I471">
-        <v>1831.5292509000001</v>
+        <v>2366.9789403999998</v>
       </c>
       <c r="J471" t="s">
         <v>1088</v>
       </c>
       <c r="K471">
-        <v>0.64993553628</v>
+        <v>0.54983911460000001</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.3">
@@ -21363,13 +21375,13 @@
         <v>1.1636527458000001</v>
       </c>
       <c r="I472">
-        <v>15045.956925</v>
+        <v>6373.9013784999997</v>
       </c>
       <c r="J472" t="s">
         <v>1080</v>
       </c>
       <c r="K472">
-        <v>0.94841136681000004</v>
+        <v>0.96000848626000002</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.3">
@@ -21399,13 +21411,13 @@
         <v>1.3970464874999999</v>
       </c>
       <c r="I473">
-        <v>730.61390745999995</v>
+        <v>755.47128277000002</v>
       </c>
       <c r="J473" t="s">
         <v>1084</v>
       </c>
       <c r="K473">
-        <v>0.39737906429999997</v>
+        <v>0.34652240020000002</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.3">
@@ -21426,7 +21438,7 @@
         <v>1016</v>
       </c>
       <c r="F474">
-        <v>0.36783198304999998</v>
+        <v>0.46920840053000001</v>
       </c>
       <c r="G474">
         <v>0.55912139534000005</v>
@@ -21435,13 +21447,13 @@
         <v>2.6483047336999999</v>
       </c>
       <c r="I474">
-        <v>14002.014551</v>
+        <v>15713.942158</v>
       </c>
       <c r="J474" t="s">
         <v>1081</v>
       </c>
       <c r="K474">
-        <v>4.2775648611000001</v>
+        <v>4.6409250027000004</v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.3">
@@ -21501,7 +21513,7 @@
         <v>-838.88685819</v>
       </c>
       <c r="I476">
-        <v>0.76038144311</v>
+        <v>0</v>
       </c>
       <c r="J476" t="s">
         <v>1083</v>
@@ -21534,7 +21546,7 @@
         <v>-838.88685819</v>
       </c>
       <c r="I477">
-        <v>6.0696079852000002</v>
+        <v>7.6401094190999999</v>
       </c>
       <c r="J477" t="s">
         <v>1083</v>
@@ -21600,7 +21612,7 @@
         <v>20.058392274999999</v>
       </c>
       <c r="I479">
-        <v>9.7748488323</v>
+        <v>6.2423690943999999</v>
       </c>
       <c r="J479" t="s">
         <v>1078</v>
@@ -21633,13 +21645,13 @@
         <v>3.1134983153000002</v>
       </c>
       <c r="I480">
-        <v>64.970546936000005</v>
+        <v>79.071638000999997</v>
       </c>
       <c r="J480" t="s">
         <v>1086</v>
       </c>
       <c r="K480">
-        <v>2.3489518022999998</v>
+        <v>2.4079770870999999</v>
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.3">
@@ -21669,13 +21681,13 @@
         <v>3.1134983153000002</v>
       </c>
       <c r="I481">
-        <v>223.49124345000001</v>
+        <v>229.77422676</v>
       </c>
       <c r="J481" t="s">
         <v>1086</v>
       </c>
       <c r="K481">
-        <v>1.6689920701000001</v>
+        <v>1.6442134294999999</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
@@ -21696,7 +21708,7 @@
         <v>1024</v>
       </c>
       <c r="F482">
-        <v>0.45516079911000001</v>
+        <v>0.39658814029</v>
       </c>
       <c r="G482">
         <v>0.61481960292000004</v>
@@ -21705,13 +21717,13 @@
         <v>8.3162974685000002</v>
       </c>
       <c r="I482">
-        <v>454951.21263999998</v>
+        <v>483625.46386999998</v>
       </c>
       <c r="J482" t="s">
         <v>1086</v>
       </c>
       <c r="K482">
-        <v>8.5674926264</v>
+        <v>9.1633959194999992</v>
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
@@ -21741,13 +21753,13 @@
         <v>1.4041395947999999</v>
       </c>
       <c r="I483">
-        <v>109986.05297999999</v>
+        <v>127445.4915</v>
       </c>
       <c r="J483" t="s">
         <v>1084</v>
       </c>
       <c r="K483">
-        <v>2.3083308313000002</v>
+        <v>2.3690817156000001</v>
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
@@ -21777,13 +21789,13 @@
         <v>1.4996648006</v>
       </c>
       <c r="I484">
-        <v>4433.2074954</v>
+        <v>4079.4682684999998</v>
       </c>
       <c r="J484" t="s">
         <v>1080</v>
       </c>
       <c r="K484">
-        <v>2.4407905194000001</v>
+        <v>2.2453237156000001</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
@@ -21813,7 +21825,7 @@
         <v>-15.432296753999999</v>
       </c>
       <c r="I485">
-        <v>0.33237369997999999</v>
+        <v>0.34692502412999998</v>
       </c>
       <c r="J485" t="s">
         <v>1083</v>
@@ -21846,13 +21858,13 @@
         <v>-15.432296753999999</v>
       </c>
       <c r="I486">
-        <v>8.2997535828999993</v>
+        <v>4.9759013590999999</v>
       </c>
       <c r="J486" t="s">
         <v>1083</v>
       </c>
       <c r="K486">
-        <v>0.39737906429999997</v>
+        <v>0.40132951451999999</v>
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.3">
@@ -21882,13 +21894,13 @@
         <v>2.0695597235999998</v>
       </c>
       <c r="I487">
-        <v>496489.06458000001</v>
+        <v>449857.45194</v>
       </c>
       <c r="J487" t="s">
         <v>1086</v>
       </c>
       <c r="K487">
-        <v>3.0889599264999998</v>
+        <v>3.1575969732</v>
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
@@ -21918,13 +21930,13 @@
         <v>0.52681219695000003</v>
       </c>
       <c r="I488">
-        <v>772.39238466999996</v>
+        <v>1493.0428945000001</v>
       </c>
       <c r="J488" t="s">
         <v>1080</v>
       </c>
       <c r="K488">
-        <v>0.2649193762</v>
+        <v>0.19270888582000001</v>
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.3">
@@ -21945,7 +21957,7 @@
         <v>1031</v>
       </c>
       <c r="F489">
-        <v>4.2777698560000001E-2</v>
+        <v>8.3465499296000001E-2</v>
       </c>
       <c r="G489">
         <v>0.2545822264</v>
@@ -21954,13 +21966,13 @@
         <v>1.5943168758999999</v>
       </c>
       <c r="I489">
-        <v>278379.52545999998</v>
+        <v>348454.19981999998</v>
       </c>
       <c r="J489" t="s">
         <v>1088</v>
       </c>
       <c r="K489">
-        <v>4.9010084597999999</v>
+        <v>5.2986103744999999</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
@@ -21990,13 +22002,13 @@
         <v>0.54486619171999995</v>
       </c>
       <c r="I490">
-        <v>8209.5742816000002</v>
+        <v>9132.8483051000003</v>
       </c>
       <c r="J490" t="s">
         <v>1082</v>
       </c>
       <c r="K490">
-        <v>1.9515727380000001</v>
+        <v>2.1091899155</v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
@@ -22026,13 +22038,13 @@
         <v>5.4728661706999997</v>
       </c>
       <c r="I491">
-        <v>321.33700066</v>
+        <v>360.42147439000001</v>
       </c>
       <c r="J491" t="s">
         <v>1076</v>
       </c>
       <c r="K491">
-        <v>5.6498472297999998</v>
+        <v>5.7034758317999996</v>
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
@@ -22062,13 +22074,13 @@
         <v>5.4728661706999997</v>
       </c>
       <c r="I492">
-        <v>461554.91577000002</v>
+        <v>292895.39262</v>
       </c>
       <c r="J492" t="s">
         <v>1076</v>
       </c>
       <c r="K492">
-        <v>4.3376132529999998</v>
+        <v>4.3686574025000002</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.3">
@@ -22131,10 +22143,13 @@
         <v>1.2043121209000001</v>
       </c>
       <c r="I494">
-        <v>0.27563842723999998</v>
+        <v>9.0773039210000004</v>
       </c>
       <c r="J494" t="s">
         <v>1080</v>
+      </c>
+      <c r="K494">
+        <v>2.4733920299999999</v>
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
@@ -22164,13 +22179,13 @@
         <v>1.5140179392999999</v>
       </c>
       <c r="I495">
-        <v>10440.933905</v>
+        <v>8638.0051652999991</v>
       </c>
       <c r="J495" t="s">
         <v>1084</v>
       </c>
       <c r="K495">
-        <v>0.85657264972000002</v>
+        <v>0.81680280046999998</v>
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
@@ -22200,13 +22215,13 @@
         <v>4.1644947529999996</v>
       </c>
       <c r="I496">
-        <v>565.45716359000005</v>
+        <v>3867.0670415999998</v>
       </c>
       <c r="J496" t="s">
         <v>1081</v>
       </c>
       <c r="K496">
-        <v>0.65170166545999997</v>
+        <v>0.79028322902000003</v>
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
@@ -22236,13 +22251,13 @@
         <v>4.8271980005000001</v>
       </c>
       <c r="I497">
-        <v>54348.334695999998</v>
+        <v>55098.820760000002</v>
       </c>
       <c r="J497" t="s">
         <v>1089</v>
       </c>
       <c r="K497">
-        <v>4.3623390615000002</v>
+        <v>4.8371698312999998</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
@@ -22263,7 +22278,7 @@
         <v>1040</v>
       </c>
       <c r="F498">
-        <v>0.13121539026000001</v>
+        <v>0.12677552775000001</v>
       </c>
       <c r="G498">
         <v>0.47643185336999999</v>
@@ -22272,13 +22287,13 @@
         <v>2.5179409016999998</v>
       </c>
       <c r="I498">
-        <v>344840.09694999998</v>
+        <v>665603.28656000004</v>
       </c>
       <c r="J498" t="s">
         <v>1074</v>
       </c>
       <c r="K498">
-        <v>3.9225728969999998</v>
+        <v>4.1299812595000001</v>
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
@@ -22308,13 +22323,13 @@
         <v>0.58469500120999995</v>
       </c>
       <c r="I499">
-        <v>383.68776688000003</v>
+        <v>279.10329809000001</v>
       </c>
       <c r="J499" t="s">
         <v>1080</v>
       </c>
       <c r="K499">
-        <v>0.40267745182999998</v>
+        <v>0.41016937166</v>
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.3">
@@ -22344,13 +22359,13 @@
         <v>0.64345313076999999</v>
       </c>
       <c r="I500">
-        <v>10960.631687999999</v>
+        <v>8459.5569018000006</v>
       </c>
       <c r="J500" t="s">
         <v>1086</v>
       </c>
       <c r="K500">
-        <v>0.60048391939000001</v>
+        <v>0.67182914323999998</v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
@@ -22380,13 +22395,13 @@
         <v>4.4617514414999997</v>
       </c>
       <c r="I501">
-        <v>1158.7061779000001</v>
+        <v>1889.3521238000001</v>
       </c>
       <c r="J501" t="s">
         <v>1090</v>
       </c>
       <c r="K501">
-        <v>9.0072587908999999</v>
+        <v>8.3784166047999999</v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.3">
@@ -22416,13 +22431,13 @@
         <v>4.4617514414999997</v>
       </c>
       <c r="I502">
-        <v>93.891343663000001</v>
+        <v>176.23809707999999</v>
       </c>
       <c r="J502" t="s">
         <v>1090</v>
       </c>
       <c r="K502">
-        <v>9.1838717083999999</v>
+        <v>8.6630600050000002</v>
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.3">
@@ -22452,13 +22467,13 @@
         <v>4.4617514414999997</v>
       </c>
       <c r="I503">
-        <v>35436.268778999998</v>
+        <v>44897.493815000002</v>
       </c>
       <c r="J503" t="s">
         <v>1090</v>
       </c>
       <c r="K503">
-        <v>9.1997668709999996</v>
+        <v>8.3589689191000005</v>
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.3">
@@ -22518,13 +22533,13 @@
         <v>3.8769295161000001</v>
       </c>
       <c r="I505">
-        <v>14998.725191</v>
+        <v>10352.590899000001</v>
       </c>
       <c r="J505" t="s">
         <v>1078</v>
       </c>
       <c r="K505">
-        <v>1.0667420215000001</v>
+        <v>1.0766946006</v>
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
@@ -22554,13 +22569,13 @@
         <v>3.8769295161000001</v>
       </c>
       <c r="I506">
-        <v>521429.34959</v>
+        <v>388645.69092999998</v>
       </c>
       <c r="J506" t="s">
         <v>1078</v>
       </c>
       <c r="K506">
-        <v>1.0985323467000001</v>
+        <v>1.1014462006000001</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.3">
@@ -22590,7 +22605,7 @@
         <v>3.8769295161000001</v>
       </c>
       <c r="I507">
-        <v>0</v>
+        <v>1.2343269708</v>
       </c>
       <c r="J507" t="s">
         <v>1078</v>
@@ -22614,7 +22629,7 @@
         <v>1050</v>
       </c>
       <c r="F508">
-        <v>1.4200853263</v>
+        <v>1.3928935576999999</v>
       </c>
       <c r="G508">
         <v>1.7827791363000001</v>
@@ -22623,13 +22638,13 @@
         <v>8.7541521814000003</v>
       </c>
       <c r="I508">
-        <v>5537483.0350000001</v>
+        <v>6133670.1524999999</v>
       </c>
       <c r="J508" t="s">
         <v>1087</v>
       </c>
       <c r="K508">
-        <v>10.884654103000001</v>
+        <v>10.533573777000001</v>
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.3">
@@ -22650,7 +22665,7 @@
         <v>1051</v>
       </c>
       <c r="F509">
-        <v>0.24201007809</v>
+        <v>0.32184315439</v>
       </c>
       <c r="G509">
         <v>0.75439764423</v>
@@ -22659,13 +22674,13 @@
         <v>3.8419724348000002</v>
       </c>
       <c r="I509">
-        <v>29573.201950999999</v>
+        <v>45868.274017000003</v>
       </c>
       <c r="J509" t="s">
         <v>1080</v>
       </c>
       <c r="K509">
-        <v>3.0306776638000001</v>
+        <v>4.0221350022999998</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
@@ -22695,13 +22710,13 @@
         <v>0.89585897793000002</v>
       </c>
       <c r="I510">
-        <v>274151.87218000001</v>
+        <v>294064.75232000003</v>
       </c>
       <c r="J510" t="s">
         <v>1080</v>
       </c>
       <c r="K510">
-        <v>1.5241694777999999</v>
+        <v>1.3436582865</v>
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.3">
@@ -22731,13 +22746,13 @@
         <v>1.8214841516</v>
       </c>
       <c r="I511">
-        <v>340.57899972000001</v>
+        <v>309.65870645000001</v>
       </c>
       <c r="J511" t="s">
         <v>1083</v>
       </c>
       <c r="K511">
-        <v>2.4160647110000002</v>
+        <v>2.2983628585</v>
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.3">
@@ -22767,13 +22782,13 @@
         <v>2.9716436146</v>
       </c>
       <c r="I512">
-        <v>482422.67158999998</v>
+        <v>908693.35973000003</v>
       </c>
       <c r="J512" t="s">
         <v>1074</v>
       </c>
       <c r="K512">
-        <v>4.0903551686000004</v>
+        <v>4.5472225168999998</v>
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
@@ -22800,13 +22815,13 @@
         <v>3.3749284572999998</v>
       </c>
       <c r="I513">
-        <v>4370.6320692999998</v>
+        <v>2576.6808535999999</v>
       </c>
       <c r="J513" t="s">
         <v>1080</v>
       </c>
       <c r="K513">
-        <v>2.2288550185</v>
+        <v>1.7927230296000001</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.3">
@@ -22836,13 +22851,13 @@
         <v>0.78531931127999999</v>
       </c>
       <c r="I514">
-        <v>7106.4203925000002</v>
+        <v>10389.021318999999</v>
       </c>
       <c r="J514" t="s">
         <v>1075</v>
       </c>
       <c r="K514">
-        <v>1.0773387966000001</v>
+        <v>1.0943743149</v>
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.3">
@@ -22872,13 +22887,13 @@
         <v>1.6762995418</v>
       </c>
       <c r="I515">
-        <v>274479.48927000002</v>
+        <v>405668.44111999997</v>
       </c>
       <c r="J515" t="s">
         <v>1082</v>
       </c>
       <c r="K515">
-        <v>4.2475406650999998</v>
+        <v>4.6709805170000003</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
@@ -22908,13 +22923,13 @@
         <v>2.065203903</v>
       </c>
       <c r="I516">
-        <v>28427.256828000001</v>
+        <v>36112.951102999999</v>
       </c>
       <c r="J516" t="s">
         <v>1082</v>
       </c>
       <c r="K516">
-        <v>0.40267745182999998</v>
+        <v>0.33591457161999999</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
@@ -22944,13 +22959,13 @@
         <v>0.77625732923000001</v>
       </c>
       <c r="I517">
-        <v>613.77865258999998</v>
+        <v>670.25420327999996</v>
       </c>
       <c r="J517" t="s">
         <v>1084</v>
       </c>
       <c r="K517">
-        <v>0.40620971018000002</v>
+        <v>0.41547328594999999</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.3">
@@ -22971,7 +22986,7 @@
         <v>1059</v>
       </c>
       <c r="F518">
-        <v>0.62502712539000005</v>
+        <v>0.64000765631000001</v>
       </c>
       <c r="G518">
         <v>0.40160035219000001</v>
@@ -22980,13 +22995,13 @@
         <v>1.4635256570999999</v>
       </c>
       <c r="I518">
-        <v>41301.854808999997</v>
+        <v>53240.867201000001</v>
       </c>
       <c r="J518" t="s">
         <v>1083</v>
       </c>
       <c r="K518">
-        <v>2.7339679624</v>
+        <v>3.1240055161</v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.3">
@@ -23016,13 +23031,13 @@
         <v>2.020722336</v>
       </c>
       <c r="I519">
-        <v>200.17667607999999</v>
+        <v>290.20314132999999</v>
       </c>
       <c r="J519" t="s">
         <v>1082</v>
       </c>
       <c r="K519">
-        <v>0.65346779463000004</v>
+        <v>0.65238145751999999</v>
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.3">
@@ -23043,7 +23058,7 @@
         <v>1061</v>
       </c>
       <c r="F520">
-        <v>0.10937450859</v>
+        <v>0.14206844955</v>
       </c>
       <c r="G520">
         <v>0.27443944130999998</v>
@@ -23052,13 +23067,13 @@
         <v>0.83047019483999995</v>
       </c>
       <c r="I520">
-        <v>1207099.0628</v>
+        <v>1632958.5319999999</v>
       </c>
       <c r="J520" t="s">
         <v>1079</v>
       </c>
       <c r="K520">
-        <v>8.9472103989999994</v>
+        <v>9.5735652911999995</v>
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.3">
@@ -23088,13 +23103,13 @@
         <v>0.43515138930000002</v>
       </c>
       <c r="I521">
-        <v>223.78982608000001</v>
+        <v>161.71042757000001</v>
       </c>
       <c r="J521" t="s">
         <v>1082</v>
       </c>
       <c r="K521">
-        <v>0.15541936737000001</v>
+        <v>0.15911742866</v>
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
@@ -23124,7 +23139,7 @@
         <v>-0.52138750815000001</v>
       </c>
       <c r="I522">
-        <v>0.16645439750999999</v>
+        <v>0</v>
       </c>
       <c r="J522" t="s">
         <v>1089</v>
@@ -23157,10 +23172,13 @@
         <v>-0.52138750815000001</v>
       </c>
       <c r="I523">
-        <v>18.927498497999999</v>
+        <v>12.656506954999999</v>
       </c>
       <c r="J523" t="s">
         <v>1089</v>
+      </c>
+      <c r="K523">
+        <v>1.6265337151999999</v>
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.3">
@@ -23190,13 +23208,13 @@
         <v>0.29830241722</v>
       </c>
       <c r="I524">
-        <v>11.505520295</v>
+        <v>23.146590555</v>
       </c>
       <c r="J524" t="s">
         <v>1092</v>
       </c>
       <c r="K524">
-        <v>0.77886296604000005</v>
+        <v>0.753155829</v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
@@ -23226,13 +23244,13 @@
         <v>0.29830241722</v>
       </c>
       <c r="I525">
-        <v>139.8191166</v>
+        <v>106.41889061000001</v>
       </c>
       <c r="J525" t="s">
         <v>1092</v>
       </c>
       <c r="K525">
-        <v>0.79829038695999999</v>
+        <v>0.79735511473999998</v>
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
@@ -23262,13 +23280,13 @@
         <v>1.1167264080999999</v>
       </c>
       <c r="I526">
-        <v>25307.974698000002</v>
+        <v>39858.245401</v>
       </c>
       <c r="J526" t="s">
         <v>1081</v>
       </c>
       <c r="K526">
-        <v>2.7798873209999999</v>
+        <v>3.0409108588999998</v>
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
@@ -23298,13 +23316,13 @@
         <v>0.64979009954</v>
       </c>
       <c r="I527">
-        <v>8169.1188464999996</v>
+        <v>11131.716143</v>
       </c>
       <c r="J527" t="s">
         <v>1077</v>
       </c>
       <c r="K527">
-        <v>1.0755726673999999</v>
+        <v>1.0908383720999999</v>
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.3">
@@ -23325,7 +23343,7 @@
         <v>1069</v>
       </c>
       <c r="F528">
-        <v>0.25614232418999999</v>
+        <v>0.25175284614999999</v>
       </c>
       <c r="G528">
         <v>0.64536794247999996</v>
@@ -23334,10 +23352,13 @@
         <v>4.0037656474999999</v>
       </c>
       <c r="I528">
-        <v>12.162782348</v>
+        <v>13.864123647</v>
       </c>
       <c r="J528" t="s">
         <v>1082</v>
+      </c>
+      <c r="K528">
+        <v>5.0917577172000001</v>
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.3">
@@ -23358,7 +23379,7 @@
         <v>1070</v>
       </c>
       <c r="F529">
-        <v>0.28175597137000002</v>
+        <v>0.27692754547999998</v>
       </c>
       <c r="G529">
         <v>0.64536794247999996</v>
@@ -23367,13 +23388,13 @@
         <v>4.0037656474999999</v>
       </c>
       <c r="I529">
-        <v>106.52201393</v>
+        <v>75.309125366000004</v>
       </c>
       <c r="J529" t="s">
         <v>1082</v>
       </c>
       <c r="K529">
-        <v>5.5809681920000003</v>
+        <v>6.3646971465000002</v>
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.3">
@@ -23424,7 +23445,7 @@
         <v>1072</v>
       </c>
       <c r="F531">
-        <v>0.10876392595000001</v>
+        <v>5.3472679877000003E-2</v>
       </c>
       <c r="G531">
         <v>0.10598486128</v>
@@ -23433,13 +23454,13 @@
         <v>2.1960572225999999</v>
       </c>
       <c r="I531">
-        <v>160733.57498999999</v>
+        <v>179925.51949000001</v>
       </c>
       <c r="J531" t="s">
         <v>1080</v>
       </c>
       <c r="K531">
-        <v>1.9321453171</v>
+        <v>1.7414518581</v>
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.3">
@@ -23469,13 +23490,13 @@
         <v>0.96505709043999999</v>
       </c>
       <c r="I532">
-        <v>7892.8524698000001</v>
+        <v>10207.094868</v>
       </c>
       <c r="J532" t="s">
         <v>1080</v>
       </c>
       <c r="K532">
-        <v>0.58635488599999996</v>
+        <v>0.53923128602000003</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.3">
@@ -23722,10 +23743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A241AF6F-7D30-4E79-8237-7E99B590AE19}">
-  <dimension ref="A1:B7721"/>
+  <dimension ref="A1:B7742"/>
   <sheetViews>
-    <sheetView topLeftCell="A7695" workbookViewId="0">
-      <selection activeCell="B7700" sqref="B7700"/>
+    <sheetView tabSelected="1" topLeftCell="A7716" workbookViewId="0">
+      <selection activeCell="B7741" sqref="B7741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23735,9 +23756,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="str" cm="1">
+      <c r="A1" t="e" cm="1">
         <f t="array" ref="A1">_xll.ECONOMATICA("T-BOND10&lt;UsaNa&gt;","Close",,"D-0","1995-01-03","D","ORIGINAL CURRENCY",,"true","true")</f>
-        <v>date</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" t="s">
         <v>1492</v>
@@ -84611,6 +84632,171 @@
       </c>
       <c r="B7721">
         <v>3.79</v>
+      </c>
+    </row>
+    <row r="7722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7722" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B7722">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="7723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7723" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B7723">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="7724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7724" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B7724">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="7725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7725" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B7725">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7726" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B7726">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="7727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7727" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B7727">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="7728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7728" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B7728">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="7729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7729" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B7729">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="7730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7730" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B7730">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="7731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7731" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B7731">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="7732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7732" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B7732">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="7733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7733" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B7733">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="7734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7734" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B7734">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="7735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7735" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B7735">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="7736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7736" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B7736">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="7737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7737" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B7737">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="7738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7738" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B7738">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="7739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7739" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B7739">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="7740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7740" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B7740">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="7741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7741" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B7741">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="7742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7742" s="1">
+        <v>45537</v>
       </c>
     </row>
   </sheetData>
